--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -1252,18 +1252,18 @@
       <c r="AU3" s="23" t="n"/>
       <c r="AV3" s="23" t="n"/>
       <c r="AW3" s="24" t="n"/>
-      <c r="AX3" s="25" t="n"/>
-      <c r="AY3" s="26" t="n"/>
-      <c r="AZ3" s="26" t="n"/>
-      <c r="BA3" s="26" t="n"/>
-      <c r="BB3" s="26" t="n"/>
-      <c r="BC3" s="26" t="n"/>
-      <c r="BD3" s="26" t="n"/>
-      <c r="BE3" s="26" t="n"/>
-      <c r="BF3" s="26" t="n"/>
-      <c r="BG3" s="26" t="n"/>
-      <c r="BH3" s="26" t="n"/>
-      <c r="BI3" s="27" t="n"/>
+      <c r="AX3" s="22" t="n"/>
+      <c r="AY3" s="23" t="n"/>
+      <c r="AZ3" s="23" t="n"/>
+      <c r="BA3" s="23" t="n"/>
+      <c r="BB3" s="23" t="n"/>
+      <c r="BC3" s="23" t="n"/>
+      <c r="BD3" s="23" t="n"/>
+      <c r="BE3" s="23" t="n"/>
+      <c r="BF3" s="23" t="n"/>
+      <c r="BG3" s="23" t="n"/>
+      <c r="BH3" s="23" t="n"/>
+      <c r="BI3" s="24" t="n"/>
       <c r="BJ3" s="22" t="n"/>
       <c r="BK3" s="23" t="n"/>
       <c r="BL3" s="23" t="n"/>
@@ -1451,39 +1451,39 @@
       <c r="AU4" s="23" t="n"/>
       <c r="AV4" s="23" t="n"/>
       <c r="AW4" s="24" t="n"/>
-      <c r="AX4" s="25" t="n"/>
-      <c r="AY4" s="26" t="n"/>
-      <c r="AZ4" s="26" t="n"/>
-      <c r="BA4" s="26" t="n"/>
-      <c r="BB4" s="26" t="n"/>
-      <c r="BC4" s="26" t="n"/>
-      <c r="BD4" s="26" t="n"/>
-      <c r="BE4" s="26" t="n"/>
-      <c r="BF4" s="26" t="n"/>
-      <c r="BG4" s="26" t="n"/>
-      <c r="BH4" s="26" t="n"/>
-      <c r="BI4" s="27" t="n"/>
+      <c r="AX4" s="22" t="n"/>
+      <c r="AY4" s="23" t="n"/>
+      <c r="AZ4" s="23" t="n"/>
+      <c r="BA4" s="23" t="n"/>
+      <c r="BB4" s="23" t="n"/>
+      <c r="BC4" s="23" t="n"/>
+      <c r="BD4" s="23" t="n"/>
+      <c r="BE4" s="23" t="n"/>
+      <c r="BF4" s="23" t="n"/>
+      <c r="BG4" s="23" t="n"/>
+      <c r="BH4" s="23" t="n"/>
+      <c r="BI4" s="24" t="n"/>
       <c r="BJ4" s="22" t="n"/>
       <c r="BK4" s="23" t="n"/>
       <c r="BL4" s="23" t="n"/>
       <c r="BM4" s="23" t="n"/>
       <c r="BN4" s="23" t="n"/>
       <c r="BO4" s="23" t="n"/>
-      <c r="BP4" s="26" t="n"/>
-      <c r="BQ4" s="26" t="n"/>
-      <c r="BR4" s="26" t="n"/>
-      <c r="BS4" s="26" t="n"/>
-      <c r="BT4" s="26" t="n"/>
-      <c r="BU4" s="27" t="n"/>
-      <c r="BV4" s="25" t="n"/>
-      <c r="BW4" s="26" t="n"/>
-      <c r="BX4" s="26" t="n"/>
-      <c r="BY4" s="26" t="n"/>
-      <c r="BZ4" s="26" t="n"/>
-      <c r="CA4" s="26" t="n"/>
-      <c r="CB4" s="26" t="n"/>
-      <c r="CC4" s="26" t="n"/>
-      <c r="CD4" s="26" t="n"/>
+      <c r="BP4" s="23" t="n"/>
+      <c r="BQ4" s="23" t="n"/>
+      <c r="BR4" s="23" t="n"/>
+      <c r="BS4" s="23" t="n"/>
+      <c r="BT4" s="23" t="n"/>
+      <c r="BU4" s="24" t="n"/>
+      <c r="BV4" s="22" t="n"/>
+      <c r="BW4" s="23" t="n"/>
+      <c r="BX4" s="23" t="n"/>
+      <c r="BY4" s="23" t="n"/>
+      <c r="BZ4" s="23" t="n"/>
+      <c r="CA4" s="23" t="n"/>
+      <c r="CB4" s="23" t="n"/>
+      <c r="CC4" s="23" t="n"/>
+      <c r="CD4" s="23" t="n"/>
       <c r="CE4" s="23" t="n"/>
       <c r="CF4" s="23" t="n"/>
       <c r="CG4" s="24" t="n"/>
@@ -1674,18 +1674,18 @@
       <c r="BS5" s="23" t="n"/>
       <c r="BT5" s="23" t="n"/>
       <c r="BU5" s="24" t="n"/>
-      <c r="BV5" s="25" t="n"/>
-      <c r="BW5" s="26" t="n"/>
-      <c r="BX5" s="26" t="n"/>
-      <c r="BY5" s="26" t="n"/>
-      <c r="BZ5" s="26" t="n"/>
-      <c r="CA5" s="26" t="n"/>
-      <c r="CB5" s="26" t="n"/>
-      <c r="CC5" s="26" t="n"/>
-      <c r="CD5" s="26" t="n"/>
-      <c r="CE5" s="26" t="n"/>
-      <c r="CF5" s="26" t="n"/>
-      <c r="CG5" s="27" t="n"/>
+      <c r="BV5" s="22" t="n"/>
+      <c r="BW5" s="23" t="n"/>
+      <c r="BX5" s="23" t="n"/>
+      <c r="BY5" s="23" t="n"/>
+      <c r="BZ5" s="23" t="n"/>
+      <c r="CA5" s="23" t="n"/>
+      <c r="CB5" s="23" t="n"/>
+      <c r="CC5" s="23" t="n"/>
+      <c r="CD5" s="23" t="n"/>
+      <c r="CE5" s="23" t="n"/>
+      <c r="CF5" s="23" t="n"/>
+      <c r="CG5" s="24" t="n"/>
       <c r="CH5" s="22" t="n"/>
       <c r="CI5" s="23" t="n"/>
       <c r="CJ5" s="23" t="n"/>
@@ -1849,39 +1849,39 @@
       <c r="AU6" s="23" t="n"/>
       <c r="AV6" s="23" t="n"/>
       <c r="AW6" s="24" t="n"/>
-      <c r="AX6" s="25" t="n"/>
-      <c r="AY6" s="26" t="n"/>
-      <c r="AZ6" s="26" t="n"/>
-      <c r="BA6" s="26" t="n"/>
-      <c r="BB6" s="26" t="n"/>
-      <c r="BC6" s="26" t="n"/>
-      <c r="BD6" s="26" t="n"/>
-      <c r="BE6" s="26" t="n"/>
-      <c r="BF6" s="26" t="n"/>
-      <c r="BG6" s="26" t="n"/>
-      <c r="BH6" s="26" t="n"/>
-      <c r="BI6" s="27" t="n"/>
+      <c r="AX6" s="22" t="n"/>
+      <c r="AY6" s="23" t="n"/>
+      <c r="AZ6" s="23" t="n"/>
+      <c r="BA6" s="23" t="n"/>
+      <c r="BB6" s="23" t="n"/>
+      <c r="BC6" s="23" t="n"/>
+      <c r="BD6" s="23" t="n"/>
+      <c r="BE6" s="23" t="n"/>
+      <c r="BF6" s="23" t="n"/>
+      <c r="BG6" s="23" t="n"/>
+      <c r="BH6" s="23" t="n"/>
+      <c r="BI6" s="24" t="n"/>
       <c r="BJ6" s="22" t="n"/>
       <c r="BK6" s="23" t="n"/>
       <c r="BL6" s="23" t="n"/>
       <c r="BM6" s="23" t="n"/>
       <c r="BN6" s="23" t="n"/>
       <c r="BO6" s="23" t="n"/>
-      <c r="BP6" s="26" t="n"/>
-      <c r="BQ6" s="26" t="n"/>
-      <c r="BR6" s="26" t="n"/>
-      <c r="BS6" s="26" t="n"/>
-      <c r="BT6" s="26" t="n"/>
-      <c r="BU6" s="27" t="n"/>
-      <c r="BV6" s="25" t="n"/>
-      <c r="BW6" s="26" t="n"/>
-      <c r="BX6" s="26" t="n"/>
-      <c r="BY6" s="26" t="n"/>
-      <c r="BZ6" s="26" t="n"/>
-      <c r="CA6" s="26" t="n"/>
-      <c r="CB6" s="26" t="n"/>
-      <c r="CC6" s="26" t="n"/>
-      <c r="CD6" s="26" t="n"/>
+      <c r="BP6" s="23" t="n"/>
+      <c r="BQ6" s="23" t="n"/>
+      <c r="BR6" s="23" t="n"/>
+      <c r="BS6" s="23" t="n"/>
+      <c r="BT6" s="23" t="n"/>
+      <c r="BU6" s="24" t="n"/>
+      <c r="BV6" s="22" t="n"/>
+      <c r="BW6" s="23" t="n"/>
+      <c r="BX6" s="23" t="n"/>
+      <c r="BY6" s="23" t="n"/>
+      <c r="BZ6" s="23" t="n"/>
+      <c r="CA6" s="23" t="n"/>
+      <c r="CB6" s="23" t="n"/>
+      <c r="CC6" s="23" t="n"/>
+      <c r="CD6" s="23" t="n"/>
       <c r="CE6" s="23" t="n"/>
       <c r="CF6" s="23" t="n"/>
       <c r="CG6" s="24" t="n"/>
@@ -2072,18 +2072,18 @@
       <c r="BS7" s="23" t="n"/>
       <c r="BT7" s="23" t="n"/>
       <c r="BU7" s="24" t="n"/>
-      <c r="BV7" s="25" t="n"/>
-      <c r="BW7" s="26" t="n"/>
-      <c r="BX7" s="26" t="n"/>
-      <c r="BY7" s="26" t="n"/>
-      <c r="BZ7" s="26" t="n"/>
-      <c r="CA7" s="26" t="n"/>
-      <c r="CB7" s="26" t="n"/>
-      <c r="CC7" s="26" t="n"/>
-      <c r="CD7" s="26" t="n"/>
-      <c r="CE7" s="26" t="n"/>
-      <c r="CF7" s="26" t="n"/>
-      <c r="CG7" s="27" t="n"/>
+      <c r="BV7" s="22" t="n"/>
+      <c r="BW7" s="23" t="n"/>
+      <c r="BX7" s="23" t="n"/>
+      <c r="BY7" s="23" t="n"/>
+      <c r="BZ7" s="23" t="n"/>
+      <c r="CA7" s="23" t="n"/>
+      <c r="CB7" s="23" t="n"/>
+      <c r="CC7" s="23" t="n"/>
+      <c r="CD7" s="23" t="n"/>
+      <c r="CE7" s="23" t="n"/>
+      <c r="CF7" s="23" t="n"/>
+      <c r="CG7" s="24" t="n"/>
       <c r="CH7" s="22" t="n"/>
       <c r="CI7" s="23" t="n"/>
       <c r="CJ7" s="23" t="n"/>
@@ -2247,39 +2247,39 @@
       <c r="AU8" s="23" t="n"/>
       <c r="AV8" s="23" t="n"/>
       <c r="AW8" s="24" t="n"/>
-      <c r="AX8" s="25" t="n"/>
-      <c r="AY8" s="26" t="n"/>
-      <c r="AZ8" s="26" t="n"/>
-      <c r="BA8" s="26" t="n"/>
-      <c r="BB8" s="26" t="n"/>
-      <c r="BC8" s="26" t="n"/>
-      <c r="BD8" s="26" t="n"/>
-      <c r="BE8" s="26" t="n"/>
-      <c r="BF8" s="26" t="n"/>
-      <c r="BG8" s="26" t="n"/>
-      <c r="BH8" s="26" t="n"/>
-      <c r="BI8" s="27" t="n"/>
+      <c r="AX8" s="22" t="n"/>
+      <c r="AY8" s="23" t="n"/>
+      <c r="AZ8" s="23" t="n"/>
+      <c r="BA8" s="23" t="n"/>
+      <c r="BB8" s="23" t="n"/>
+      <c r="BC8" s="23" t="n"/>
+      <c r="BD8" s="23" t="n"/>
+      <c r="BE8" s="23" t="n"/>
+      <c r="BF8" s="23" t="n"/>
+      <c r="BG8" s="23" t="n"/>
+      <c r="BH8" s="23" t="n"/>
+      <c r="BI8" s="24" t="n"/>
       <c r="BJ8" s="22" t="n"/>
       <c r="BK8" s="23" t="n"/>
       <c r="BL8" s="23" t="n"/>
       <c r="BM8" s="23" t="n"/>
       <c r="BN8" s="23" t="n"/>
       <c r="BO8" s="23" t="n"/>
-      <c r="BP8" s="26" t="n"/>
-      <c r="BQ8" s="26" t="n"/>
-      <c r="BR8" s="26" t="n"/>
-      <c r="BS8" s="26" t="n"/>
-      <c r="BT8" s="26" t="n"/>
-      <c r="BU8" s="27" t="n"/>
-      <c r="BV8" s="25" t="n"/>
-      <c r="BW8" s="26" t="n"/>
-      <c r="BX8" s="26" t="n"/>
-      <c r="BY8" s="26" t="n"/>
-      <c r="BZ8" s="26" t="n"/>
-      <c r="CA8" s="26" t="n"/>
-      <c r="CB8" s="26" t="n"/>
-      <c r="CC8" s="26" t="n"/>
-      <c r="CD8" s="26" t="n"/>
+      <c r="BP8" s="23" t="n"/>
+      <c r="BQ8" s="23" t="n"/>
+      <c r="BR8" s="23" t="n"/>
+      <c r="BS8" s="23" t="n"/>
+      <c r="BT8" s="23" t="n"/>
+      <c r="BU8" s="24" t="n"/>
+      <c r="BV8" s="22" t="n"/>
+      <c r="BW8" s="23" t="n"/>
+      <c r="BX8" s="23" t="n"/>
+      <c r="BY8" s="23" t="n"/>
+      <c r="BZ8" s="23" t="n"/>
+      <c r="CA8" s="23" t="n"/>
+      <c r="CB8" s="23" t="n"/>
+      <c r="CC8" s="23" t="n"/>
+      <c r="CD8" s="23" t="n"/>
       <c r="CE8" s="23" t="n"/>
       <c r="CF8" s="23" t="n"/>
       <c r="CG8" s="24" t="n"/>

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -1451,39 +1451,39 @@
       <c r="AU4" s="23" t="n"/>
       <c r="AV4" s="23" t="n"/>
       <c r="AW4" s="24" t="n"/>
-      <c r="AX4" s="22" t="n"/>
-      <c r="AY4" s="23" t="n"/>
-      <c r="AZ4" s="23" t="n"/>
-      <c r="BA4" s="23" t="n"/>
-      <c r="BB4" s="23" t="n"/>
-      <c r="BC4" s="23" t="n"/>
-      <c r="BD4" s="23" t="n"/>
-      <c r="BE4" s="23" t="n"/>
-      <c r="BF4" s="23" t="n"/>
-      <c r="BG4" s="23" t="n"/>
-      <c r="BH4" s="23" t="n"/>
-      <c r="BI4" s="24" t="n"/>
+      <c r="AX4" s="25" t="n"/>
+      <c r="AY4" s="26" t="n"/>
+      <c r="AZ4" s="26" t="n"/>
+      <c r="BA4" s="26" t="n"/>
+      <c r="BB4" s="26" t="n"/>
+      <c r="BC4" s="26" t="n"/>
+      <c r="BD4" s="26" t="n"/>
+      <c r="BE4" s="26" t="n"/>
+      <c r="BF4" s="26" t="n"/>
+      <c r="BG4" s="26" t="n"/>
+      <c r="BH4" s="26" t="n"/>
+      <c r="BI4" s="27" t="n"/>
       <c r="BJ4" s="22" t="n"/>
       <c r="BK4" s="23" t="n"/>
       <c r="BL4" s="23" t="n"/>
       <c r="BM4" s="23" t="n"/>
       <c r="BN4" s="23" t="n"/>
       <c r="BO4" s="23" t="n"/>
-      <c r="BP4" s="23" t="n"/>
-      <c r="BQ4" s="23" t="n"/>
-      <c r="BR4" s="23" t="n"/>
-      <c r="BS4" s="23" t="n"/>
-      <c r="BT4" s="23" t="n"/>
-      <c r="BU4" s="24" t="n"/>
-      <c r="BV4" s="22" t="n"/>
-      <c r="BW4" s="23" t="n"/>
-      <c r="BX4" s="23" t="n"/>
-      <c r="BY4" s="23" t="n"/>
-      <c r="BZ4" s="23" t="n"/>
-      <c r="CA4" s="23" t="n"/>
-      <c r="CB4" s="23" t="n"/>
-      <c r="CC4" s="23" t="n"/>
-      <c r="CD4" s="23" t="n"/>
+      <c r="BP4" s="26" t="n"/>
+      <c r="BQ4" s="26" t="n"/>
+      <c r="BR4" s="26" t="n"/>
+      <c r="BS4" s="26" t="n"/>
+      <c r="BT4" s="26" t="n"/>
+      <c r="BU4" s="27" t="n"/>
+      <c r="BV4" s="25" t="n"/>
+      <c r="BW4" s="26" t="n"/>
+      <c r="BX4" s="26" t="n"/>
+      <c r="BY4" s="26" t="n"/>
+      <c r="BZ4" s="26" t="n"/>
+      <c r="CA4" s="26" t="n"/>
+      <c r="CB4" s="26" t="n"/>
+      <c r="CC4" s="26" t="n"/>
+      <c r="CD4" s="26" t="n"/>
       <c r="CE4" s="23" t="n"/>
       <c r="CF4" s="23" t="n"/>
       <c r="CG4" s="24" t="n"/>
@@ -1674,18 +1674,18 @@
       <c r="BS5" s="23" t="n"/>
       <c r="BT5" s="23" t="n"/>
       <c r="BU5" s="24" t="n"/>
-      <c r="BV5" s="22" t="n"/>
-      <c r="BW5" s="23" t="n"/>
-      <c r="BX5" s="23" t="n"/>
-      <c r="BY5" s="23" t="n"/>
-      <c r="BZ5" s="23" t="n"/>
-      <c r="CA5" s="23" t="n"/>
-      <c r="CB5" s="23" t="n"/>
-      <c r="CC5" s="23" t="n"/>
-      <c r="CD5" s="23" t="n"/>
-      <c r="CE5" s="23" t="n"/>
-      <c r="CF5" s="23" t="n"/>
-      <c r="CG5" s="24" t="n"/>
+      <c r="BV5" s="25" t="n"/>
+      <c r="BW5" s="26" t="n"/>
+      <c r="BX5" s="26" t="n"/>
+      <c r="BY5" s="26" t="n"/>
+      <c r="BZ5" s="26" t="n"/>
+      <c r="CA5" s="26" t="n"/>
+      <c r="CB5" s="26" t="n"/>
+      <c r="CC5" s="26" t="n"/>
+      <c r="CD5" s="26" t="n"/>
+      <c r="CE5" s="26" t="n"/>
+      <c r="CF5" s="26" t="n"/>
+      <c r="CG5" s="27" t="n"/>
       <c r="CH5" s="22" t="n"/>
       <c r="CI5" s="23" t="n"/>
       <c r="CJ5" s="23" t="n"/>
@@ -1849,39 +1849,39 @@
       <c r="AU6" s="23" t="n"/>
       <c r="AV6" s="23" t="n"/>
       <c r="AW6" s="24" t="n"/>
-      <c r="AX6" s="22" t="n"/>
-      <c r="AY6" s="23" t="n"/>
-      <c r="AZ6" s="23" t="n"/>
-      <c r="BA6" s="23" t="n"/>
-      <c r="BB6" s="23" t="n"/>
-      <c r="BC6" s="23" t="n"/>
-      <c r="BD6" s="23" t="n"/>
-      <c r="BE6" s="23" t="n"/>
-      <c r="BF6" s="23" t="n"/>
-      <c r="BG6" s="23" t="n"/>
-      <c r="BH6" s="23" t="n"/>
-      <c r="BI6" s="24" t="n"/>
+      <c r="AX6" s="25" t="n"/>
+      <c r="AY6" s="26" t="n"/>
+      <c r="AZ6" s="26" t="n"/>
+      <c r="BA6" s="26" t="n"/>
+      <c r="BB6" s="26" t="n"/>
+      <c r="BC6" s="26" t="n"/>
+      <c r="BD6" s="26" t="n"/>
+      <c r="BE6" s="26" t="n"/>
+      <c r="BF6" s="26" t="n"/>
+      <c r="BG6" s="26" t="n"/>
+      <c r="BH6" s="26" t="n"/>
+      <c r="BI6" s="27" t="n"/>
       <c r="BJ6" s="22" t="n"/>
       <c r="BK6" s="23" t="n"/>
       <c r="BL6" s="23" t="n"/>
       <c r="BM6" s="23" t="n"/>
       <c r="BN6" s="23" t="n"/>
       <c r="BO6" s="23" t="n"/>
-      <c r="BP6" s="23" t="n"/>
-      <c r="BQ6" s="23" t="n"/>
-      <c r="BR6" s="23" t="n"/>
-      <c r="BS6" s="23" t="n"/>
-      <c r="BT6" s="23" t="n"/>
-      <c r="BU6" s="24" t="n"/>
-      <c r="BV6" s="22" t="n"/>
-      <c r="BW6" s="23" t="n"/>
-      <c r="BX6" s="23" t="n"/>
-      <c r="BY6" s="23" t="n"/>
-      <c r="BZ6" s="23" t="n"/>
-      <c r="CA6" s="23" t="n"/>
-      <c r="CB6" s="23" t="n"/>
-      <c r="CC6" s="23" t="n"/>
-      <c r="CD6" s="23" t="n"/>
+      <c r="BP6" s="26" t="n"/>
+      <c r="BQ6" s="26" t="n"/>
+      <c r="BR6" s="26" t="n"/>
+      <c r="BS6" s="26" t="n"/>
+      <c r="BT6" s="26" t="n"/>
+      <c r="BU6" s="27" t="n"/>
+      <c r="BV6" s="25" t="n"/>
+      <c r="BW6" s="26" t="n"/>
+      <c r="BX6" s="26" t="n"/>
+      <c r="BY6" s="26" t="n"/>
+      <c r="BZ6" s="26" t="n"/>
+      <c r="CA6" s="26" t="n"/>
+      <c r="CB6" s="26" t="n"/>
+      <c r="CC6" s="26" t="n"/>
+      <c r="CD6" s="26" t="n"/>
       <c r="CE6" s="23" t="n"/>
       <c r="CF6" s="23" t="n"/>
       <c r="CG6" s="24" t="n"/>
@@ -2048,18 +2048,18 @@
       <c r="AU7" s="23" t="n"/>
       <c r="AV7" s="23" t="n"/>
       <c r="AW7" s="24" t="n"/>
-      <c r="AX7" s="22" t="n"/>
-      <c r="AY7" s="23" t="n"/>
-      <c r="AZ7" s="23" t="n"/>
-      <c r="BA7" s="23" t="n"/>
-      <c r="BB7" s="23" t="n"/>
-      <c r="BC7" s="23" t="n"/>
-      <c r="BD7" s="23" t="n"/>
-      <c r="BE7" s="23" t="n"/>
-      <c r="BF7" s="23" t="n"/>
-      <c r="BG7" s="23" t="n"/>
-      <c r="BH7" s="23" t="n"/>
-      <c r="BI7" s="24" t="n"/>
+      <c r="AX7" s="25" t="n"/>
+      <c r="AY7" s="26" t="n"/>
+      <c r="AZ7" s="26" t="n"/>
+      <c r="BA7" s="26" t="n"/>
+      <c r="BB7" s="26" t="n"/>
+      <c r="BC7" s="26" t="n"/>
+      <c r="BD7" s="26" t="n"/>
+      <c r="BE7" s="26" t="n"/>
+      <c r="BF7" s="26" t="n"/>
+      <c r="BG7" s="26" t="n"/>
+      <c r="BH7" s="26" t="n"/>
+      <c r="BI7" s="27" t="n"/>
       <c r="BJ7" s="22" t="n"/>
       <c r="BK7" s="23" t="n"/>
       <c r="BL7" s="23" t="n"/>
@@ -2072,18 +2072,18 @@
       <c r="BS7" s="23" t="n"/>
       <c r="BT7" s="23" t="n"/>
       <c r="BU7" s="24" t="n"/>
-      <c r="BV7" s="22" t="n"/>
-      <c r="BW7" s="23" t="n"/>
-      <c r="BX7" s="23" t="n"/>
-      <c r="BY7" s="23" t="n"/>
-      <c r="BZ7" s="23" t="n"/>
-      <c r="CA7" s="23" t="n"/>
-      <c r="CB7" s="23" t="n"/>
-      <c r="CC7" s="23" t="n"/>
-      <c r="CD7" s="23" t="n"/>
-      <c r="CE7" s="23" t="n"/>
-      <c r="CF7" s="23" t="n"/>
-      <c r="CG7" s="24" t="n"/>
+      <c r="BV7" s="25" t="n"/>
+      <c r="BW7" s="26" t="n"/>
+      <c r="BX7" s="26" t="n"/>
+      <c r="BY7" s="26" t="n"/>
+      <c r="BZ7" s="26" t="n"/>
+      <c r="CA7" s="26" t="n"/>
+      <c r="CB7" s="26" t="n"/>
+      <c r="CC7" s="26" t="n"/>
+      <c r="CD7" s="26" t="n"/>
+      <c r="CE7" s="26" t="n"/>
+      <c r="CF7" s="26" t="n"/>
+      <c r="CG7" s="27" t="n"/>
       <c r="CH7" s="22" t="n"/>
       <c r="CI7" s="23" t="n"/>
       <c r="CJ7" s="23" t="n"/>
@@ -2247,39 +2247,39 @@
       <c r="AU8" s="23" t="n"/>
       <c r="AV8" s="23" t="n"/>
       <c r="AW8" s="24" t="n"/>
-      <c r="AX8" s="22" t="n"/>
-      <c r="AY8" s="23" t="n"/>
-      <c r="AZ8" s="23" t="n"/>
-      <c r="BA8" s="23" t="n"/>
-      <c r="BB8" s="23" t="n"/>
-      <c r="BC8" s="23" t="n"/>
-      <c r="BD8" s="23" t="n"/>
-      <c r="BE8" s="23" t="n"/>
-      <c r="BF8" s="23" t="n"/>
-      <c r="BG8" s="23" t="n"/>
-      <c r="BH8" s="23" t="n"/>
-      <c r="BI8" s="24" t="n"/>
+      <c r="AX8" s="25" t="n"/>
+      <c r="AY8" s="26" t="n"/>
+      <c r="AZ8" s="26" t="n"/>
+      <c r="BA8" s="26" t="n"/>
+      <c r="BB8" s="26" t="n"/>
+      <c r="BC8" s="26" t="n"/>
+      <c r="BD8" s="26" t="n"/>
+      <c r="BE8" s="26" t="n"/>
+      <c r="BF8" s="26" t="n"/>
+      <c r="BG8" s="26" t="n"/>
+      <c r="BH8" s="26" t="n"/>
+      <c r="BI8" s="27" t="n"/>
       <c r="BJ8" s="22" t="n"/>
       <c r="BK8" s="23" t="n"/>
       <c r="BL8" s="23" t="n"/>
       <c r="BM8" s="23" t="n"/>
       <c r="BN8" s="23" t="n"/>
       <c r="BO8" s="23" t="n"/>
-      <c r="BP8" s="23" t="n"/>
-      <c r="BQ8" s="23" t="n"/>
-      <c r="BR8" s="23" t="n"/>
-      <c r="BS8" s="23" t="n"/>
-      <c r="BT8" s="23" t="n"/>
-      <c r="BU8" s="24" t="n"/>
-      <c r="BV8" s="22" t="n"/>
-      <c r="BW8" s="23" t="n"/>
-      <c r="BX8" s="23" t="n"/>
-      <c r="BY8" s="23" t="n"/>
-      <c r="BZ8" s="23" t="n"/>
-      <c r="CA8" s="23" t="n"/>
-      <c r="CB8" s="23" t="n"/>
-      <c r="CC8" s="23" t="n"/>
-      <c r="CD8" s="23" t="n"/>
+      <c r="BP8" s="26" t="n"/>
+      <c r="BQ8" s="26" t="n"/>
+      <c r="BR8" s="26" t="n"/>
+      <c r="BS8" s="26" t="n"/>
+      <c r="BT8" s="26" t="n"/>
+      <c r="BU8" s="27" t="n"/>
+      <c r="BV8" s="25" t="n"/>
+      <c r="BW8" s="26" t="n"/>
+      <c r="BX8" s="26" t="n"/>
+      <c r="BY8" s="26" t="n"/>
+      <c r="BZ8" s="26" t="n"/>
+      <c r="CA8" s="26" t="n"/>
+      <c r="CB8" s="26" t="n"/>
+      <c r="CC8" s="26" t="n"/>
+      <c r="CD8" s="26" t="n"/>
       <c r="CE8" s="23" t="n"/>
       <c r="CF8" s="23" t="n"/>
       <c r="CG8" s="24" t="n"/>

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -1451,39 +1451,39 @@
       <c r="AU4" s="23" t="n"/>
       <c r="AV4" s="23" t="n"/>
       <c r="AW4" s="24" t="n"/>
-      <c r="AX4" s="25" t="n"/>
-      <c r="AY4" s="26" t="n"/>
-      <c r="AZ4" s="26" t="n"/>
-      <c r="BA4" s="26" t="n"/>
-      <c r="BB4" s="26" t="n"/>
-      <c r="BC4" s="26" t="n"/>
-      <c r="BD4" s="26" t="n"/>
-      <c r="BE4" s="26" t="n"/>
-      <c r="BF4" s="26" t="n"/>
-      <c r="BG4" s="26" t="n"/>
-      <c r="BH4" s="26" t="n"/>
-      <c r="BI4" s="27" t="n"/>
+      <c r="AX4" s="22" t="n"/>
+      <c r="AY4" s="23" t="n"/>
+      <c r="AZ4" s="23" t="n"/>
+      <c r="BA4" s="23" t="n"/>
+      <c r="BB4" s="23" t="n"/>
+      <c r="BC4" s="23" t="n"/>
+      <c r="BD4" s="23" t="n"/>
+      <c r="BE4" s="23" t="n"/>
+      <c r="BF4" s="23" t="n"/>
+      <c r="BG4" s="23" t="n"/>
+      <c r="BH4" s="23" t="n"/>
+      <c r="BI4" s="24" t="n"/>
       <c r="BJ4" s="22" t="n"/>
       <c r="BK4" s="23" t="n"/>
       <c r="BL4" s="23" t="n"/>
       <c r="BM4" s="23" t="n"/>
       <c r="BN4" s="23" t="n"/>
       <c r="BO4" s="23" t="n"/>
-      <c r="BP4" s="26" t="n"/>
-      <c r="BQ4" s="26" t="n"/>
-      <c r="BR4" s="26" t="n"/>
-      <c r="BS4" s="26" t="n"/>
-      <c r="BT4" s="26" t="n"/>
-      <c r="BU4" s="27" t="n"/>
-      <c r="BV4" s="25" t="n"/>
-      <c r="BW4" s="26" t="n"/>
-      <c r="BX4" s="26" t="n"/>
-      <c r="BY4" s="26" t="n"/>
-      <c r="BZ4" s="26" t="n"/>
-      <c r="CA4" s="26" t="n"/>
-      <c r="CB4" s="26" t="n"/>
-      <c r="CC4" s="26" t="n"/>
-      <c r="CD4" s="26" t="n"/>
+      <c r="BP4" s="23" t="n"/>
+      <c r="BQ4" s="23" t="n"/>
+      <c r="BR4" s="23" t="n"/>
+      <c r="BS4" s="23" t="n"/>
+      <c r="BT4" s="23" t="n"/>
+      <c r="BU4" s="24" t="n"/>
+      <c r="BV4" s="22" t="n"/>
+      <c r="BW4" s="23" t="n"/>
+      <c r="BX4" s="23" t="n"/>
+      <c r="BY4" s="23" t="n"/>
+      <c r="BZ4" s="23" t="n"/>
+      <c r="CA4" s="23" t="n"/>
+      <c r="CB4" s="23" t="n"/>
+      <c r="CC4" s="23" t="n"/>
+      <c r="CD4" s="23" t="n"/>
       <c r="CE4" s="23" t="n"/>
       <c r="CF4" s="23" t="n"/>
       <c r="CG4" s="24" t="n"/>
@@ -1674,18 +1674,18 @@
       <c r="BS5" s="23" t="n"/>
       <c r="BT5" s="23" t="n"/>
       <c r="BU5" s="24" t="n"/>
-      <c r="BV5" s="25" t="n"/>
-      <c r="BW5" s="26" t="n"/>
-      <c r="BX5" s="26" t="n"/>
-      <c r="BY5" s="26" t="n"/>
-      <c r="BZ5" s="26" t="n"/>
-      <c r="CA5" s="26" t="n"/>
-      <c r="CB5" s="26" t="n"/>
-      <c r="CC5" s="26" t="n"/>
-      <c r="CD5" s="26" t="n"/>
-      <c r="CE5" s="26" t="n"/>
-      <c r="CF5" s="26" t="n"/>
-      <c r="CG5" s="27" t="n"/>
+      <c r="BV5" s="22" t="n"/>
+      <c r="BW5" s="23" t="n"/>
+      <c r="BX5" s="23" t="n"/>
+      <c r="BY5" s="23" t="n"/>
+      <c r="BZ5" s="23" t="n"/>
+      <c r="CA5" s="23" t="n"/>
+      <c r="CB5" s="23" t="n"/>
+      <c r="CC5" s="23" t="n"/>
+      <c r="CD5" s="23" t="n"/>
+      <c r="CE5" s="23" t="n"/>
+      <c r="CF5" s="23" t="n"/>
+      <c r="CG5" s="24" t="n"/>
       <c r="CH5" s="22" t="n"/>
       <c r="CI5" s="23" t="n"/>
       <c r="CJ5" s="23" t="n"/>
@@ -1849,39 +1849,39 @@
       <c r="AU6" s="23" t="n"/>
       <c r="AV6" s="23" t="n"/>
       <c r="AW6" s="24" t="n"/>
-      <c r="AX6" s="25" t="n"/>
-      <c r="AY6" s="26" t="n"/>
-      <c r="AZ6" s="26" t="n"/>
-      <c r="BA6" s="26" t="n"/>
-      <c r="BB6" s="26" t="n"/>
-      <c r="BC6" s="26" t="n"/>
-      <c r="BD6" s="26" t="n"/>
-      <c r="BE6" s="26" t="n"/>
-      <c r="BF6" s="26" t="n"/>
-      <c r="BG6" s="26" t="n"/>
-      <c r="BH6" s="26" t="n"/>
-      <c r="BI6" s="27" t="n"/>
+      <c r="AX6" s="22" t="n"/>
+      <c r="AY6" s="23" t="n"/>
+      <c r="AZ6" s="23" t="n"/>
+      <c r="BA6" s="23" t="n"/>
+      <c r="BB6" s="23" t="n"/>
+      <c r="BC6" s="23" t="n"/>
+      <c r="BD6" s="23" t="n"/>
+      <c r="BE6" s="23" t="n"/>
+      <c r="BF6" s="23" t="n"/>
+      <c r="BG6" s="23" t="n"/>
+      <c r="BH6" s="23" t="n"/>
+      <c r="BI6" s="24" t="n"/>
       <c r="BJ6" s="22" t="n"/>
       <c r="BK6" s="23" t="n"/>
       <c r="BL6" s="23" t="n"/>
       <c r="BM6" s="23" t="n"/>
       <c r="BN6" s="23" t="n"/>
       <c r="BO6" s="23" t="n"/>
-      <c r="BP6" s="26" t="n"/>
-      <c r="BQ6" s="26" t="n"/>
-      <c r="BR6" s="26" t="n"/>
-      <c r="BS6" s="26" t="n"/>
-      <c r="BT6" s="26" t="n"/>
-      <c r="BU6" s="27" t="n"/>
-      <c r="BV6" s="25" t="n"/>
-      <c r="BW6" s="26" t="n"/>
-      <c r="BX6" s="26" t="n"/>
-      <c r="BY6" s="26" t="n"/>
-      <c r="BZ6" s="26" t="n"/>
-      <c r="CA6" s="26" t="n"/>
-      <c r="CB6" s="26" t="n"/>
-      <c r="CC6" s="26" t="n"/>
-      <c r="CD6" s="26" t="n"/>
+      <c r="BP6" s="23" t="n"/>
+      <c r="BQ6" s="23" t="n"/>
+      <c r="BR6" s="23" t="n"/>
+      <c r="BS6" s="23" t="n"/>
+      <c r="BT6" s="23" t="n"/>
+      <c r="BU6" s="24" t="n"/>
+      <c r="BV6" s="22" t="n"/>
+      <c r="BW6" s="23" t="n"/>
+      <c r="BX6" s="23" t="n"/>
+      <c r="BY6" s="23" t="n"/>
+      <c r="BZ6" s="23" t="n"/>
+      <c r="CA6" s="23" t="n"/>
+      <c r="CB6" s="23" t="n"/>
+      <c r="CC6" s="23" t="n"/>
+      <c r="CD6" s="23" t="n"/>
       <c r="CE6" s="23" t="n"/>
       <c r="CF6" s="23" t="n"/>
       <c r="CG6" s="24" t="n"/>
@@ -2048,18 +2048,18 @@
       <c r="AU7" s="23" t="n"/>
       <c r="AV7" s="23" t="n"/>
       <c r="AW7" s="24" t="n"/>
-      <c r="AX7" s="25" t="n"/>
-      <c r="AY7" s="26" t="n"/>
-      <c r="AZ7" s="26" t="n"/>
-      <c r="BA7" s="26" t="n"/>
-      <c r="BB7" s="26" t="n"/>
-      <c r="BC7" s="26" t="n"/>
-      <c r="BD7" s="26" t="n"/>
-      <c r="BE7" s="26" t="n"/>
-      <c r="BF7" s="26" t="n"/>
-      <c r="BG7" s="26" t="n"/>
-      <c r="BH7" s="26" t="n"/>
-      <c r="BI7" s="27" t="n"/>
+      <c r="AX7" s="22" t="n"/>
+      <c r="AY7" s="23" t="n"/>
+      <c r="AZ7" s="23" t="n"/>
+      <c r="BA7" s="23" t="n"/>
+      <c r="BB7" s="23" t="n"/>
+      <c r="BC7" s="23" t="n"/>
+      <c r="BD7" s="23" t="n"/>
+      <c r="BE7" s="23" t="n"/>
+      <c r="BF7" s="23" t="n"/>
+      <c r="BG7" s="23" t="n"/>
+      <c r="BH7" s="23" t="n"/>
+      <c r="BI7" s="24" t="n"/>
       <c r="BJ7" s="22" t="n"/>
       <c r="BK7" s="23" t="n"/>
       <c r="BL7" s="23" t="n"/>
@@ -2072,18 +2072,18 @@
       <c r="BS7" s="23" t="n"/>
       <c r="BT7" s="23" t="n"/>
       <c r="BU7" s="24" t="n"/>
-      <c r="BV7" s="25" t="n"/>
-      <c r="BW7" s="26" t="n"/>
-      <c r="BX7" s="26" t="n"/>
-      <c r="BY7" s="26" t="n"/>
-      <c r="BZ7" s="26" t="n"/>
-      <c r="CA7" s="26" t="n"/>
-      <c r="CB7" s="26" t="n"/>
-      <c r="CC7" s="26" t="n"/>
-      <c r="CD7" s="26" t="n"/>
-      <c r="CE7" s="26" t="n"/>
-      <c r="CF7" s="26" t="n"/>
-      <c r="CG7" s="27" t="n"/>
+      <c r="BV7" s="22" t="n"/>
+      <c r="BW7" s="23" t="n"/>
+      <c r="BX7" s="23" t="n"/>
+      <c r="BY7" s="23" t="n"/>
+      <c r="BZ7" s="23" t="n"/>
+      <c r="CA7" s="23" t="n"/>
+      <c r="CB7" s="23" t="n"/>
+      <c r="CC7" s="23" t="n"/>
+      <c r="CD7" s="23" t="n"/>
+      <c r="CE7" s="23" t="n"/>
+      <c r="CF7" s="23" t="n"/>
+      <c r="CG7" s="24" t="n"/>
       <c r="CH7" s="22" t="n"/>
       <c r="CI7" s="23" t="n"/>
       <c r="CJ7" s="23" t="n"/>
@@ -2247,39 +2247,39 @@
       <c r="AU8" s="23" t="n"/>
       <c r="AV8" s="23" t="n"/>
       <c r="AW8" s="24" t="n"/>
-      <c r="AX8" s="25" t="n"/>
-      <c r="AY8" s="26" t="n"/>
-      <c r="AZ8" s="26" t="n"/>
-      <c r="BA8" s="26" t="n"/>
-      <c r="BB8" s="26" t="n"/>
-      <c r="BC8" s="26" t="n"/>
-      <c r="BD8" s="26" t="n"/>
-      <c r="BE8" s="26" t="n"/>
-      <c r="BF8" s="26" t="n"/>
-      <c r="BG8" s="26" t="n"/>
-      <c r="BH8" s="26" t="n"/>
-      <c r="BI8" s="27" t="n"/>
+      <c r="AX8" s="22" t="n"/>
+      <c r="AY8" s="23" t="n"/>
+      <c r="AZ8" s="23" t="n"/>
+      <c r="BA8" s="23" t="n"/>
+      <c r="BB8" s="23" t="n"/>
+      <c r="BC8" s="23" t="n"/>
+      <c r="BD8" s="23" t="n"/>
+      <c r="BE8" s="23" t="n"/>
+      <c r="BF8" s="23" t="n"/>
+      <c r="BG8" s="23" t="n"/>
+      <c r="BH8" s="23" t="n"/>
+      <c r="BI8" s="24" t="n"/>
       <c r="BJ8" s="22" t="n"/>
       <c r="BK8" s="23" t="n"/>
       <c r="BL8" s="23" t="n"/>
       <c r="BM8" s="23" t="n"/>
       <c r="BN8" s="23" t="n"/>
       <c r="BO8" s="23" t="n"/>
-      <c r="BP8" s="26" t="n"/>
-      <c r="BQ8" s="26" t="n"/>
-      <c r="BR8" s="26" t="n"/>
-      <c r="BS8" s="26" t="n"/>
-      <c r="BT8" s="26" t="n"/>
-      <c r="BU8" s="27" t="n"/>
-      <c r="BV8" s="25" t="n"/>
-      <c r="BW8" s="26" t="n"/>
-      <c r="BX8" s="26" t="n"/>
-      <c r="BY8" s="26" t="n"/>
-      <c r="BZ8" s="26" t="n"/>
-      <c r="CA8" s="26" t="n"/>
-      <c r="CB8" s="26" t="n"/>
-      <c r="CC8" s="26" t="n"/>
-      <c r="CD8" s="26" t="n"/>
+      <c r="BP8" s="23" t="n"/>
+      <c r="BQ8" s="23" t="n"/>
+      <c r="BR8" s="23" t="n"/>
+      <c r="BS8" s="23" t="n"/>
+      <c r="BT8" s="23" t="n"/>
+      <c r="BU8" s="24" t="n"/>
+      <c r="BV8" s="22" t="n"/>
+      <c r="BW8" s="23" t="n"/>
+      <c r="BX8" s="23" t="n"/>
+      <c r="BY8" s="23" t="n"/>
+      <c r="BZ8" s="23" t="n"/>
+      <c r="CA8" s="23" t="n"/>
+      <c r="CB8" s="23" t="n"/>
+      <c r="CC8" s="23" t="n"/>
+      <c r="CD8" s="23" t="n"/>
       <c r="CE8" s="23" t="n"/>
       <c r="CF8" s="23" t="n"/>
       <c r="CG8" s="24" t="n"/>

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -1252,18 +1252,18 @@
       <c r="AU3" s="23" t="n"/>
       <c r="AV3" s="23" t="n"/>
       <c r="AW3" s="24" t="n"/>
-      <c r="AX3" s="22" t="n"/>
-      <c r="AY3" s="23" t="n"/>
-      <c r="AZ3" s="23" t="n"/>
-      <c r="BA3" s="23" t="n"/>
-      <c r="BB3" s="23" t="n"/>
-      <c r="BC3" s="23" t="n"/>
-      <c r="BD3" s="23" t="n"/>
-      <c r="BE3" s="23" t="n"/>
-      <c r="BF3" s="23" t="n"/>
-      <c r="BG3" s="23" t="n"/>
-      <c r="BH3" s="23" t="n"/>
-      <c r="BI3" s="24" t="n"/>
+      <c r="AX3" s="25" t="n"/>
+      <c r="AY3" s="26" t="n"/>
+      <c r="AZ3" s="26" t="n"/>
+      <c r="BA3" s="26" t="n"/>
+      <c r="BB3" s="26" t="n"/>
+      <c r="BC3" s="26" t="n"/>
+      <c r="BD3" s="26" t="n"/>
+      <c r="BE3" s="26" t="n"/>
+      <c r="BF3" s="26" t="n"/>
+      <c r="BG3" s="26" t="n"/>
+      <c r="BH3" s="26" t="n"/>
+      <c r="BI3" s="27" t="n"/>
       <c r="BJ3" s="22" t="n"/>
       <c r="BK3" s="23" t="n"/>
       <c r="BL3" s="23" t="n"/>

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -396,9 +396,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1485,42 +1485,42 @@
       <c r="AG4" s="39" t="n"/>
       <c r="AH4" s="39" t="n"/>
       <c r="AI4" s="39" t="n"/>
-      <c r="AJ4" s="41" t="n"/>
-      <c r="AK4" s="42" t="n"/>
-      <c r="AL4" s="43" t="n"/>
-      <c r="AM4" s="41" t="n"/>
-      <c r="AN4" s="41" t="n"/>
-      <c r="AO4" s="41" t="n"/>
-      <c r="AP4" s="41" t="n"/>
-      <c r="AQ4" s="41" t="n"/>
-      <c r="AR4" s="41" t="n"/>
-      <c r="AS4" s="41" t="n"/>
+      <c r="AJ4" s="39" t="n"/>
+      <c r="AK4" s="40" t="n"/>
+      <c r="AL4" s="38" t="n"/>
+      <c r="AM4" s="39" t="n"/>
+      <c r="AN4" s="39" t="n"/>
+      <c r="AO4" s="39" t="n"/>
+      <c r="AP4" s="39" t="n"/>
+      <c r="AQ4" s="39" t="n"/>
+      <c r="AR4" s="39" t="n"/>
+      <c r="AS4" s="39" t="n"/>
       <c r="AT4" s="39" t="n"/>
       <c r="AU4" s="39" t="n"/>
       <c r="AV4" s="39" t="n"/>
-      <c r="AW4" s="42" t="n"/>
-      <c r="AX4" s="43" t="n"/>
-      <c r="AY4" s="41" t="n"/>
-      <c r="AZ4" s="41" t="n"/>
-      <c r="BA4" s="41" t="n"/>
-      <c r="BB4" s="41" t="n"/>
-      <c r="BC4" s="41" t="n"/>
-      <c r="BD4" s="41" t="n"/>
-      <c r="BE4" s="41" t="n"/>
-      <c r="BF4" s="41" t="n"/>
+      <c r="AW4" s="40" t="n"/>
+      <c r="AX4" s="38" t="n"/>
+      <c r="AY4" s="39" t="n"/>
+      <c r="AZ4" s="39" t="n"/>
+      <c r="BA4" s="39" t="n"/>
+      <c r="BB4" s="39" t="n"/>
+      <c r="BC4" s="39" t="n"/>
+      <c r="BD4" s="39" t="n"/>
+      <c r="BE4" s="39" t="n"/>
+      <c r="BF4" s="39" t="n"/>
       <c r="BG4" s="39" t="n"/>
       <c r="BH4" s="39" t="n"/>
       <c r="BI4" s="40" t="n"/>
-      <c r="BJ4" s="43" t="n"/>
-      <c r="BK4" s="41" t="n"/>
-      <c r="BL4" s="41" t="n"/>
-      <c r="BM4" s="41" t="n"/>
-      <c r="BN4" s="41" t="n"/>
-      <c r="BO4" s="41" t="n"/>
-      <c r="BP4" s="41" t="n"/>
-      <c r="BQ4" s="41" t="n"/>
-      <c r="BR4" s="41" t="n"/>
-      <c r="BS4" s="41" t="n"/>
+      <c r="BJ4" s="38" t="n"/>
+      <c r="BK4" s="39" t="n"/>
+      <c r="BL4" s="39" t="n"/>
+      <c r="BM4" s="39" t="n"/>
+      <c r="BN4" s="39" t="n"/>
+      <c r="BO4" s="39" t="n"/>
+      <c r="BP4" s="39" t="n"/>
+      <c r="BQ4" s="39" t="n"/>
+      <c r="BR4" s="39" t="n"/>
+      <c r="BS4" s="39" t="n"/>
       <c r="BT4" s="39" t="n"/>
       <c r="BU4" s="40" t="n"/>
       <c r="BV4" s="38" t="n"/>
@@ -1563,16 +1563,16 @@
       <c r="DG4" s="39" t="n"/>
       <c r="DH4" s="39" t="n"/>
       <c r="DI4" s="39" t="n"/>
-      <c r="DJ4" s="41" t="n"/>
-      <c r="DK4" s="41" t="n"/>
-      <c r="DL4" s="41" t="n"/>
-      <c r="DM4" s="41" t="n"/>
-      <c r="DN4" s="41" t="n"/>
-      <c r="DO4" s="41" t="n"/>
-      <c r="DP4" s="41" t="n"/>
-      <c r="DQ4" s="42" t="n"/>
-      <c r="DR4" s="43" t="n"/>
-      <c r="DS4" s="41" t="n"/>
+      <c r="DJ4" s="39" t="n"/>
+      <c r="DK4" s="39" t="n"/>
+      <c r="DL4" s="39" t="n"/>
+      <c r="DM4" s="39" t="n"/>
+      <c r="DN4" s="39" t="n"/>
+      <c r="DO4" s="39" t="n"/>
+      <c r="DP4" s="39" t="n"/>
+      <c r="DQ4" s="40" t="n"/>
+      <c r="DR4" s="38" t="n"/>
+      <c r="DS4" s="39" t="n"/>
       <c r="DT4" s="39" t="n"/>
       <c r="DU4" s="39" t="n"/>
       <c r="DV4" s="39" t="n"/>
@@ -1758,30 +1758,30 @@
       <c r="DC5" s="39" t="n"/>
       <c r="DD5" s="39" t="n"/>
       <c r="DE5" s="40" t="n"/>
-      <c r="DF5" s="38" t="n"/>
-      <c r="DG5" s="39" t="n"/>
-      <c r="DH5" s="41" t="n"/>
-      <c r="DI5" s="41" t="n"/>
-      <c r="DJ5" s="41" t="n"/>
-      <c r="DK5" s="41" t="n"/>
-      <c r="DL5" s="41" t="n"/>
-      <c r="DM5" s="41" t="n"/>
-      <c r="DN5" s="41" t="n"/>
-      <c r="DO5" s="41" t="n"/>
-      <c r="DP5" s="41" t="n"/>
-      <c r="DQ5" s="42" t="n"/>
-      <c r="DR5" s="38" t="n"/>
-      <c r="DS5" s="39" t="n"/>
-      <c r="DT5" s="39" t="n"/>
-      <c r="DU5" s="39" t="n"/>
-      <c r="DV5" s="39" t="n"/>
-      <c r="DW5" s="39" t="n"/>
-      <c r="DX5" s="39" t="n"/>
-      <c r="DY5" s="39" t="n"/>
-      <c r="DZ5" s="39" t="n"/>
-      <c r="EA5" s="39" t="n"/>
-      <c r="EB5" s="39" t="n"/>
-      <c r="EC5" s="40" t="n"/>
+      <c r="DF5" s="41" t="n"/>
+      <c r="DG5" s="42" t="n"/>
+      <c r="DH5" s="42" t="n"/>
+      <c r="DI5" s="42" t="n"/>
+      <c r="DJ5" s="42" t="n"/>
+      <c r="DK5" s="42" t="n"/>
+      <c r="DL5" s="42" t="n"/>
+      <c r="DM5" s="42" t="n"/>
+      <c r="DN5" s="42" t="n"/>
+      <c r="DO5" s="42" t="n"/>
+      <c r="DP5" s="42" t="n"/>
+      <c r="DQ5" s="43" t="n"/>
+      <c r="DR5" s="41" t="n"/>
+      <c r="DS5" s="42" t="n"/>
+      <c r="DT5" s="42" t="n"/>
+      <c r="DU5" s="42" t="n"/>
+      <c r="DV5" s="42" t="n"/>
+      <c r="DW5" s="42" t="n"/>
+      <c r="DX5" s="42" t="n"/>
+      <c r="DY5" s="42" t="n"/>
+      <c r="DZ5" s="42" t="n"/>
+      <c r="EA5" s="42" t="n"/>
+      <c r="EB5" s="42" t="n"/>
+      <c r="EC5" s="43" t="n"/>
       <c r="ED5" s="38" t="n"/>
       <c r="EE5" s="39" t="n"/>
       <c r="EF5" s="39" t="n"/>
@@ -1883,42 +1883,42 @@
       <c r="AG6" s="39" t="n"/>
       <c r="AH6" s="39" t="n"/>
       <c r="AI6" s="39" t="n"/>
-      <c r="AJ6" s="41" t="n"/>
-      <c r="AK6" s="42" t="n"/>
-      <c r="AL6" s="43" t="n"/>
-      <c r="AM6" s="41" t="n"/>
-      <c r="AN6" s="41" t="n"/>
-      <c r="AO6" s="41" t="n"/>
-      <c r="AP6" s="41" t="n"/>
-      <c r="AQ6" s="41" t="n"/>
-      <c r="AR6" s="41" t="n"/>
-      <c r="AS6" s="41" t="n"/>
+      <c r="AJ6" s="39" t="n"/>
+      <c r="AK6" s="40" t="n"/>
+      <c r="AL6" s="38" t="n"/>
+      <c r="AM6" s="39" t="n"/>
+      <c r="AN6" s="39" t="n"/>
+      <c r="AO6" s="39" t="n"/>
+      <c r="AP6" s="39" t="n"/>
+      <c r="AQ6" s="39" t="n"/>
+      <c r="AR6" s="39" t="n"/>
+      <c r="AS6" s="39" t="n"/>
       <c r="AT6" s="39" t="n"/>
       <c r="AU6" s="39" t="n"/>
       <c r="AV6" s="39" t="n"/>
-      <c r="AW6" s="42" t="n"/>
-      <c r="AX6" s="43" t="n"/>
-      <c r="AY6" s="41" t="n"/>
-      <c r="AZ6" s="41" t="n"/>
-      <c r="BA6" s="41" t="n"/>
-      <c r="BB6" s="41" t="n"/>
-      <c r="BC6" s="41" t="n"/>
-      <c r="BD6" s="41" t="n"/>
-      <c r="BE6" s="41" t="n"/>
-      <c r="BF6" s="41" t="n"/>
+      <c r="AW6" s="40" t="n"/>
+      <c r="AX6" s="38" t="n"/>
+      <c r="AY6" s="39" t="n"/>
+      <c r="AZ6" s="39" t="n"/>
+      <c r="BA6" s="39" t="n"/>
+      <c r="BB6" s="39" t="n"/>
+      <c r="BC6" s="39" t="n"/>
+      <c r="BD6" s="39" t="n"/>
+      <c r="BE6" s="39" t="n"/>
+      <c r="BF6" s="39" t="n"/>
       <c r="BG6" s="39" t="n"/>
       <c r="BH6" s="39" t="n"/>
       <c r="BI6" s="40" t="n"/>
-      <c r="BJ6" s="43" t="n"/>
-      <c r="BK6" s="41" t="n"/>
-      <c r="BL6" s="41" t="n"/>
-      <c r="BM6" s="41" t="n"/>
-      <c r="BN6" s="41" t="n"/>
-      <c r="BO6" s="41" t="n"/>
-      <c r="BP6" s="41" t="n"/>
-      <c r="BQ6" s="41" t="n"/>
-      <c r="BR6" s="41" t="n"/>
-      <c r="BS6" s="41" t="n"/>
+      <c r="BJ6" s="38" t="n"/>
+      <c r="BK6" s="39" t="n"/>
+      <c r="BL6" s="39" t="n"/>
+      <c r="BM6" s="39" t="n"/>
+      <c r="BN6" s="39" t="n"/>
+      <c r="BO6" s="39" t="n"/>
+      <c r="BP6" s="39" t="n"/>
+      <c r="BQ6" s="39" t="n"/>
+      <c r="BR6" s="39" t="n"/>
+      <c r="BS6" s="39" t="n"/>
       <c r="BT6" s="39" t="n"/>
       <c r="BU6" s="40" t="n"/>
       <c r="BV6" s="38" t="n"/>
@@ -1961,16 +1961,16 @@
       <c r="DG6" s="39" t="n"/>
       <c r="DH6" s="39" t="n"/>
       <c r="DI6" s="39" t="n"/>
-      <c r="DJ6" s="41" t="n"/>
-      <c r="DK6" s="41" t="n"/>
-      <c r="DL6" s="41" t="n"/>
-      <c r="DM6" s="41" t="n"/>
-      <c r="DN6" s="41" t="n"/>
-      <c r="DO6" s="41" t="n"/>
-      <c r="DP6" s="41" t="n"/>
-      <c r="DQ6" s="42" t="n"/>
-      <c r="DR6" s="43" t="n"/>
-      <c r="DS6" s="41" t="n"/>
+      <c r="DJ6" s="39" t="n"/>
+      <c r="DK6" s="39" t="n"/>
+      <c r="DL6" s="39" t="n"/>
+      <c r="DM6" s="39" t="n"/>
+      <c r="DN6" s="39" t="n"/>
+      <c r="DO6" s="39" t="n"/>
+      <c r="DP6" s="39" t="n"/>
+      <c r="DQ6" s="40" t="n"/>
+      <c r="DR6" s="38" t="n"/>
+      <c r="DS6" s="39" t="n"/>
       <c r="DT6" s="39" t="n"/>
       <c r="DU6" s="39" t="n"/>
       <c r="DV6" s="39" t="n"/>
@@ -2146,52 +2146,52 @@
       <c r="CS7" s="40" t="n"/>
       <c r="CT7" s="38" t="n"/>
       <c r="CU7" s="39" t="n"/>
-      <c r="CV7" s="41" t="n"/>
-      <c r="CW7" s="41" t="n"/>
-      <c r="CX7" s="41" t="n"/>
-      <c r="CY7" s="41" t="n"/>
-      <c r="CZ7" s="41" t="n"/>
-      <c r="DA7" s="41" t="n"/>
-      <c r="DB7" s="41" t="n"/>
-      <c r="DC7" s="41" t="n"/>
-      <c r="DD7" s="41" t="n"/>
-      <c r="DE7" s="42" t="n"/>
-      <c r="DF7" s="38" t="n"/>
-      <c r="DG7" s="39" t="n"/>
-      <c r="DH7" s="41" t="n"/>
-      <c r="DI7" s="41" t="n"/>
-      <c r="DJ7" s="41" t="n"/>
-      <c r="DK7" s="41" t="n"/>
-      <c r="DL7" s="41" t="n"/>
-      <c r="DM7" s="41" t="n"/>
-      <c r="DN7" s="41" t="n"/>
-      <c r="DO7" s="41" t="n"/>
-      <c r="DP7" s="41" t="n"/>
-      <c r="DQ7" s="42" t="n"/>
-      <c r="DR7" s="38" t="n"/>
-      <c r="DS7" s="39" t="n"/>
-      <c r="DT7" s="41" t="n"/>
-      <c r="DU7" s="41" t="n"/>
-      <c r="DV7" s="41" t="n"/>
-      <c r="DW7" s="41" t="n"/>
-      <c r="DX7" s="41" t="n"/>
-      <c r="DY7" s="41" t="n"/>
-      <c r="DZ7" s="41" t="n"/>
-      <c r="EA7" s="41" t="n"/>
-      <c r="EB7" s="41" t="n"/>
-      <c r="EC7" s="42" t="n"/>
-      <c r="ED7" s="43" t="n"/>
-      <c r="EE7" s="41" t="n"/>
-      <c r="EF7" s="41" t="n"/>
-      <c r="EG7" s="41" t="n"/>
-      <c r="EH7" s="41" t="n"/>
-      <c r="EI7" s="41" t="n"/>
-      <c r="EJ7" s="41" t="n"/>
-      <c r="EK7" s="41" t="n"/>
-      <c r="EL7" s="41" t="n"/>
-      <c r="EM7" s="41" t="n"/>
-      <c r="EN7" s="41" t="n"/>
-      <c r="EO7" s="42" t="n"/>
+      <c r="CV7" s="39" t="n"/>
+      <c r="CW7" s="39" t="n"/>
+      <c r="CX7" s="39" t="n"/>
+      <c r="CY7" s="39" t="n"/>
+      <c r="CZ7" s="39" t="n"/>
+      <c r="DA7" s="39" t="n"/>
+      <c r="DB7" s="39" t="n"/>
+      <c r="DC7" s="39" t="n"/>
+      <c r="DD7" s="39" t="n"/>
+      <c r="DE7" s="40" t="n"/>
+      <c r="DF7" s="41" t="n"/>
+      <c r="DG7" s="42" t="n"/>
+      <c r="DH7" s="42" t="n"/>
+      <c r="DI7" s="42" t="n"/>
+      <c r="DJ7" s="42" t="n"/>
+      <c r="DK7" s="42" t="n"/>
+      <c r="DL7" s="42" t="n"/>
+      <c r="DM7" s="42" t="n"/>
+      <c r="DN7" s="42" t="n"/>
+      <c r="DO7" s="42" t="n"/>
+      <c r="DP7" s="42" t="n"/>
+      <c r="DQ7" s="43" t="n"/>
+      <c r="DR7" s="41" t="n"/>
+      <c r="DS7" s="42" t="n"/>
+      <c r="DT7" s="42" t="n"/>
+      <c r="DU7" s="42" t="n"/>
+      <c r="DV7" s="42" t="n"/>
+      <c r="DW7" s="42" t="n"/>
+      <c r="DX7" s="42" t="n"/>
+      <c r="DY7" s="42" t="n"/>
+      <c r="DZ7" s="42" t="n"/>
+      <c r="EA7" s="42" t="n"/>
+      <c r="EB7" s="42" t="n"/>
+      <c r="EC7" s="43" t="n"/>
+      <c r="ED7" s="38" t="n"/>
+      <c r="EE7" s="39" t="n"/>
+      <c r="EF7" s="39" t="n"/>
+      <c r="EG7" s="39" t="n"/>
+      <c r="EH7" s="39" t="n"/>
+      <c r="EI7" s="39" t="n"/>
+      <c r="EJ7" s="39" t="n"/>
+      <c r="EK7" s="39" t="n"/>
+      <c r="EL7" s="39" t="n"/>
+      <c r="EM7" s="39" t="n"/>
+      <c r="EN7" s="39" t="n"/>
+      <c r="EO7" s="40" t="n"/>
       <c r="EP7" s="38" t="n"/>
       <c r="EQ7" s="39" t="n"/>
       <c r="ER7" s="39" t="n"/>
@@ -2281,42 +2281,42 @@
       <c r="AG8" s="39" t="n"/>
       <c r="AH8" s="39" t="n"/>
       <c r="AI8" s="39" t="n"/>
-      <c r="AJ8" s="41" t="n"/>
-      <c r="AK8" s="42" t="n"/>
-      <c r="AL8" s="43" t="n"/>
-      <c r="AM8" s="41" t="n"/>
-      <c r="AN8" s="41" t="n"/>
-      <c r="AO8" s="41" t="n"/>
-      <c r="AP8" s="41" t="n"/>
-      <c r="AQ8" s="41" t="n"/>
-      <c r="AR8" s="41" t="n"/>
-      <c r="AS8" s="41" t="n"/>
+      <c r="AJ8" s="39" t="n"/>
+      <c r="AK8" s="40" t="n"/>
+      <c r="AL8" s="38" t="n"/>
+      <c r="AM8" s="39" t="n"/>
+      <c r="AN8" s="39" t="n"/>
+      <c r="AO8" s="39" t="n"/>
+      <c r="AP8" s="39" t="n"/>
+      <c r="AQ8" s="39" t="n"/>
+      <c r="AR8" s="39" t="n"/>
+      <c r="AS8" s="39" t="n"/>
       <c r="AT8" s="39" t="n"/>
       <c r="AU8" s="39" t="n"/>
       <c r="AV8" s="39" t="n"/>
-      <c r="AW8" s="42" t="n"/>
-      <c r="AX8" s="43" t="n"/>
-      <c r="AY8" s="41" t="n"/>
-      <c r="AZ8" s="41" t="n"/>
-      <c r="BA8" s="41" t="n"/>
-      <c r="BB8" s="41" t="n"/>
-      <c r="BC8" s="41" t="n"/>
-      <c r="BD8" s="41" t="n"/>
-      <c r="BE8" s="41" t="n"/>
-      <c r="BF8" s="41" t="n"/>
+      <c r="AW8" s="40" t="n"/>
+      <c r="AX8" s="38" t="n"/>
+      <c r="AY8" s="39" t="n"/>
+      <c r="AZ8" s="39" t="n"/>
+      <c r="BA8" s="39" t="n"/>
+      <c r="BB8" s="39" t="n"/>
+      <c r="BC8" s="39" t="n"/>
+      <c r="BD8" s="39" t="n"/>
+      <c r="BE8" s="39" t="n"/>
+      <c r="BF8" s="39" t="n"/>
       <c r="BG8" s="39" t="n"/>
       <c r="BH8" s="39" t="n"/>
       <c r="BI8" s="40" t="n"/>
-      <c r="BJ8" s="43" t="n"/>
-      <c r="BK8" s="41" t="n"/>
-      <c r="BL8" s="41" t="n"/>
-      <c r="BM8" s="41" t="n"/>
-      <c r="BN8" s="41" t="n"/>
-      <c r="BO8" s="41" t="n"/>
-      <c r="BP8" s="41" t="n"/>
-      <c r="BQ8" s="41" t="n"/>
-      <c r="BR8" s="41" t="n"/>
-      <c r="BS8" s="41" t="n"/>
+      <c r="BJ8" s="38" t="n"/>
+      <c r="BK8" s="39" t="n"/>
+      <c r="BL8" s="39" t="n"/>
+      <c r="BM8" s="39" t="n"/>
+      <c r="BN8" s="39" t="n"/>
+      <c r="BO8" s="39" t="n"/>
+      <c r="BP8" s="39" t="n"/>
+      <c r="BQ8" s="39" t="n"/>
+      <c r="BR8" s="39" t="n"/>
+      <c r="BS8" s="39" t="n"/>
       <c r="BT8" s="39" t="n"/>
       <c r="BU8" s="40" t="n"/>
       <c r="BV8" s="38" t="n"/>
@@ -2359,16 +2359,16 @@
       <c r="DG8" s="39" t="n"/>
       <c r="DH8" s="39" t="n"/>
       <c r="DI8" s="39" t="n"/>
-      <c r="DJ8" s="41" t="n"/>
-      <c r="DK8" s="41" t="n"/>
-      <c r="DL8" s="41" t="n"/>
-      <c r="DM8" s="41" t="n"/>
-      <c r="DN8" s="41" t="n"/>
-      <c r="DO8" s="41" t="n"/>
-      <c r="DP8" s="41" t="n"/>
-      <c r="DQ8" s="42" t="n"/>
-      <c r="DR8" s="43" t="n"/>
-      <c r="DS8" s="41" t="n"/>
+      <c r="DJ8" s="39" t="n"/>
+      <c r="DK8" s="39" t="n"/>
+      <c r="DL8" s="39" t="n"/>
+      <c r="DM8" s="39" t="n"/>
+      <c r="DN8" s="39" t="n"/>
+      <c r="DO8" s="39" t="n"/>
+      <c r="DP8" s="39" t="n"/>
+      <c r="DQ8" s="40" t="n"/>
+      <c r="DR8" s="38" t="n"/>
+      <c r="DS8" s="39" t="n"/>
       <c r="DT8" s="39" t="n"/>
       <c r="DU8" s="39" t="n"/>
       <c r="DV8" s="39" t="n"/>

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -86,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -159,6 +159,24 @@
         <bgColor rgb="0098FF98"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FFA6A6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0E0E0"/>
+        <bgColor rgb="FFE0E0E0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -567,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -709,6 +727,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:GP32"/>
+  <dimension ref="A1:GW32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCell="GG15" sqref="GG15"/>
@@ -1524,203 +1554,210 @@
           <t>SUN</t>
         </is>
       </c>
-      <c r="B3" s="25" t="n"/>
-      <c r="C3" s="26" t="n"/>
-      <c r="D3" s="26" t="n"/>
-      <c r="E3" s="26" t="n"/>
-      <c r="F3" s="26" t="n"/>
-      <c r="G3" s="26" t="n"/>
-      <c r="H3" s="26" t="n"/>
-      <c r="I3" s="26" t="n"/>
-      <c r="J3" s="26" t="n"/>
-      <c r="K3" s="26" t="n"/>
-      <c r="L3" s="26" t="n"/>
-      <c r="M3" s="27" t="n"/>
-      <c r="N3" s="25" t="n"/>
-      <c r="O3" s="26" t="n"/>
-      <c r="P3" s="26" t="n"/>
-      <c r="Q3" s="26" t="n"/>
-      <c r="R3" s="26" t="n"/>
-      <c r="S3" s="26" t="n"/>
-      <c r="T3" s="26" t="n"/>
-      <c r="U3" s="26" t="n"/>
-      <c r="V3" s="26" t="n"/>
-      <c r="W3" s="26" t="n"/>
-      <c r="X3" s="26" t="n"/>
-      <c r="Y3" s="27" t="n"/>
-      <c r="Z3" s="25" t="n"/>
-      <c r="AA3" s="26" t="n"/>
-      <c r="AB3" s="26" t="n"/>
-      <c r="AC3" s="26" t="n"/>
-      <c r="AD3" s="26" t="n"/>
-      <c r="AE3" s="26" t="n"/>
-      <c r="AF3" s="26" t="n"/>
-      <c r="AG3" s="26" t="n"/>
-      <c r="AH3" s="26" t="n"/>
-      <c r="AI3" s="26" t="n"/>
-      <c r="AJ3" s="26" t="n"/>
-      <c r="AK3" s="27" t="n"/>
-      <c r="AL3" s="25" t="n"/>
-      <c r="AM3" s="26" t="n"/>
-      <c r="AN3" s="26" t="n"/>
-      <c r="AO3" s="26" t="n"/>
-      <c r="AP3" s="26" t="n"/>
-      <c r="AQ3" s="26" t="n"/>
-      <c r="AR3" s="26" t="n"/>
-      <c r="AS3" s="26" t="n"/>
-      <c r="AT3" s="26" t="n"/>
-      <c r="AU3" s="26" t="n"/>
-      <c r="AV3" s="26" t="n"/>
-      <c r="AW3" s="27" t="n"/>
-      <c r="AX3" s="25" t="n"/>
-      <c r="AY3" s="26" t="n"/>
-      <c r="AZ3" s="26" t="n"/>
-      <c r="BA3" s="26" t="n"/>
-      <c r="BB3" s="26" t="n"/>
-      <c r="BC3" s="26" t="n"/>
-      <c r="BD3" s="26" t="n"/>
-      <c r="BE3" s="26" t="n"/>
-      <c r="BF3" s="26" t="n"/>
-      <c r="BG3" s="26" t="n"/>
-      <c r="BH3" s="26" t="n"/>
-      <c r="BI3" s="27" t="n"/>
-      <c r="BJ3" s="25" t="n"/>
-      <c r="BK3" s="26" t="n"/>
-      <c r="BL3" s="26" t="n"/>
-      <c r="BM3" s="26" t="n"/>
-      <c r="BN3" s="26" t="n"/>
-      <c r="BO3" s="26" t="n"/>
-      <c r="BP3" s="26" t="n"/>
-      <c r="BQ3" s="26" t="n"/>
-      <c r="BR3" s="26" t="n"/>
-      <c r="BS3" s="26" t="n"/>
-      <c r="BT3" s="26" t="n"/>
-      <c r="BU3" s="27" t="n"/>
-      <c r="BV3" s="25" t="n"/>
-      <c r="BW3" s="26" t="n"/>
-      <c r="BX3" s="26" t="n"/>
-      <c r="BY3" s="26" t="n"/>
-      <c r="BZ3" s="26" t="n"/>
-      <c r="CA3" s="26" t="n"/>
-      <c r="CB3" s="26" t="n"/>
-      <c r="CC3" s="26" t="n"/>
-      <c r="CD3" s="26" t="n"/>
-      <c r="CE3" s="26" t="n"/>
-      <c r="CF3" s="26" t="n"/>
-      <c r="CG3" s="27" t="n"/>
-      <c r="CH3" s="25" t="n"/>
-      <c r="CI3" s="26" t="n"/>
-      <c r="CJ3" s="26" t="n"/>
-      <c r="CK3" s="26" t="n"/>
-      <c r="CL3" s="26" t="n"/>
-      <c r="CM3" s="26" t="n"/>
-      <c r="CN3" s="26" t="n"/>
-      <c r="CO3" s="26" t="n"/>
-      <c r="CP3" s="26" t="n"/>
-      <c r="CQ3" s="26" t="n"/>
-      <c r="CR3" s="26" t="n"/>
-      <c r="CS3" s="27" t="n"/>
-      <c r="CT3" s="25" t="n"/>
-      <c r="CU3" s="26" t="n"/>
-      <c r="CV3" s="26" t="n"/>
-      <c r="CW3" s="26" t="n"/>
-      <c r="CX3" s="26" t="n"/>
-      <c r="CY3" s="26" t="n"/>
-      <c r="CZ3" s="26" t="n"/>
-      <c r="DA3" s="26" t="n"/>
-      <c r="DB3" s="26" t="n"/>
-      <c r="DC3" s="26" t="n"/>
-      <c r="DD3" s="26" t="n"/>
-      <c r="DE3" s="27" t="n"/>
-      <c r="DF3" s="25" t="n"/>
-      <c r="DG3" s="26" t="n"/>
-      <c r="DH3" s="26" t="n"/>
-      <c r="DI3" s="26" t="n"/>
-      <c r="DJ3" s="26" t="n"/>
-      <c r="DK3" s="26" t="n"/>
-      <c r="DL3" s="26" t="n"/>
-      <c r="DM3" s="26" t="n"/>
-      <c r="DN3" s="26" t="n"/>
-      <c r="DO3" s="26" t="n"/>
-      <c r="DP3" s="26" t="n"/>
-      <c r="DQ3" s="27" t="n"/>
-      <c r="DR3" s="25" t="n"/>
-      <c r="DS3" s="26" t="n"/>
-      <c r="DT3" s="26" t="n"/>
-      <c r="DU3" s="26" t="n"/>
-      <c r="DV3" s="26" t="n"/>
-      <c r="DW3" s="26" t="n"/>
-      <c r="DX3" s="26" t="n"/>
-      <c r="DY3" s="26" t="n"/>
-      <c r="DZ3" s="26" t="n"/>
-      <c r="EA3" s="26" t="n"/>
-      <c r="EB3" s="26" t="n"/>
-      <c r="EC3" s="27" t="n"/>
-      <c r="ED3" s="25" t="n"/>
-      <c r="EE3" s="26" t="n"/>
-      <c r="EF3" s="26" t="n"/>
-      <c r="EG3" s="26" t="n"/>
-      <c r="EH3" s="26" t="n"/>
-      <c r="EI3" s="26" t="n"/>
-      <c r="EJ3" s="26" t="n"/>
-      <c r="EK3" s="26" t="n"/>
-      <c r="EL3" s="26" t="n"/>
-      <c r="EM3" s="26" t="n"/>
-      <c r="EN3" s="26" t="n"/>
-      <c r="EO3" s="27" t="n"/>
-      <c r="EP3" s="25" t="n"/>
-      <c r="EQ3" s="26" t="n"/>
-      <c r="ER3" s="26" t="n"/>
-      <c r="ES3" s="26" t="n"/>
-      <c r="ET3" s="26" t="n"/>
-      <c r="EU3" s="26" t="n"/>
-      <c r="EV3" s="26" t="n"/>
-      <c r="EW3" s="26" t="n"/>
-      <c r="EX3" s="26" t="n"/>
-      <c r="EY3" s="26" t="n"/>
-      <c r="EZ3" s="26" t="n"/>
-      <c r="FA3" s="27" t="n"/>
-      <c r="FB3" s="25" t="n"/>
-      <c r="FC3" s="26" t="n"/>
-      <c r="FD3" s="26" t="n"/>
-      <c r="FE3" s="26" t="n"/>
-      <c r="FF3" s="26" t="n"/>
-      <c r="FG3" s="26" t="n"/>
-      <c r="FH3" s="26" t="n"/>
-      <c r="FI3" s="26" t="n"/>
-      <c r="FJ3" s="26" t="n"/>
-      <c r="FK3" s="26" t="n"/>
-      <c r="FL3" s="26" t="n"/>
-      <c r="FM3" s="27" t="n"/>
-      <c r="FN3" s="25" t="n"/>
-      <c r="FO3" s="26" t="n"/>
-      <c r="FP3" s="26" t="n"/>
-      <c r="FQ3" s="26" t="n"/>
-      <c r="FR3" s="26" t="n"/>
-      <c r="FS3" s="26" t="n"/>
-      <c r="FT3" s="26" t="n"/>
-      <c r="FU3" s="26" t="n"/>
-      <c r="FV3" s="26" t="n"/>
-      <c r="FW3" s="26" t="n"/>
-      <c r="FX3" s="26" t="n"/>
-      <c r="FY3" s="27" t="n"/>
-      <c r="FZ3" s="25" t="n"/>
-      <c r="GA3" s="26" t="n"/>
-      <c r="GB3" s="26" t="n"/>
-      <c r="GC3" s="26" t="n"/>
-      <c r="GD3" s="26" t="n"/>
-      <c r="GE3" s="26" t="n"/>
-      <c r="GF3" s="26" t="n"/>
-      <c r="GG3" s="26" t="n"/>
-      <c r="GH3" s="26" t="n"/>
-      <c r="GI3" s="26" t="n"/>
-      <c r="GJ3" s="26" t="n"/>
-      <c r="GK3" s="27" t="n"/>
-      <c r="GL3" s="14" t="n"/>
-      <c r="GM3" s="14" t="n"/>
-      <c r="GN3" s="14" t="n"/>
-      <c r="GO3" s="14" t="n"/>
-      <c r="GP3" s="14" t="n"/>
+      <c r="B3" s="89" t="n"/>
+      <c r="C3" s="90" t="n"/>
+      <c r="D3" s="90" t="n"/>
+      <c r="E3" s="90" t="n"/>
+      <c r="F3" s="90" t="n"/>
+      <c r="G3" s="90" t="n"/>
+      <c r="H3" s="90" t="n"/>
+      <c r="I3" s="90" t="n"/>
+      <c r="J3" s="90" t="n"/>
+      <c r="K3" s="90" t="n"/>
+      <c r="L3" s="90" t="n"/>
+      <c r="M3" s="91" t="n"/>
+      <c r="N3" s="89" t="n"/>
+      <c r="O3" s="90" t="n"/>
+      <c r="P3" s="90" t="n"/>
+      <c r="Q3" s="90" t="n"/>
+      <c r="R3" s="90" t="n"/>
+      <c r="S3" s="90" t="n"/>
+      <c r="T3" s="90" t="n"/>
+      <c r="U3" s="90" t="n"/>
+      <c r="V3" s="90" t="n"/>
+      <c r="W3" s="90" t="n"/>
+      <c r="X3" s="90" t="n"/>
+      <c r="Y3" s="91" t="n"/>
+      <c r="Z3" s="89" t="n"/>
+      <c r="AA3" s="90" t="n"/>
+      <c r="AB3" s="90" t="n"/>
+      <c r="AC3" s="90" t="n"/>
+      <c r="AD3" s="90" t="n"/>
+      <c r="AE3" s="90" t="n"/>
+      <c r="AF3" s="90" t="n"/>
+      <c r="AG3" s="90" t="n"/>
+      <c r="AH3" s="90" t="n"/>
+      <c r="AI3" s="90" t="n"/>
+      <c r="AJ3" s="90" t="n"/>
+      <c r="AK3" s="91" t="n"/>
+      <c r="AL3" s="89" t="n"/>
+      <c r="AM3" s="90" t="n"/>
+      <c r="AN3" s="90" t="n"/>
+      <c r="AO3" s="90" t="n"/>
+      <c r="AP3" s="90" t="n"/>
+      <c r="AQ3" s="90" t="n"/>
+      <c r="AR3" s="90" t="n"/>
+      <c r="AS3" s="90" t="n"/>
+      <c r="AT3" s="90" t="n"/>
+      <c r="AU3" s="90" t="n"/>
+      <c r="AV3" s="90" t="n"/>
+      <c r="AW3" s="91" t="n"/>
+      <c r="AX3" s="89" t="n"/>
+      <c r="AY3" s="90" t="n"/>
+      <c r="AZ3" s="90" t="n"/>
+      <c r="BA3" s="90" t="n"/>
+      <c r="BB3" s="90" t="n"/>
+      <c r="BC3" s="90" t="n"/>
+      <c r="BD3" s="90" t="n"/>
+      <c r="BE3" s="90" t="n"/>
+      <c r="BF3" s="90" t="n"/>
+      <c r="BG3" s="90" t="n"/>
+      <c r="BH3" s="90" t="n"/>
+      <c r="BI3" s="91" t="n"/>
+      <c r="BJ3" s="89" t="n"/>
+      <c r="BK3" s="90" t="n"/>
+      <c r="BL3" s="90" t="n"/>
+      <c r="BM3" s="90" t="n"/>
+      <c r="BN3" s="90" t="n"/>
+      <c r="BO3" s="90" t="n"/>
+      <c r="BP3" s="90" t="n"/>
+      <c r="BQ3" s="90" t="n"/>
+      <c r="BR3" s="90" t="n"/>
+      <c r="BS3" s="90" t="n"/>
+      <c r="BT3" s="90" t="n"/>
+      <c r="BU3" s="91" t="n"/>
+      <c r="BV3" s="89" t="n"/>
+      <c r="BW3" s="90" t="n"/>
+      <c r="BX3" s="90" t="n"/>
+      <c r="BY3" s="90" t="n"/>
+      <c r="BZ3" s="90" t="n"/>
+      <c r="CA3" s="90" t="n"/>
+      <c r="CB3" s="90" t="n"/>
+      <c r="CC3" s="90" t="n"/>
+      <c r="CD3" s="90" t="n"/>
+      <c r="CE3" s="90" t="n"/>
+      <c r="CF3" s="90" t="n"/>
+      <c r="CG3" s="91" t="n"/>
+      <c r="CH3" s="89" t="n"/>
+      <c r="CI3" s="90" t="n"/>
+      <c r="CJ3" s="90" t="n"/>
+      <c r="CK3" s="90" t="n"/>
+      <c r="CL3" s="90" t="n"/>
+      <c r="CM3" s="90" t="n"/>
+      <c r="CN3" s="90" t="n"/>
+      <c r="CO3" s="90" t="n"/>
+      <c r="CP3" s="90" t="n"/>
+      <c r="CQ3" s="90" t="n"/>
+      <c r="CR3" s="90" t="n"/>
+      <c r="CS3" s="91" t="n"/>
+      <c r="CT3" s="89" t="n"/>
+      <c r="CU3" s="90" t="n"/>
+      <c r="CV3" s="90" t="n"/>
+      <c r="CW3" s="90" t="n"/>
+      <c r="CX3" s="90" t="n"/>
+      <c r="CY3" s="90" t="n"/>
+      <c r="CZ3" s="90" t="n"/>
+      <c r="DA3" s="90" t="n"/>
+      <c r="DB3" s="90" t="n"/>
+      <c r="DC3" s="90" t="n"/>
+      <c r="DD3" s="90" t="n"/>
+      <c r="DE3" s="91" t="n"/>
+      <c r="DF3" s="89" t="n"/>
+      <c r="DG3" s="90" t="n"/>
+      <c r="DH3" s="90" t="n"/>
+      <c r="DI3" s="90" t="n"/>
+      <c r="DJ3" s="90" t="n"/>
+      <c r="DK3" s="90" t="n"/>
+      <c r="DL3" s="90" t="n"/>
+      <c r="DM3" s="90" t="n"/>
+      <c r="DN3" s="90" t="n"/>
+      <c r="DO3" s="90" t="n"/>
+      <c r="DP3" s="90" t="n"/>
+      <c r="DQ3" s="91" t="n"/>
+      <c r="DR3" s="89" t="n"/>
+      <c r="DS3" s="90" t="n"/>
+      <c r="DT3" s="90" t="n"/>
+      <c r="DU3" s="90" t="n"/>
+      <c r="DV3" s="90" t="n"/>
+      <c r="DW3" s="90" t="n"/>
+      <c r="DX3" s="90" t="n"/>
+      <c r="DY3" s="90" t="n"/>
+      <c r="DZ3" s="90" t="n"/>
+      <c r="EA3" s="90" t="n"/>
+      <c r="EB3" s="90" t="n"/>
+      <c r="EC3" s="91" t="n"/>
+      <c r="ED3" s="89" t="n"/>
+      <c r="EE3" s="90" t="n"/>
+      <c r="EF3" s="90" t="n"/>
+      <c r="EG3" s="90" t="n"/>
+      <c r="EH3" s="90" t="n"/>
+      <c r="EI3" s="90" t="n"/>
+      <c r="EJ3" s="90" t="n"/>
+      <c r="EK3" s="90" t="n"/>
+      <c r="EL3" s="90" t="n"/>
+      <c r="EM3" s="90" t="n"/>
+      <c r="EN3" s="90" t="n"/>
+      <c r="EO3" s="91" t="n"/>
+      <c r="EP3" s="89" t="n"/>
+      <c r="EQ3" s="90" t="n"/>
+      <c r="ER3" s="90" t="n"/>
+      <c r="ES3" s="90" t="n"/>
+      <c r="ET3" s="90" t="n"/>
+      <c r="EU3" s="90" t="n"/>
+      <c r="EV3" s="90" t="n"/>
+      <c r="EW3" s="90" t="n"/>
+      <c r="EX3" s="90" t="n"/>
+      <c r="EY3" s="90" t="n"/>
+      <c r="EZ3" s="90" t="n"/>
+      <c r="FA3" s="91" t="n"/>
+      <c r="FB3" s="89" t="n"/>
+      <c r="FC3" s="90" t="n"/>
+      <c r="FD3" s="90" t="n"/>
+      <c r="FE3" s="90" t="n"/>
+      <c r="FF3" s="90" t="n"/>
+      <c r="FG3" s="90" t="n"/>
+      <c r="FH3" s="90" t="n"/>
+      <c r="FI3" s="90" t="n"/>
+      <c r="FJ3" s="90" t="n"/>
+      <c r="FK3" s="90" t="n"/>
+      <c r="FL3" s="90" t="n"/>
+      <c r="FM3" s="91" t="n"/>
+      <c r="FN3" s="89" t="n"/>
+      <c r="FO3" s="90" t="n"/>
+      <c r="FP3" s="90" t="n"/>
+      <c r="FQ3" s="90" t="n"/>
+      <c r="FR3" s="90" t="n"/>
+      <c r="FS3" s="90" t="n"/>
+      <c r="FT3" s="90" t="n"/>
+      <c r="FU3" s="90" t="n"/>
+      <c r="FV3" s="90" t="n"/>
+      <c r="FW3" s="90" t="n"/>
+      <c r="FX3" s="90" t="n"/>
+      <c r="FY3" s="91" t="n"/>
+      <c r="FZ3" s="89" t="n"/>
+      <c r="GA3" s="90" t="n"/>
+      <c r="GB3" s="90" t="n"/>
+      <c r="GC3" s="90" t="n"/>
+      <c r="GD3" s="90" t="n"/>
+      <c r="GE3" s="90" t="n"/>
+      <c r="GF3" s="90" t="n"/>
+      <c r="GG3" s="90" t="n"/>
+      <c r="GH3" s="90" t="n"/>
+      <c r="GI3" s="90" t="n"/>
+      <c r="GJ3" s="90" t="n"/>
+      <c r="GK3" s="91" t="n"/>
+      <c r="GL3" s="92" t="n"/>
+      <c r="GM3" s="92" t="n"/>
+      <c r="GN3" s="92" t="n"/>
+      <c r="GO3" s="92" t="n"/>
+      <c r="GP3" s="92" t="n"/>
+      <c r="GQ3" s="92" t="n"/>
+      <c r="GR3" s="92" t="n"/>
+      <c r="GS3" s="92" t="n"/>
+      <c r="GT3" s="92" t="n"/>
+      <c r="GU3" s="92" t="n"/>
+      <c r="GV3" s="92" t="n"/>
+      <c r="GW3" s="92" t="n"/>
     </row>
     <row r="4" ht="50.25" customFormat="1" customHeight="1" s="1">
       <c r="A4" s="7" t="inlineStr">
@@ -1728,198 +1765,210 @@
           <t>MON</t>
         </is>
       </c>
-      <c r="B4" s="15" t="n"/>
-      <c r="C4" s="16" t="n"/>
-      <c r="D4" s="16" t="n"/>
-      <c r="E4" s="16" t="n"/>
-      <c r="F4" s="16" t="n"/>
-      <c r="G4" s="16" t="n"/>
-      <c r="H4" s="16" t="n"/>
-      <c r="I4" s="16" t="n"/>
-      <c r="J4" s="16" t="n"/>
-      <c r="K4" s="16" t="n"/>
-      <c r="L4" s="16" t="n"/>
-      <c r="M4" s="17" t="n"/>
-      <c r="N4" s="15" t="n"/>
-      <c r="O4" s="16" t="n"/>
-      <c r="P4" s="16" t="n"/>
-      <c r="Q4" s="16" t="n"/>
-      <c r="R4" s="16" t="n"/>
-      <c r="S4" s="16" t="n"/>
-      <c r="T4" s="16" t="n"/>
-      <c r="U4" s="16" t="n"/>
-      <c r="V4" s="16" t="n"/>
-      <c r="W4" s="16" t="n"/>
-      <c r="X4" s="16" t="n"/>
-      <c r="Y4" s="17" t="n"/>
-      <c r="Z4" s="15" t="n"/>
-      <c r="AA4" s="16" t="n"/>
-      <c r="AB4" s="16" t="n"/>
-      <c r="AC4" s="16" t="n"/>
-      <c r="AD4" s="16" t="n"/>
-      <c r="AE4" s="16" t="n"/>
-      <c r="AF4" s="16" t="n"/>
-      <c r="AG4" s="16" t="n"/>
-      <c r="AH4" s="16" t="n"/>
-      <c r="AI4" s="16" t="n"/>
-      <c r="AJ4" s="80" t="n"/>
-      <c r="AK4" s="81" t="n"/>
-      <c r="AL4" s="82" t="n"/>
-      <c r="AM4" s="80" t="n"/>
-      <c r="AN4" s="80" t="n"/>
-      <c r="AO4" s="80" t="n"/>
-      <c r="AP4" s="80" t="n"/>
-      <c r="AQ4" s="80" t="n"/>
-      <c r="AR4" s="80" t="n"/>
-      <c r="AS4" s="80" t="n"/>
-      <c r="AT4" s="16" t="n"/>
-      <c r="AU4" s="16" t="n"/>
-      <c r="AV4" s="16" t="n"/>
-      <c r="AW4" s="81" t="n"/>
-      <c r="AX4" s="82" t="n"/>
-      <c r="AY4" s="80" t="n"/>
-      <c r="AZ4" s="80" t="n"/>
-      <c r="BA4" s="80" t="n"/>
-      <c r="BB4" s="80" t="n"/>
-      <c r="BC4" s="80" t="n"/>
-      <c r="BD4" s="80" t="n"/>
-      <c r="BE4" s="80" t="n"/>
-      <c r="BF4" s="80" t="n"/>
-      <c r="BG4" s="16" t="n"/>
-      <c r="BH4" s="16" t="n"/>
-      <c r="BI4" s="17" t="n"/>
-      <c r="BJ4" s="82" t="n"/>
-      <c r="BK4" s="80" t="n"/>
-      <c r="BL4" s="80" t="n"/>
-      <c r="BM4" s="80" t="n"/>
-      <c r="BN4" s="80" t="n"/>
-      <c r="BO4" s="80" t="n"/>
-      <c r="BP4" s="80" t="n"/>
-      <c r="BQ4" s="80" t="n"/>
-      <c r="BR4" s="80" t="n"/>
-      <c r="BS4" s="80" t="n"/>
-      <c r="BT4" s="16" t="n"/>
-      <c r="BU4" s="17" t="n"/>
-      <c r="BV4" s="15" t="n"/>
-      <c r="BW4" s="16" t="n"/>
-      <c r="BX4" s="16" t="n"/>
-      <c r="BY4" s="16" t="n"/>
-      <c r="BZ4" s="16" t="n"/>
-      <c r="CA4" s="16" t="n"/>
-      <c r="CB4" s="16" t="n"/>
-      <c r="CC4" s="16" t="n"/>
-      <c r="CD4" s="16" t="n"/>
-      <c r="CE4" s="16" t="n"/>
-      <c r="CF4" s="16" t="n"/>
-      <c r="CG4" s="17" t="n"/>
-      <c r="CH4" s="15" t="n"/>
-      <c r="CI4" s="16" t="n"/>
-      <c r="CJ4" s="16" t="n"/>
-      <c r="CK4" s="16" t="n"/>
-      <c r="CL4" s="16" t="n"/>
-      <c r="CM4" s="16" t="n"/>
-      <c r="CN4" s="16" t="n"/>
-      <c r="CO4" s="16" t="n"/>
-      <c r="CP4" s="16" t="n"/>
-      <c r="CQ4" s="16" t="n"/>
-      <c r="CR4" s="16" t="n"/>
-      <c r="CS4" s="17" t="n"/>
-      <c r="CT4" s="15" t="n"/>
-      <c r="CU4" s="16" t="n"/>
-      <c r="CV4" s="16" t="n"/>
-      <c r="CW4" s="16" t="n"/>
-      <c r="CX4" s="16" t="n"/>
-      <c r="CY4" s="16" t="n"/>
-      <c r="CZ4" s="16" t="n"/>
-      <c r="DA4" s="16" t="n"/>
-      <c r="DB4" s="16" t="n"/>
-      <c r="DC4" s="16" t="n"/>
-      <c r="DD4" s="16" t="n"/>
-      <c r="DE4" s="17" t="n"/>
-      <c r="DF4" s="15" t="n"/>
-      <c r="DG4" s="16" t="n"/>
-      <c r="DH4" s="16" t="n"/>
-      <c r="DI4" s="16" t="n"/>
-      <c r="DJ4" s="80" t="n"/>
-      <c r="DK4" s="80" t="n"/>
-      <c r="DL4" s="80" t="n"/>
-      <c r="DM4" s="80" t="n"/>
-      <c r="DN4" s="80" t="n"/>
-      <c r="DO4" s="80" t="n"/>
-      <c r="DP4" s="80" t="n"/>
-      <c r="DQ4" s="81" t="n"/>
-      <c r="DR4" s="82" t="n"/>
-      <c r="DS4" s="80" t="n"/>
-      <c r="DT4" s="16" t="n"/>
-      <c r="DU4" s="16" t="n"/>
-      <c r="DV4" s="16" t="n"/>
-      <c r="DW4" s="16" t="n"/>
-      <c r="DX4" s="16" t="n"/>
-      <c r="DY4" s="16" t="n"/>
-      <c r="DZ4" s="16" t="n"/>
-      <c r="EA4" s="16" t="n"/>
-      <c r="EB4" s="16" t="n"/>
-      <c r="EC4" s="17" t="n"/>
-      <c r="ED4" s="15" t="n"/>
-      <c r="EE4" s="16" t="n"/>
-      <c r="EF4" s="16" t="n"/>
-      <c r="EG4" s="16" t="n"/>
-      <c r="EH4" s="16" t="n"/>
-      <c r="EI4" s="16" t="n"/>
-      <c r="EJ4" s="16" t="n"/>
-      <c r="EK4" s="16" t="n"/>
-      <c r="EL4" s="16" t="n"/>
-      <c r="EM4" s="16" t="n"/>
-      <c r="EN4" s="16" t="n"/>
-      <c r="EO4" s="17" t="n"/>
-      <c r="EP4" s="15" t="n"/>
-      <c r="EQ4" s="16" t="n"/>
-      <c r="ER4" s="16" t="n"/>
-      <c r="ES4" s="16" t="n"/>
-      <c r="ET4" s="16" t="n"/>
-      <c r="EU4" s="16" t="n"/>
-      <c r="EV4" s="16" t="n"/>
-      <c r="EW4" s="16" t="n"/>
-      <c r="EX4" s="16" t="n"/>
-      <c r="EY4" s="16" t="n"/>
-      <c r="EZ4" s="16" t="n"/>
-      <c r="FA4" s="17" t="n"/>
-      <c r="FB4" s="15" t="n"/>
-      <c r="FC4" s="16" t="n"/>
-      <c r="FD4" s="16" t="n"/>
-      <c r="FE4" s="16" t="n"/>
-      <c r="FF4" s="16" t="n"/>
-      <c r="FG4" s="16" t="n"/>
-      <c r="FH4" s="16" t="n"/>
-      <c r="FI4" s="16" t="n"/>
-      <c r="FJ4" s="16" t="n"/>
-      <c r="FK4" s="16" t="n"/>
-      <c r="FL4" s="16" t="n"/>
-      <c r="FM4" s="17" t="n"/>
-      <c r="FN4" s="15" t="n"/>
-      <c r="FO4" s="16" t="n"/>
-      <c r="FP4" s="16" t="n"/>
-      <c r="FQ4" s="16" t="n"/>
-      <c r="FR4" s="16" t="n"/>
-      <c r="FS4" s="16" t="n"/>
-      <c r="FT4" s="16" t="n"/>
-      <c r="FU4" s="16" t="n"/>
-      <c r="FV4" s="16" t="n"/>
-      <c r="FW4" s="16" t="n"/>
-      <c r="FX4" s="16" t="n"/>
-      <c r="FY4" s="17" t="n"/>
-      <c r="FZ4" s="15" t="n"/>
-      <c r="GA4" s="16" t="n"/>
-      <c r="GB4" s="16" t="n"/>
-      <c r="GC4" s="16" t="n"/>
-      <c r="GD4" s="16" t="n"/>
-      <c r="GE4" s="16" t="n"/>
-      <c r="GF4" s="16" t="n"/>
-      <c r="GG4" s="16" t="n"/>
-      <c r="GH4" s="16" t="n"/>
-      <c r="GI4" s="16" t="n"/>
-      <c r="GJ4" s="16" t="n"/>
-      <c r="GK4" s="17" t="n"/>
+      <c r="B4" s="93" t="n"/>
+      <c r="C4" s="94" t="n"/>
+      <c r="D4" s="94" t="n"/>
+      <c r="E4" s="94" t="n"/>
+      <c r="F4" s="94" t="n"/>
+      <c r="G4" s="94" t="n"/>
+      <c r="H4" s="94" t="n"/>
+      <c r="I4" s="94" t="n"/>
+      <c r="J4" s="94" t="n"/>
+      <c r="K4" s="94" t="n"/>
+      <c r="L4" s="94" t="n"/>
+      <c r="M4" s="95" t="n"/>
+      <c r="N4" s="93" t="n"/>
+      <c r="O4" s="94" t="n"/>
+      <c r="P4" s="94" t="n"/>
+      <c r="Q4" s="94" t="n"/>
+      <c r="R4" s="94" t="n"/>
+      <c r="S4" s="94" t="n"/>
+      <c r="T4" s="94" t="n"/>
+      <c r="U4" s="94" t="n"/>
+      <c r="V4" s="94" t="n"/>
+      <c r="W4" s="94" t="n"/>
+      <c r="X4" s="94" t="n"/>
+      <c r="Y4" s="95" t="n"/>
+      <c r="Z4" s="93" t="n"/>
+      <c r="AA4" s="94" t="n"/>
+      <c r="AB4" s="94" t="n"/>
+      <c r="AC4" s="94" t="n"/>
+      <c r="AD4" s="94" t="n"/>
+      <c r="AE4" s="94" t="n"/>
+      <c r="AF4" s="94" t="n"/>
+      <c r="AG4" s="94" t="n"/>
+      <c r="AH4" s="94" t="n"/>
+      <c r="AI4" s="94" t="n"/>
+      <c r="AJ4" s="94" t="n"/>
+      <c r="AK4" s="95" t="n"/>
+      <c r="AL4" s="93" t="n"/>
+      <c r="AM4" s="94" t="n"/>
+      <c r="AN4" s="94" t="n"/>
+      <c r="AO4" s="94" t="n"/>
+      <c r="AP4" s="94" t="n"/>
+      <c r="AQ4" s="94" t="n"/>
+      <c r="AR4" s="94" t="n"/>
+      <c r="AS4" s="94" t="n"/>
+      <c r="AT4" s="94" t="n"/>
+      <c r="AU4" s="94" t="n"/>
+      <c r="AV4" s="94" t="n"/>
+      <c r="AW4" s="95" t="n"/>
+      <c r="AX4" s="93" t="n"/>
+      <c r="AY4" s="94" t="n"/>
+      <c r="AZ4" s="94" t="n"/>
+      <c r="BA4" s="94" t="n"/>
+      <c r="BB4" s="94" t="n"/>
+      <c r="BC4" s="94" t="n"/>
+      <c r="BD4" s="94" t="n"/>
+      <c r="BE4" s="94" t="n"/>
+      <c r="BF4" s="94" t="n"/>
+      <c r="BG4" s="94" t="n"/>
+      <c r="BH4" s="94" t="n"/>
+      <c r="BI4" s="95" t="n"/>
+      <c r="BJ4" s="93" t="n"/>
+      <c r="BK4" s="94" t="n"/>
+      <c r="BL4" s="94" t="n"/>
+      <c r="BM4" s="94" t="n"/>
+      <c r="BN4" s="94" t="n"/>
+      <c r="BO4" s="94" t="n"/>
+      <c r="BP4" s="94" t="n"/>
+      <c r="BQ4" s="94" t="n"/>
+      <c r="BR4" s="94" t="n"/>
+      <c r="BS4" s="94" t="n"/>
+      <c r="BT4" s="94" t="n"/>
+      <c r="BU4" s="95" t="n"/>
+      <c r="BV4" s="93" t="n"/>
+      <c r="BW4" s="94" t="n"/>
+      <c r="BX4" s="94" t="n"/>
+      <c r="BY4" s="94" t="n"/>
+      <c r="BZ4" s="94" t="n"/>
+      <c r="CA4" s="94" t="n"/>
+      <c r="CB4" s="94" t="n"/>
+      <c r="CC4" s="94" t="n"/>
+      <c r="CD4" s="94" t="n"/>
+      <c r="CE4" s="94" t="n"/>
+      <c r="CF4" s="94" t="n"/>
+      <c r="CG4" s="95" t="n"/>
+      <c r="CH4" s="93" t="n"/>
+      <c r="CI4" s="94" t="n"/>
+      <c r="CJ4" s="94" t="n"/>
+      <c r="CK4" s="94" t="n"/>
+      <c r="CL4" s="94" t="n"/>
+      <c r="CM4" s="94" t="n"/>
+      <c r="CN4" s="94" t="n"/>
+      <c r="CO4" s="94" t="n"/>
+      <c r="CP4" s="94" t="n"/>
+      <c r="CQ4" s="94" t="n"/>
+      <c r="CR4" s="94" t="n"/>
+      <c r="CS4" s="95" t="n"/>
+      <c r="CT4" s="93" t="n"/>
+      <c r="CU4" s="94" t="n"/>
+      <c r="CV4" s="94" t="n"/>
+      <c r="CW4" s="94" t="n"/>
+      <c r="CX4" s="94" t="n"/>
+      <c r="CY4" s="94" t="n"/>
+      <c r="CZ4" s="94" t="n"/>
+      <c r="DA4" s="94" t="n"/>
+      <c r="DB4" s="94" t="n"/>
+      <c r="DC4" s="94" t="n"/>
+      <c r="DD4" s="94" t="n"/>
+      <c r="DE4" s="95" t="n"/>
+      <c r="DF4" s="93" t="n"/>
+      <c r="DG4" s="94" t="n"/>
+      <c r="DH4" s="94" t="n"/>
+      <c r="DI4" s="94" t="n"/>
+      <c r="DJ4" s="94" t="n"/>
+      <c r="DK4" s="94" t="n"/>
+      <c r="DL4" s="94" t="n"/>
+      <c r="DM4" s="94" t="n"/>
+      <c r="DN4" s="94" t="n"/>
+      <c r="DO4" s="94" t="n"/>
+      <c r="DP4" s="94" t="n"/>
+      <c r="DQ4" s="95" t="n"/>
+      <c r="DR4" s="93" t="n"/>
+      <c r="DS4" s="94" t="n"/>
+      <c r="DT4" s="94" t="n"/>
+      <c r="DU4" s="94" t="n"/>
+      <c r="DV4" s="94" t="n"/>
+      <c r="DW4" s="94" t="n"/>
+      <c r="DX4" s="94" t="n"/>
+      <c r="DY4" s="94" t="n"/>
+      <c r="DZ4" s="94" t="n"/>
+      <c r="EA4" s="94" t="n"/>
+      <c r="EB4" s="94" t="n"/>
+      <c r="EC4" s="95" t="n"/>
+      <c r="ED4" s="93" t="n"/>
+      <c r="EE4" s="94" t="n"/>
+      <c r="EF4" s="94" t="n"/>
+      <c r="EG4" s="94" t="n"/>
+      <c r="EH4" s="94" t="n"/>
+      <c r="EI4" s="94" t="n"/>
+      <c r="EJ4" s="94" t="n"/>
+      <c r="EK4" s="94" t="n"/>
+      <c r="EL4" s="94" t="n"/>
+      <c r="EM4" s="94" t="n"/>
+      <c r="EN4" s="94" t="n"/>
+      <c r="EO4" s="95" t="n"/>
+      <c r="EP4" s="93" t="n"/>
+      <c r="EQ4" s="94" t="n"/>
+      <c r="ER4" s="94" t="n"/>
+      <c r="ES4" s="94" t="n"/>
+      <c r="ET4" s="94" t="n"/>
+      <c r="EU4" s="94" t="n"/>
+      <c r="EV4" s="94" t="n"/>
+      <c r="EW4" s="94" t="n"/>
+      <c r="EX4" s="94" t="n"/>
+      <c r="EY4" s="94" t="n"/>
+      <c r="EZ4" s="94" t="n"/>
+      <c r="FA4" s="95" t="n"/>
+      <c r="FB4" s="93" t="n"/>
+      <c r="FC4" s="94" t="n"/>
+      <c r="FD4" s="94" t="n"/>
+      <c r="FE4" s="94" t="n"/>
+      <c r="FF4" s="94" t="n"/>
+      <c r="FG4" s="94" t="n"/>
+      <c r="FH4" s="94" t="n"/>
+      <c r="FI4" s="94" t="n"/>
+      <c r="FJ4" s="94" t="n"/>
+      <c r="FK4" s="94" t="n"/>
+      <c r="FL4" s="94" t="n"/>
+      <c r="FM4" s="95" t="n"/>
+      <c r="FN4" s="93" t="n"/>
+      <c r="FO4" s="94" t="n"/>
+      <c r="FP4" s="94" t="n"/>
+      <c r="FQ4" s="94" t="n"/>
+      <c r="FR4" s="94" t="n"/>
+      <c r="FS4" s="94" t="n"/>
+      <c r="FT4" s="94" t="n"/>
+      <c r="FU4" s="94" t="n"/>
+      <c r="FV4" s="94" t="n"/>
+      <c r="FW4" s="94" t="n"/>
+      <c r="FX4" s="94" t="n"/>
+      <c r="FY4" s="95" t="n"/>
+      <c r="FZ4" s="93" t="n"/>
+      <c r="GA4" s="94" t="n"/>
+      <c r="GB4" s="94" t="n"/>
+      <c r="GC4" s="94" t="n"/>
+      <c r="GD4" s="94" t="n"/>
+      <c r="GE4" s="94" t="n"/>
+      <c r="GF4" s="94" t="n"/>
+      <c r="GG4" s="94" t="n"/>
+      <c r="GH4" s="94" t="n"/>
+      <c r="GI4" s="94" t="n"/>
+      <c r="GJ4" s="94" t="n"/>
+      <c r="GK4" s="95" t="n"/>
+      <c r="GL4" s="96" t="n"/>
+      <c r="GM4" s="96" t="n"/>
+      <c r="GN4" s="96" t="n"/>
+      <c r="GO4" s="96" t="n"/>
+      <c r="GP4" s="96" t="n"/>
+      <c r="GQ4" s="96" t="n"/>
+      <c r="GR4" s="96" t="n"/>
+      <c r="GS4" s="96" t="n"/>
+      <c r="GT4" s="96" t="n"/>
+      <c r="GU4" s="96" t="n"/>
+      <c r="GV4" s="96" t="n"/>
+      <c r="GW4" s="96" t="n"/>
     </row>
     <row r="5" ht="50.25" customFormat="1" customHeight="1" s="1">
       <c r="A5" s="8" t="inlineStr">
@@ -1927,203 +1976,210 @@
           <t>TUES</t>
         </is>
       </c>
-      <c r="B5" s="9" t="n"/>
-      <c r="C5" s="10" t="n"/>
-      <c r="D5" s="10" t="n"/>
-      <c r="E5" s="10" t="n"/>
-      <c r="F5" s="10" t="n"/>
-      <c r="G5" s="10" t="n"/>
-      <c r="H5" s="10" t="n"/>
-      <c r="I5" s="10" t="n"/>
-      <c r="J5" s="10" t="n"/>
-      <c r="K5" s="10" t="n"/>
-      <c r="L5" s="10" t="n"/>
-      <c r="M5" s="11" t="n"/>
-      <c r="N5" s="9" t="n"/>
-      <c r="O5" s="10" t="n"/>
-      <c r="P5" s="10" t="n"/>
-      <c r="Q5" s="10" t="n"/>
-      <c r="R5" s="10" t="n"/>
-      <c r="S5" s="10" t="n"/>
-      <c r="T5" s="10" t="n"/>
-      <c r="U5" s="10" t="n"/>
-      <c r="V5" s="10" t="n"/>
-      <c r="W5" s="10" t="n"/>
-      <c r="X5" s="10" t="n"/>
-      <c r="Y5" s="11" t="n"/>
-      <c r="Z5" s="9" t="n"/>
-      <c r="AA5" s="10" t="n"/>
-      <c r="AB5" s="10" t="n"/>
-      <c r="AC5" s="10" t="n"/>
-      <c r="AD5" s="10" t="n"/>
-      <c r="AE5" s="10" t="n"/>
-      <c r="AF5" s="10" t="n"/>
-      <c r="AG5" s="10" t="n"/>
-      <c r="AH5" s="10" t="n"/>
-      <c r="AI5" s="10" t="n"/>
-      <c r="AJ5" s="10" t="n"/>
-      <c r="AK5" s="11" t="n"/>
-      <c r="AL5" s="9" t="n"/>
-      <c r="AM5" s="10" t="n"/>
-      <c r="AN5" s="10" t="n"/>
-      <c r="AO5" s="10" t="n"/>
-      <c r="AP5" s="10" t="n"/>
-      <c r="AQ5" s="10" t="n"/>
-      <c r="AR5" s="10" t="n"/>
-      <c r="AS5" s="10" t="n"/>
-      <c r="AT5" s="10" t="n"/>
-      <c r="AU5" s="10" t="n"/>
-      <c r="AV5" s="10" t="n"/>
-      <c r="AW5" s="11" t="n"/>
-      <c r="AX5" s="9" t="n"/>
-      <c r="AY5" s="10" t="n"/>
-      <c r="AZ5" s="10" t="n"/>
-      <c r="BA5" s="10" t="n"/>
-      <c r="BB5" s="10" t="n"/>
-      <c r="BC5" s="10" t="n"/>
-      <c r="BD5" s="10" t="n"/>
-      <c r="BE5" s="10" t="n"/>
-      <c r="BF5" s="10" t="n"/>
-      <c r="BG5" s="10" t="n"/>
-      <c r="BH5" s="10" t="n"/>
-      <c r="BI5" s="11" t="n"/>
-      <c r="BJ5" s="9" t="n"/>
-      <c r="BK5" s="10" t="n"/>
-      <c r="BL5" s="10" t="n"/>
-      <c r="BM5" s="10" t="n"/>
-      <c r="BN5" s="10" t="n"/>
-      <c r="BO5" s="10" t="n"/>
-      <c r="BP5" s="10" t="n"/>
-      <c r="BQ5" s="10" t="n"/>
-      <c r="BR5" s="10" t="n"/>
-      <c r="BS5" s="10" t="n"/>
-      <c r="BT5" s="10" t="n"/>
-      <c r="BU5" s="11" t="n"/>
-      <c r="BV5" s="9" t="n"/>
-      <c r="BW5" s="10" t="n"/>
-      <c r="BX5" s="10" t="n"/>
-      <c r="BY5" s="10" t="n"/>
-      <c r="BZ5" s="10" t="n"/>
-      <c r="CA5" s="10" t="n"/>
-      <c r="CB5" s="10" t="n"/>
-      <c r="CC5" s="10" t="n"/>
-      <c r="CD5" s="10" t="n"/>
-      <c r="CE5" s="10" t="n"/>
-      <c r="CF5" s="10" t="n"/>
-      <c r="CG5" s="11" t="n"/>
-      <c r="CH5" s="9" t="n"/>
-      <c r="CI5" s="10" t="n"/>
-      <c r="CJ5" s="10" t="n"/>
-      <c r="CK5" s="10" t="n"/>
-      <c r="CL5" s="10" t="n"/>
-      <c r="CM5" s="10" t="n"/>
-      <c r="CN5" s="10" t="n"/>
-      <c r="CO5" s="10" t="n"/>
-      <c r="CP5" s="10" t="n"/>
-      <c r="CQ5" s="10" t="n"/>
-      <c r="CR5" s="10" t="n"/>
-      <c r="CS5" s="11" t="n"/>
-      <c r="CT5" s="9" t="n"/>
-      <c r="CU5" s="10" t="n"/>
-      <c r="CV5" s="10" t="n"/>
-      <c r="CW5" s="10" t="n"/>
-      <c r="CX5" s="10" t="n"/>
-      <c r="CY5" s="10" t="n"/>
-      <c r="CZ5" s="10" t="n"/>
-      <c r="DA5" s="10" t="n"/>
-      <c r="DB5" s="10" t="n"/>
-      <c r="DC5" s="10" t="n"/>
-      <c r="DD5" s="10" t="n"/>
-      <c r="DE5" s="11" t="n"/>
-      <c r="DF5" s="9" t="n"/>
-      <c r="DG5" s="10" t="n"/>
-      <c r="DH5" s="80" t="n"/>
-      <c r="DI5" s="80" t="n"/>
-      <c r="DJ5" s="80" t="n"/>
-      <c r="DK5" s="80" t="n"/>
-      <c r="DL5" s="80" t="n"/>
-      <c r="DM5" s="80" t="n"/>
-      <c r="DN5" s="80" t="n"/>
-      <c r="DO5" s="80" t="n"/>
-      <c r="DP5" s="80" t="n"/>
-      <c r="DQ5" s="81" t="n"/>
-      <c r="DR5" s="9" t="n"/>
-      <c r="DS5" s="10" t="n"/>
-      <c r="DT5" s="10" t="n"/>
-      <c r="DU5" s="10" t="n"/>
-      <c r="DV5" s="10" t="n"/>
-      <c r="DW5" s="10" t="n"/>
-      <c r="DX5" s="10" t="n"/>
-      <c r="DY5" s="10" t="n"/>
-      <c r="DZ5" s="10" t="n"/>
-      <c r="EA5" s="10" t="n"/>
-      <c r="EB5" s="10" t="n"/>
-      <c r="EC5" s="11" t="n"/>
-      <c r="ED5" s="9" t="n"/>
-      <c r="EE5" s="10" t="n"/>
-      <c r="EF5" s="10" t="n"/>
-      <c r="EG5" s="10" t="n"/>
-      <c r="EH5" s="10" t="n"/>
-      <c r="EI5" s="10" t="n"/>
-      <c r="EJ5" s="10" t="n"/>
-      <c r="EK5" s="10" t="n"/>
-      <c r="EL5" s="10" t="n"/>
-      <c r="EM5" s="10" t="n"/>
-      <c r="EN5" s="10" t="n"/>
-      <c r="EO5" s="11" t="n"/>
-      <c r="EP5" s="9" t="n"/>
-      <c r="EQ5" s="10" t="n"/>
-      <c r="ER5" s="10" t="n"/>
-      <c r="ES5" s="10" t="n"/>
-      <c r="ET5" s="10" t="n"/>
-      <c r="EU5" s="10" t="n"/>
-      <c r="EV5" s="10" t="n"/>
-      <c r="EW5" s="10" t="n"/>
-      <c r="EX5" s="10" t="n"/>
-      <c r="EY5" s="10" t="n"/>
-      <c r="EZ5" s="10" t="n"/>
-      <c r="FA5" s="11" t="n"/>
-      <c r="FB5" s="9" t="n"/>
-      <c r="FC5" s="10" t="n"/>
-      <c r="FD5" s="10" t="n"/>
-      <c r="FE5" s="10" t="n"/>
-      <c r="FF5" s="10" t="n"/>
-      <c r="FG5" s="10" t="n"/>
-      <c r="FH5" s="10" t="n"/>
-      <c r="FI5" s="10" t="n"/>
-      <c r="FJ5" s="10" t="n"/>
-      <c r="FK5" s="10" t="n"/>
-      <c r="FL5" s="10" t="n"/>
-      <c r="FM5" s="11" t="n"/>
-      <c r="FN5" s="9" t="n"/>
-      <c r="FO5" s="10" t="n"/>
-      <c r="FP5" s="10" t="n"/>
-      <c r="FQ5" s="10" t="n"/>
-      <c r="FR5" s="10" t="n"/>
-      <c r="FS5" s="10" t="n"/>
-      <c r="FT5" s="10" t="n"/>
-      <c r="FU5" s="10" t="n"/>
-      <c r="FV5" s="10" t="n"/>
-      <c r="FW5" s="10" t="n"/>
-      <c r="FX5" s="10" t="n"/>
-      <c r="FY5" s="11" t="n"/>
-      <c r="FZ5" s="9" t="n"/>
-      <c r="GA5" s="10" t="n"/>
-      <c r="GB5" s="10" t="n"/>
-      <c r="GC5" s="10" t="n"/>
-      <c r="GD5" s="10" t="n"/>
-      <c r="GE5" s="10" t="n"/>
-      <c r="GF5" s="10" t="n"/>
-      <c r="GG5" s="10" t="n"/>
-      <c r="GH5" s="10" t="n"/>
-      <c r="GI5" s="10" t="n"/>
-      <c r="GJ5" s="10" t="n"/>
-      <c r="GK5" s="11" t="n"/>
-      <c r="GL5" s="14" t="n"/>
-      <c r="GM5" s="14" t="n"/>
-      <c r="GN5" s="14" t="n"/>
-      <c r="GO5" s="14" t="n"/>
-      <c r="GP5" s="14" t="n"/>
+      <c r="B5" s="97" t="n"/>
+      <c r="C5" s="98" t="n"/>
+      <c r="D5" s="98" t="n"/>
+      <c r="E5" s="98" t="n"/>
+      <c r="F5" s="98" t="n"/>
+      <c r="G5" s="98" t="n"/>
+      <c r="H5" s="98" t="n"/>
+      <c r="I5" s="98" t="n"/>
+      <c r="J5" s="98" t="n"/>
+      <c r="K5" s="98" t="n"/>
+      <c r="L5" s="98" t="n"/>
+      <c r="M5" s="99" t="n"/>
+      <c r="N5" s="97" t="n"/>
+      <c r="O5" s="98" t="n"/>
+      <c r="P5" s="98" t="n"/>
+      <c r="Q5" s="98" t="n"/>
+      <c r="R5" s="98" t="n"/>
+      <c r="S5" s="98" t="n"/>
+      <c r="T5" s="98" t="n"/>
+      <c r="U5" s="98" t="n"/>
+      <c r="V5" s="98" t="n"/>
+      <c r="W5" s="98" t="n"/>
+      <c r="X5" s="98" t="n"/>
+      <c r="Y5" s="99" t="n"/>
+      <c r="Z5" s="97" t="n"/>
+      <c r="AA5" s="98" t="n"/>
+      <c r="AB5" s="98" t="n"/>
+      <c r="AC5" s="98" t="n"/>
+      <c r="AD5" s="98" t="n"/>
+      <c r="AE5" s="98" t="n"/>
+      <c r="AF5" s="98" t="n"/>
+      <c r="AG5" s="98" t="n"/>
+      <c r="AH5" s="98" t="n"/>
+      <c r="AI5" s="98" t="n"/>
+      <c r="AJ5" s="98" t="n"/>
+      <c r="AK5" s="99" t="n"/>
+      <c r="AL5" s="97" t="n"/>
+      <c r="AM5" s="98" t="n"/>
+      <c r="AN5" s="98" t="n"/>
+      <c r="AO5" s="98" t="n"/>
+      <c r="AP5" s="98" t="n"/>
+      <c r="AQ5" s="98" t="n"/>
+      <c r="AR5" s="98" t="n"/>
+      <c r="AS5" s="98" t="n"/>
+      <c r="AT5" s="98" t="n"/>
+      <c r="AU5" s="98" t="n"/>
+      <c r="AV5" s="98" t="n"/>
+      <c r="AW5" s="99" t="n"/>
+      <c r="AX5" s="97" t="n"/>
+      <c r="AY5" s="98" t="n"/>
+      <c r="AZ5" s="98" t="n"/>
+      <c r="BA5" s="98" t="n"/>
+      <c r="BB5" s="98" t="n"/>
+      <c r="BC5" s="98" t="n"/>
+      <c r="BD5" s="98" t="n"/>
+      <c r="BE5" s="98" t="n"/>
+      <c r="BF5" s="98" t="n"/>
+      <c r="BG5" s="98" t="n"/>
+      <c r="BH5" s="98" t="n"/>
+      <c r="BI5" s="99" t="n"/>
+      <c r="BJ5" s="97" t="n"/>
+      <c r="BK5" s="98" t="n"/>
+      <c r="BL5" s="98" t="n"/>
+      <c r="BM5" s="98" t="n"/>
+      <c r="BN5" s="98" t="n"/>
+      <c r="BO5" s="98" t="n"/>
+      <c r="BP5" s="98" t="n"/>
+      <c r="BQ5" s="98" t="n"/>
+      <c r="BR5" s="98" t="n"/>
+      <c r="BS5" s="98" t="n"/>
+      <c r="BT5" s="98" t="n"/>
+      <c r="BU5" s="99" t="n"/>
+      <c r="BV5" s="82" t="n"/>
+      <c r="BW5" s="80" t="n"/>
+      <c r="BX5" s="80" t="n"/>
+      <c r="BY5" s="80" t="n"/>
+      <c r="BZ5" s="80" t="n"/>
+      <c r="CA5" s="80" t="n"/>
+      <c r="CB5" s="80" t="n"/>
+      <c r="CC5" s="80" t="n"/>
+      <c r="CD5" s="80" t="n"/>
+      <c r="CE5" s="80" t="n"/>
+      <c r="CF5" s="80" t="n"/>
+      <c r="CG5" s="81" t="n"/>
+      <c r="CH5" s="97" t="n"/>
+      <c r="CI5" s="98" t="n"/>
+      <c r="CJ5" s="98" t="n"/>
+      <c r="CK5" s="98" t="n"/>
+      <c r="CL5" s="98" t="n"/>
+      <c r="CM5" s="98" t="n"/>
+      <c r="CN5" s="98" t="n"/>
+      <c r="CO5" s="98" t="n"/>
+      <c r="CP5" s="98" t="n"/>
+      <c r="CQ5" s="98" t="n"/>
+      <c r="CR5" s="98" t="n"/>
+      <c r="CS5" s="99" t="n"/>
+      <c r="CT5" s="97" t="n"/>
+      <c r="CU5" s="98" t="n"/>
+      <c r="CV5" s="98" t="n"/>
+      <c r="CW5" s="98" t="n"/>
+      <c r="CX5" s="98" t="n"/>
+      <c r="CY5" s="98" t="n"/>
+      <c r="CZ5" s="98" t="n"/>
+      <c r="DA5" s="98" t="n"/>
+      <c r="DB5" s="98" t="n"/>
+      <c r="DC5" s="98" t="n"/>
+      <c r="DD5" s="98" t="n"/>
+      <c r="DE5" s="99" t="n"/>
+      <c r="DF5" s="97" t="n"/>
+      <c r="DG5" s="98" t="n"/>
+      <c r="DH5" s="98" t="n"/>
+      <c r="DI5" s="98" t="n"/>
+      <c r="DJ5" s="98" t="n"/>
+      <c r="DK5" s="98" t="n"/>
+      <c r="DL5" s="98" t="n"/>
+      <c r="DM5" s="98" t="n"/>
+      <c r="DN5" s="98" t="n"/>
+      <c r="DO5" s="98" t="n"/>
+      <c r="DP5" s="98" t="n"/>
+      <c r="DQ5" s="99" t="n"/>
+      <c r="DR5" s="97" t="n"/>
+      <c r="DS5" s="98" t="n"/>
+      <c r="DT5" s="98" t="n"/>
+      <c r="DU5" s="98" t="n"/>
+      <c r="DV5" s="98" t="n"/>
+      <c r="DW5" s="98" t="n"/>
+      <c r="DX5" s="98" t="n"/>
+      <c r="DY5" s="98" t="n"/>
+      <c r="DZ5" s="98" t="n"/>
+      <c r="EA5" s="98" t="n"/>
+      <c r="EB5" s="98" t="n"/>
+      <c r="EC5" s="99" t="n"/>
+      <c r="ED5" s="97" t="n"/>
+      <c r="EE5" s="98" t="n"/>
+      <c r="EF5" s="98" t="n"/>
+      <c r="EG5" s="98" t="n"/>
+      <c r="EH5" s="98" t="n"/>
+      <c r="EI5" s="98" t="n"/>
+      <c r="EJ5" s="98" t="n"/>
+      <c r="EK5" s="98" t="n"/>
+      <c r="EL5" s="98" t="n"/>
+      <c r="EM5" s="98" t="n"/>
+      <c r="EN5" s="98" t="n"/>
+      <c r="EO5" s="99" t="n"/>
+      <c r="EP5" s="97" t="n"/>
+      <c r="EQ5" s="98" t="n"/>
+      <c r="ER5" s="98" t="n"/>
+      <c r="ES5" s="98" t="n"/>
+      <c r="ET5" s="98" t="n"/>
+      <c r="EU5" s="98" t="n"/>
+      <c r="EV5" s="98" t="n"/>
+      <c r="EW5" s="98" t="n"/>
+      <c r="EX5" s="98" t="n"/>
+      <c r="EY5" s="98" t="n"/>
+      <c r="EZ5" s="98" t="n"/>
+      <c r="FA5" s="99" t="n"/>
+      <c r="FB5" s="97" t="n"/>
+      <c r="FC5" s="98" t="n"/>
+      <c r="FD5" s="98" t="n"/>
+      <c r="FE5" s="98" t="n"/>
+      <c r="FF5" s="98" t="n"/>
+      <c r="FG5" s="98" t="n"/>
+      <c r="FH5" s="98" t="n"/>
+      <c r="FI5" s="98" t="n"/>
+      <c r="FJ5" s="98" t="n"/>
+      <c r="FK5" s="98" t="n"/>
+      <c r="FL5" s="98" t="n"/>
+      <c r="FM5" s="99" t="n"/>
+      <c r="FN5" s="97" t="n"/>
+      <c r="FO5" s="98" t="n"/>
+      <c r="FP5" s="98" t="n"/>
+      <c r="FQ5" s="98" t="n"/>
+      <c r="FR5" s="98" t="n"/>
+      <c r="FS5" s="98" t="n"/>
+      <c r="FT5" s="98" t="n"/>
+      <c r="FU5" s="98" t="n"/>
+      <c r="FV5" s="98" t="n"/>
+      <c r="FW5" s="98" t="n"/>
+      <c r="FX5" s="98" t="n"/>
+      <c r="FY5" s="99" t="n"/>
+      <c r="FZ5" s="97" t="n"/>
+      <c r="GA5" s="98" t="n"/>
+      <c r="GB5" s="98" t="n"/>
+      <c r="GC5" s="98" t="n"/>
+      <c r="GD5" s="98" t="n"/>
+      <c r="GE5" s="98" t="n"/>
+      <c r="GF5" s="98" t="n"/>
+      <c r="GG5" s="98" t="n"/>
+      <c r="GH5" s="98" t="n"/>
+      <c r="GI5" s="98" t="n"/>
+      <c r="GJ5" s="98" t="n"/>
+      <c r="GK5" s="99" t="n"/>
+      <c r="GL5" s="100" t="n"/>
+      <c r="GM5" s="100" t="n"/>
+      <c r="GN5" s="100" t="n"/>
+      <c r="GO5" s="100" t="n"/>
+      <c r="GP5" s="100" t="n"/>
+      <c r="GQ5" s="100" t="n"/>
+      <c r="GR5" s="100" t="n"/>
+      <c r="GS5" s="100" t="n"/>
+      <c r="GT5" s="100" t="n"/>
+      <c r="GU5" s="100" t="n"/>
+      <c r="GV5" s="100" t="n"/>
+      <c r="GW5" s="100" t="n"/>
     </row>
     <row r="6" ht="50.25" customHeight="1" s="55">
       <c r="A6" s="7" t="inlineStr">
@@ -2131,203 +2187,210 @@
           <t>WED</t>
         </is>
       </c>
-      <c r="B6" s="20" t="n"/>
-      <c r="C6" s="18" t="n"/>
-      <c r="D6" s="18" t="n"/>
-      <c r="E6" s="18" t="n"/>
-      <c r="F6" s="18" t="n"/>
-      <c r="G6" s="18" t="n"/>
-      <c r="H6" s="18" t="n"/>
-      <c r="I6" s="18" t="n"/>
-      <c r="J6" s="18" t="n"/>
-      <c r="K6" s="18" t="n"/>
-      <c r="L6" s="18" t="n"/>
-      <c r="M6" s="19" t="n"/>
-      <c r="N6" s="20" t="n"/>
-      <c r="O6" s="18" t="n"/>
-      <c r="P6" s="18" t="n"/>
-      <c r="Q6" s="18" t="n"/>
-      <c r="R6" s="18" t="n"/>
-      <c r="S6" s="18" t="n"/>
-      <c r="T6" s="18" t="n"/>
-      <c r="U6" s="18" t="n"/>
-      <c r="V6" s="18" t="n"/>
-      <c r="W6" s="18" t="n"/>
-      <c r="X6" s="18" t="n"/>
-      <c r="Y6" s="19" t="n"/>
-      <c r="Z6" s="20" t="n"/>
-      <c r="AA6" s="18" t="n"/>
-      <c r="AB6" s="18" t="n"/>
-      <c r="AC6" s="18" t="n"/>
-      <c r="AD6" s="18" t="n"/>
-      <c r="AE6" s="18" t="n"/>
-      <c r="AF6" s="18" t="n"/>
-      <c r="AG6" s="18" t="n"/>
-      <c r="AH6" s="18" t="n"/>
-      <c r="AI6" s="18" t="n"/>
-      <c r="AJ6" s="80" t="n"/>
-      <c r="AK6" s="81" t="n"/>
-      <c r="AL6" s="82" t="n"/>
-      <c r="AM6" s="80" t="n"/>
-      <c r="AN6" s="80" t="n"/>
-      <c r="AO6" s="80" t="n"/>
-      <c r="AP6" s="80" t="n"/>
-      <c r="AQ6" s="80" t="n"/>
-      <c r="AR6" s="80" t="n"/>
-      <c r="AS6" s="80" t="n"/>
-      <c r="AT6" s="18" t="n"/>
-      <c r="AU6" s="18" t="n"/>
-      <c r="AV6" s="18" t="n"/>
-      <c r="AW6" s="81" t="n"/>
-      <c r="AX6" s="82" t="n"/>
-      <c r="AY6" s="80" t="n"/>
-      <c r="AZ6" s="80" t="n"/>
-      <c r="BA6" s="80" t="n"/>
-      <c r="BB6" s="80" t="n"/>
-      <c r="BC6" s="80" t="n"/>
-      <c r="BD6" s="80" t="n"/>
-      <c r="BE6" s="80" t="n"/>
-      <c r="BF6" s="80" t="n"/>
-      <c r="BG6" s="18" t="n"/>
-      <c r="BH6" s="18" t="n"/>
-      <c r="BI6" s="19" t="n"/>
-      <c r="BJ6" s="82" t="n"/>
-      <c r="BK6" s="80" t="n"/>
-      <c r="BL6" s="80" t="n"/>
-      <c r="BM6" s="80" t="n"/>
-      <c r="BN6" s="80" t="n"/>
-      <c r="BO6" s="80" t="n"/>
-      <c r="BP6" s="80" t="n"/>
-      <c r="BQ6" s="80" t="n"/>
-      <c r="BR6" s="80" t="n"/>
-      <c r="BS6" s="80" t="n"/>
-      <c r="BT6" s="18" t="n"/>
-      <c r="BU6" s="19" t="n"/>
-      <c r="BV6" s="20" t="n"/>
-      <c r="BW6" s="18" t="n"/>
-      <c r="BX6" s="18" t="n"/>
-      <c r="BY6" s="18" t="n"/>
-      <c r="BZ6" s="18" t="n"/>
-      <c r="CA6" s="18" t="n"/>
-      <c r="CB6" s="18" t="n"/>
-      <c r="CC6" s="18" t="n"/>
-      <c r="CD6" s="18" t="n"/>
-      <c r="CE6" s="18" t="n"/>
-      <c r="CF6" s="18" t="n"/>
-      <c r="CG6" s="19" t="n"/>
-      <c r="CH6" s="20" t="n"/>
-      <c r="CI6" s="18" t="n"/>
-      <c r="CJ6" s="18" t="n"/>
-      <c r="CK6" s="18" t="n"/>
-      <c r="CL6" s="18" t="n"/>
-      <c r="CM6" s="18" t="n"/>
-      <c r="CN6" s="18" t="n"/>
-      <c r="CO6" s="18" t="n"/>
-      <c r="CP6" s="18" t="n"/>
-      <c r="CQ6" s="18" t="n"/>
-      <c r="CR6" s="18" t="n"/>
-      <c r="CS6" s="19" t="n"/>
-      <c r="CT6" s="20" t="n"/>
-      <c r="CU6" s="18" t="n"/>
-      <c r="CV6" s="18" t="n"/>
-      <c r="CW6" s="18" t="n"/>
-      <c r="CX6" s="18" t="n"/>
-      <c r="CY6" s="18" t="n"/>
-      <c r="CZ6" s="18" t="n"/>
-      <c r="DA6" s="18" t="n"/>
-      <c r="DB6" s="18" t="n"/>
-      <c r="DC6" s="18" t="n"/>
-      <c r="DD6" s="18" t="n"/>
-      <c r="DE6" s="19" t="n"/>
-      <c r="DF6" s="20" t="n"/>
-      <c r="DG6" s="18" t="n"/>
-      <c r="DH6" s="18" t="n"/>
-      <c r="DI6" s="18" t="n"/>
-      <c r="DJ6" s="80" t="n"/>
-      <c r="DK6" s="80" t="n"/>
-      <c r="DL6" s="80" t="n"/>
-      <c r="DM6" s="80" t="n"/>
-      <c r="DN6" s="80" t="n"/>
-      <c r="DO6" s="80" t="n"/>
-      <c r="DP6" s="80" t="n"/>
-      <c r="DQ6" s="81" t="n"/>
-      <c r="DR6" s="82" t="n"/>
-      <c r="DS6" s="80" t="n"/>
-      <c r="DT6" s="18" t="n"/>
-      <c r="DU6" s="18" t="n"/>
-      <c r="DV6" s="18" t="n"/>
-      <c r="DW6" s="18" t="n"/>
-      <c r="DX6" s="18" t="n"/>
-      <c r="DY6" s="18" t="n"/>
-      <c r="DZ6" s="18" t="n"/>
-      <c r="EA6" s="18" t="n"/>
-      <c r="EB6" s="18" t="n"/>
-      <c r="EC6" s="19" t="n"/>
-      <c r="ED6" s="20" t="n"/>
-      <c r="EE6" s="18" t="n"/>
-      <c r="EF6" s="18" t="n"/>
-      <c r="EG6" s="18" t="n"/>
-      <c r="EH6" s="18" t="n"/>
-      <c r="EI6" s="18" t="n"/>
-      <c r="EJ6" s="18" t="n"/>
-      <c r="EK6" s="18" t="n"/>
-      <c r="EL6" s="18" t="n"/>
-      <c r="EM6" s="18" t="n"/>
-      <c r="EN6" s="18" t="n"/>
-      <c r="EO6" s="19" t="n"/>
-      <c r="EP6" s="20" t="n"/>
-      <c r="EQ6" s="18" t="n"/>
-      <c r="ER6" s="18" t="n"/>
-      <c r="ES6" s="18" t="n"/>
-      <c r="ET6" s="18" t="n"/>
-      <c r="EU6" s="18" t="n"/>
-      <c r="EV6" s="18" t="n"/>
-      <c r="EW6" s="18" t="n"/>
-      <c r="EX6" s="18" t="n"/>
-      <c r="EY6" s="18" t="n"/>
-      <c r="EZ6" s="18" t="n"/>
-      <c r="FA6" s="19" t="n"/>
-      <c r="FB6" s="20" t="n"/>
-      <c r="FC6" s="18" t="n"/>
-      <c r="FD6" s="18" t="n"/>
-      <c r="FE6" s="18" t="n"/>
-      <c r="FF6" s="18" t="n"/>
-      <c r="FG6" s="18" t="n"/>
-      <c r="FH6" s="18" t="n"/>
-      <c r="FI6" s="18" t="n"/>
-      <c r="FJ6" s="18" t="n"/>
-      <c r="FK6" s="18" t="n"/>
-      <c r="FL6" s="18" t="n"/>
-      <c r="FM6" s="19" t="n"/>
-      <c r="FN6" s="20" t="n"/>
-      <c r="FO6" s="18" t="n"/>
-      <c r="FP6" s="18" t="n"/>
-      <c r="FQ6" s="18" t="n"/>
-      <c r="FR6" s="18" t="n"/>
-      <c r="FS6" s="18" t="n"/>
-      <c r="FT6" s="18" t="n"/>
-      <c r="FU6" s="18" t="n"/>
-      <c r="FV6" s="18" t="n"/>
-      <c r="FW6" s="18" t="n"/>
-      <c r="FX6" s="18" t="n"/>
-      <c r="FY6" s="19" t="n"/>
-      <c r="FZ6" s="20" t="n"/>
-      <c r="GA6" s="18" t="n"/>
-      <c r="GB6" s="18" t="n"/>
-      <c r="GC6" s="18" t="n"/>
-      <c r="GD6" s="18" t="n"/>
-      <c r="GE6" s="18" t="n"/>
-      <c r="GF6" s="18" t="n"/>
-      <c r="GG6" s="18" t="n"/>
-      <c r="GH6" s="18" t="n"/>
-      <c r="GI6" s="18" t="n"/>
-      <c r="GJ6" s="18" t="n"/>
-      <c r="GK6" s="19" t="n"/>
-      <c r="GL6" s="14" t="n"/>
-      <c r="GM6" s="14" t="n"/>
-      <c r="GN6" s="14" t="n"/>
-      <c r="GO6" s="14" t="n"/>
-      <c r="GP6" s="14" t="n"/>
+      <c r="B6" s="93" t="n"/>
+      <c r="C6" s="94" t="n"/>
+      <c r="D6" s="94" t="n"/>
+      <c r="E6" s="94" t="n"/>
+      <c r="F6" s="94" t="n"/>
+      <c r="G6" s="94" t="n"/>
+      <c r="H6" s="94" t="n"/>
+      <c r="I6" s="94" t="n"/>
+      <c r="J6" s="94" t="n"/>
+      <c r="K6" s="94" t="n"/>
+      <c r="L6" s="94" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="93" t="n"/>
+      <c r="O6" s="94" t="n"/>
+      <c r="P6" s="94" t="n"/>
+      <c r="Q6" s="94" t="n"/>
+      <c r="R6" s="94" t="n"/>
+      <c r="S6" s="94" t="n"/>
+      <c r="T6" s="94" t="n"/>
+      <c r="U6" s="94" t="n"/>
+      <c r="V6" s="94" t="n"/>
+      <c r="W6" s="94" t="n"/>
+      <c r="X6" s="94" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="93" t="n"/>
+      <c r="AA6" s="94" t="n"/>
+      <c r="AB6" s="94" t="n"/>
+      <c r="AC6" s="94" t="n"/>
+      <c r="AD6" s="94" t="n"/>
+      <c r="AE6" s="94" t="n"/>
+      <c r="AF6" s="94" t="n"/>
+      <c r="AG6" s="94" t="n"/>
+      <c r="AH6" s="94" t="n"/>
+      <c r="AI6" s="94" t="n"/>
+      <c r="AJ6" s="94" t="n"/>
+      <c r="AK6" s="95" t="n"/>
+      <c r="AL6" s="93" t="n"/>
+      <c r="AM6" s="94" t="n"/>
+      <c r="AN6" s="94" t="n"/>
+      <c r="AO6" s="94" t="n"/>
+      <c r="AP6" s="94" t="n"/>
+      <c r="AQ6" s="94" t="n"/>
+      <c r="AR6" s="94" t="n"/>
+      <c r="AS6" s="94" t="n"/>
+      <c r="AT6" s="94" t="n"/>
+      <c r="AU6" s="94" t="n"/>
+      <c r="AV6" s="94" t="n"/>
+      <c r="AW6" s="95" t="n"/>
+      <c r="AX6" s="93" t="n"/>
+      <c r="AY6" s="94" t="n"/>
+      <c r="AZ6" s="94" t="n"/>
+      <c r="BA6" s="94" t="n"/>
+      <c r="BB6" s="94" t="n"/>
+      <c r="BC6" s="94" t="n"/>
+      <c r="BD6" s="94" t="n"/>
+      <c r="BE6" s="94" t="n"/>
+      <c r="BF6" s="94" t="n"/>
+      <c r="BG6" s="94" t="n"/>
+      <c r="BH6" s="94" t="n"/>
+      <c r="BI6" s="95" t="n"/>
+      <c r="BJ6" s="93" t="n"/>
+      <c r="BK6" s="94" t="n"/>
+      <c r="BL6" s="94" t="n"/>
+      <c r="BM6" s="94" t="n"/>
+      <c r="BN6" s="94" t="n"/>
+      <c r="BO6" s="94" t="n"/>
+      <c r="BP6" s="94" t="n"/>
+      <c r="BQ6" s="94" t="n"/>
+      <c r="BR6" s="94" t="n"/>
+      <c r="BS6" s="94" t="n"/>
+      <c r="BT6" s="94" t="n"/>
+      <c r="BU6" s="95" t="n"/>
+      <c r="BV6" s="93" t="n"/>
+      <c r="BW6" s="94" t="n"/>
+      <c r="BX6" s="94" t="n"/>
+      <c r="BY6" s="94" t="n"/>
+      <c r="BZ6" s="94" t="n"/>
+      <c r="CA6" s="94" t="n"/>
+      <c r="CB6" s="94" t="n"/>
+      <c r="CC6" s="94" t="n"/>
+      <c r="CD6" s="94" t="n"/>
+      <c r="CE6" s="94" t="n"/>
+      <c r="CF6" s="94" t="n"/>
+      <c r="CG6" s="95" t="n"/>
+      <c r="CH6" s="93" t="n"/>
+      <c r="CI6" s="94" t="n"/>
+      <c r="CJ6" s="94" t="n"/>
+      <c r="CK6" s="94" t="n"/>
+      <c r="CL6" s="94" t="n"/>
+      <c r="CM6" s="94" t="n"/>
+      <c r="CN6" s="94" t="n"/>
+      <c r="CO6" s="94" t="n"/>
+      <c r="CP6" s="94" t="n"/>
+      <c r="CQ6" s="94" t="n"/>
+      <c r="CR6" s="94" t="n"/>
+      <c r="CS6" s="95" t="n"/>
+      <c r="CT6" s="93" t="n"/>
+      <c r="CU6" s="94" t="n"/>
+      <c r="CV6" s="94" t="n"/>
+      <c r="CW6" s="94" t="n"/>
+      <c r="CX6" s="94" t="n"/>
+      <c r="CY6" s="94" t="n"/>
+      <c r="CZ6" s="94" t="n"/>
+      <c r="DA6" s="94" t="n"/>
+      <c r="DB6" s="94" t="n"/>
+      <c r="DC6" s="94" t="n"/>
+      <c r="DD6" s="94" t="n"/>
+      <c r="DE6" s="95" t="n"/>
+      <c r="DF6" s="93" t="n"/>
+      <c r="DG6" s="94" t="n"/>
+      <c r="DH6" s="94" t="n"/>
+      <c r="DI6" s="94" t="n"/>
+      <c r="DJ6" s="94" t="n"/>
+      <c r="DK6" s="94" t="n"/>
+      <c r="DL6" s="94" t="n"/>
+      <c r="DM6" s="94" t="n"/>
+      <c r="DN6" s="94" t="n"/>
+      <c r="DO6" s="94" t="n"/>
+      <c r="DP6" s="94" t="n"/>
+      <c r="DQ6" s="95" t="n"/>
+      <c r="DR6" s="93" t="n"/>
+      <c r="DS6" s="94" t="n"/>
+      <c r="DT6" s="94" t="n"/>
+      <c r="DU6" s="94" t="n"/>
+      <c r="DV6" s="94" t="n"/>
+      <c r="DW6" s="94" t="n"/>
+      <c r="DX6" s="94" t="n"/>
+      <c r="DY6" s="94" t="n"/>
+      <c r="DZ6" s="94" t="n"/>
+      <c r="EA6" s="94" t="n"/>
+      <c r="EB6" s="94" t="n"/>
+      <c r="EC6" s="95" t="n"/>
+      <c r="ED6" s="93" t="n"/>
+      <c r="EE6" s="94" t="n"/>
+      <c r="EF6" s="94" t="n"/>
+      <c r="EG6" s="94" t="n"/>
+      <c r="EH6" s="94" t="n"/>
+      <c r="EI6" s="94" t="n"/>
+      <c r="EJ6" s="94" t="n"/>
+      <c r="EK6" s="94" t="n"/>
+      <c r="EL6" s="94" t="n"/>
+      <c r="EM6" s="94" t="n"/>
+      <c r="EN6" s="94" t="n"/>
+      <c r="EO6" s="95" t="n"/>
+      <c r="EP6" s="93" t="n"/>
+      <c r="EQ6" s="94" t="n"/>
+      <c r="ER6" s="94" t="n"/>
+      <c r="ES6" s="94" t="n"/>
+      <c r="ET6" s="94" t="n"/>
+      <c r="EU6" s="94" t="n"/>
+      <c r="EV6" s="94" t="n"/>
+      <c r="EW6" s="94" t="n"/>
+      <c r="EX6" s="94" t="n"/>
+      <c r="EY6" s="94" t="n"/>
+      <c r="EZ6" s="94" t="n"/>
+      <c r="FA6" s="95" t="n"/>
+      <c r="FB6" s="93" t="n"/>
+      <c r="FC6" s="94" t="n"/>
+      <c r="FD6" s="94" t="n"/>
+      <c r="FE6" s="94" t="n"/>
+      <c r="FF6" s="94" t="n"/>
+      <c r="FG6" s="94" t="n"/>
+      <c r="FH6" s="94" t="n"/>
+      <c r="FI6" s="94" t="n"/>
+      <c r="FJ6" s="94" t="n"/>
+      <c r="FK6" s="94" t="n"/>
+      <c r="FL6" s="94" t="n"/>
+      <c r="FM6" s="95" t="n"/>
+      <c r="FN6" s="93" t="n"/>
+      <c r="FO6" s="94" t="n"/>
+      <c r="FP6" s="94" t="n"/>
+      <c r="FQ6" s="94" t="n"/>
+      <c r="FR6" s="94" t="n"/>
+      <c r="FS6" s="94" t="n"/>
+      <c r="FT6" s="94" t="n"/>
+      <c r="FU6" s="94" t="n"/>
+      <c r="FV6" s="94" t="n"/>
+      <c r="FW6" s="94" t="n"/>
+      <c r="FX6" s="94" t="n"/>
+      <c r="FY6" s="95" t="n"/>
+      <c r="FZ6" s="93" t="n"/>
+      <c r="GA6" s="94" t="n"/>
+      <c r="GB6" s="94" t="n"/>
+      <c r="GC6" s="94" t="n"/>
+      <c r="GD6" s="94" t="n"/>
+      <c r="GE6" s="94" t="n"/>
+      <c r="GF6" s="94" t="n"/>
+      <c r="GG6" s="94" t="n"/>
+      <c r="GH6" s="94" t="n"/>
+      <c r="GI6" s="94" t="n"/>
+      <c r="GJ6" s="94" t="n"/>
+      <c r="GK6" s="95" t="n"/>
+      <c r="GL6" s="96" t="n"/>
+      <c r="GM6" s="96" t="n"/>
+      <c r="GN6" s="96" t="n"/>
+      <c r="GO6" s="96" t="n"/>
+      <c r="GP6" s="96" t="n"/>
+      <c r="GQ6" s="96" t="n"/>
+      <c r="GR6" s="96" t="n"/>
+      <c r="GS6" s="96" t="n"/>
+      <c r="GT6" s="96" t="n"/>
+      <c r="GU6" s="96" t="n"/>
+      <c r="GV6" s="96" t="n"/>
+      <c r="GW6" s="96" t="n"/>
     </row>
     <row r="7" ht="50.25" customFormat="1" customHeight="1" s="1">
       <c r="A7" s="8" t="inlineStr">
@@ -2335,203 +2398,210 @@
           <t>THUR</t>
         </is>
       </c>
-      <c r="B7" s="9" t="n"/>
-      <c r="C7" s="10" t="n"/>
-      <c r="D7" s="10" t="n"/>
-      <c r="E7" s="10" t="n"/>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="10" t="n"/>
-      <c r="H7" s="10" t="n"/>
-      <c r="I7" s="10" t="n"/>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="10" t="n"/>
-      <c r="L7" s="10" t="n"/>
-      <c r="M7" s="11" t="n"/>
-      <c r="N7" s="9" t="n"/>
-      <c r="O7" s="10" t="n"/>
-      <c r="P7" s="10" t="n"/>
-      <c r="Q7" s="10" t="n"/>
-      <c r="R7" s="10" t="n"/>
-      <c r="S7" s="10" t="n"/>
-      <c r="T7" s="10" t="n"/>
-      <c r="U7" s="10" t="n"/>
-      <c r="V7" s="10" t="n"/>
-      <c r="W7" s="10" t="n"/>
-      <c r="X7" s="10" t="n"/>
-      <c r="Y7" s="11" t="n"/>
-      <c r="Z7" s="9" t="n"/>
-      <c r="AA7" s="10" t="n"/>
-      <c r="AB7" s="10" t="n"/>
-      <c r="AC7" s="10" t="n"/>
-      <c r="AD7" s="10" t="n"/>
-      <c r="AE7" s="10" t="n"/>
-      <c r="AF7" s="10" t="n"/>
-      <c r="AG7" s="10" t="n"/>
-      <c r="AH7" s="10" t="n"/>
-      <c r="AI7" s="10" t="n"/>
-      <c r="AJ7" s="10" t="n"/>
-      <c r="AK7" s="11" t="n"/>
-      <c r="AL7" s="9" t="n"/>
-      <c r="AM7" s="10" t="n"/>
-      <c r="AN7" s="10" t="n"/>
-      <c r="AO7" s="10" t="n"/>
-      <c r="AP7" s="10" t="n"/>
-      <c r="AQ7" s="10" t="n"/>
-      <c r="AR7" s="10" t="n"/>
-      <c r="AS7" s="10" t="n"/>
-      <c r="AT7" s="10" t="n"/>
-      <c r="AU7" s="10" t="n"/>
-      <c r="AV7" s="10" t="n"/>
-      <c r="AW7" s="11" t="n"/>
-      <c r="AX7" s="9" t="n"/>
-      <c r="AY7" s="10" t="n"/>
-      <c r="AZ7" s="10" t="n"/>
-      <c r="BA7" s="10" t="n"/>
-      <c r="BB7" s="10" t="n"/>
-      <c r="BC7" s="10" t="n"/>
-      <c r="BD7" s="10" t="n"/>
-      <c r="BE7" s="10" t="n"/>
-      <c r="BF7" s="10" t="n"/>
-      <c r="BG7" s="10" t="n"/>
-      <c r="BH7" s="10" t="n"/>
-      <c r="BI7" s="11" t="n"/>
-      <c r="BJ7" s="9" t="n"/>
-      <c r="BK7" s="10" t="n"/>
-      <c r="BL7" s="10" t="n"/>
-      <c r="BM7" s="10" t="n"/>
-      <c r="BN7" s="10" t="n"/>
-      <c r="BO7" s="10" t="n"/>
-      <c r="BP7" s="10" t="n"/>
-      <c r="BQ7" s="10" t="n"/>
-      <c r="BR7" s="10" t="n"/>
-      <c r="BS7" s="10" t="n"/>
-      <c r="BT7" s="10" t="n"/>
-      <c r="BU7" s="11" t="n"/>
-      <c r="BV7" s="9" t="n"/>
-      <c r="BW7" s="10" t="n"/>
-      <c r="BX7" s="10" t="n"/>
-      <c r="BY7" s="10" t="n"/>
-      <c r="BZ7" s="10" t="n"/>
-      <c r="CA7" s="10" t="n"/>
-      <c r="CB7" s="10" t="n"/>
-      <c r="CC7" s="10" t="n"/>
-      <c r="CD7" s="10" t="n"/>
-      <c r="CE7" s="10" t="n"/>
-      <c r="CF7" s="10" t="n"/>
-      <c r="CG7" s="11" t="n"/>
-      <c r="CH7" s="9" t="n"/>
-      <c r="CI7" s="10" t="n"/>
-      <c r="CJ7" s="10" t="n"/>
-      <c r="CK7" s="10" t="n"/>
-      <c r="CL7" s="10" t="n"/>
-      <c r="CM7" s="10" t="n"/>
-      <c r="CN7" s="10" t="n"/>
-      <c r="CO7" s="10" t="n"/>
-      <c r="CP7" s="10" t="n"/>
-      <c r="CQ7" s="10" t="n"/>
-      <c r="CR7" s="10" t="n"/>
-      <c r="CS7" s="11" t="n"/>
-      <c r="CT7" s="9" t="n"/>
-      <c r="CU7" s="10" t="n"/>
-      <c r="CV7" s="80" t="n"/>
-      <c r="CW7" s="80" t="n"/>
-      <c r="CX7" s="80" t="n"/>
-      <c r="CY7" s="80" t="n"/>
-      <c r="CZ7" s="80" t="n"/>
-      <c r="DA7" s="80" t="n"/>
-      <c r="DB7" s="80" t="n"/>
-      <c r="DC7" s="80" t="n"/>
-      <c r="DD7" s="80" t="n"/>
-      <c r="DE7" s="81" t="n"/>
-      <c r="DF7" s="9" t="n"/>
-      <c r="DG7" s="10" t="n"/>
-      <c r="DH7" s="80" t="n"/>
-      <c r="DI7" s="80" t="n"/>
-      <c r="DJ7" s="80" t="n"/>
-      <c r="DK7" s="80" t="n"/>
-      <c r="DL7" s="80" t="n"/>
-      <c r="DM7" s="80" t="n"/>
-      <c r="DN7" s="80" t="n"/>
-      <c r="DO7" s="80" t="n"/>
-      <c r="DP7" s="80" t="n"/>
-      <c r="DQ7" s="81" t="n"/>
-      <c r="DR7" s="9" t="n"/>
-      <c r="DS7" s="10" t="n"/>
-      <c r="DT7" s="80" t="n"/>
-      <c r="DU7" s="80" t="n"/>
-      <c r="DV7" s="80" t="n"/>
-      <c r="DW7" s="80" t="n"/>
-      <c r="DX7" s="80" t="n"/>
-      <c r="DY7" s="80" t="n"/>
-      <c r="DZ7" s="80" t="n"/>
-      <c r="EA7" s="80" t="n"/>
-      <c r="EB7" s="80" t="n"/>
-      <c r="EC7" s="81" t="n"/>
-      <c r="ED7" s="82" t="n"/>
-      <c r="EE7" s="80" t="n"/>
-      <c r="EF7" s="80" t="n"/>
-      <c r="EG7" s="80" t="n"/>
-      <c r="EH7" s="80" t="n"/>
-      <c r="EI7" s="80" t="n"/>
-      <c r="EJ7" s="80" t="n"/>
-      <c r="EK7" s="80" t="n"/>
-      <c r="EL7" s="80" t="n"/>
-      <c r="EM7" s="80" t="n"/>
-      <c r="EN7" s="80" t="n"/>
-      <c r="EO7" s="81" t="n"/>
-      <c r="EP7" s="9" t="n"/>
-      <c r="EQ7" s="10" t="n"/>
-      <c r="ER7" s="10" t="n"/>
-      <c r="ES7" s="10" t="n"/>
-      <c r="ET7" s="10" t="n"/>
-      <c r="EU7" s="10" t="n"/>
-      <c r="EV7" s="10" t="n"/>
-      <c r="EW7" s="10" t="n"/>
-      <c r="EX7" s="10" t="n"/>
-      <c r="EY7" s="10" t="n"/>
-      <c r="EZ7" s="10" t="n"/>
-      <c r="FA7" s="11" t="n"/>
-      <c r="FB7" s="9" t="n"/>
-      <c r="FC7" s="10" t="n"/>
-      <c r="FD7" s="10" t="n"/>
-      <c r="FE7" s="10" t="n"/>
-      <c r="FF7" s="10" t="n"/>
-      <c r="FG7" s="10" t="n"/>
-      <c r="FH7" s="10" t="n"/>
-      <c r="FI7" s="10" t="n"/>
-      <c r="FJ7" s="10" t="n"/>
-      <c r="FK7" s="10" t="n"/>
-      <c r="FL7" s="10" t="n"/>
-      <c r="FM7" s="11" t="n"/>
-      <c r="FN7" s="9" t="n"/>
-      <c r="FO7" s="10" t="n"/>
-      <c r="FP7" s="10" t="n"/>
-      <c r="FQ7" s="10" t="n"/>
-      <c r="FR7" s="10" t="n"/>
-      <c r="FS7" s="10" t="n"/>
-      <c r="FT7" s="10" t="n"/>
-      <c r="FU7" s="10" t="n"/>
-      <c r="FV7" s="10" t="n"/>
-      <c r="FW7" s="10" t="n"/>
-      <c r="FX7" s="10" t="n"/>
-      <c r="FY7" s="11" t="n"/>
-      <c r="FZ7" s="9" t="n"/>
-      <c r="GA7" s="10" t="n"/>
-      <c r="GB7" s="10" t="n"/>
-      <c r="GC7" s="10" t="n"/>
-      <c r="GD7" s="10" t="n"/>
-      <c r="GE7" s="10" t="n"/>
-      <c r="GF7" s="10" t="n"/>
-      <c r="GG7" s="10" t="n"/>
-      <c r="GH7" s="10" t="n"/>
-      <c r="GI7" s="10" t="n"/>
-      <c r="GJ7" s="10" t="n"/>
-      <c r="GK7" s="11" t="n"/>
-      <c r="GL7" s="14" t="n"/>
-      <c r="GM7" s="14" t="n"/>
-      <c r="GN7" s="14" t="n"/>
-      <c r="GO7" s="14" t="n"/>
-      <c r="GP7" s="14" t="n"/>
+      <c r="B7" s="97" t="n"/>
+      <c r="C7" s="98" t="n"/>
+      <c r="D7" s="98" t="n"/>
+      <c r="E7" s="98" t="n"/>
+      <c r="F7" s="98" t="n"/>
+      <c r="G7" s="98" t="n"/>
+      <c r="H7" s="98" t="n"/>
+      <c r="I7" s="98" t="n"/>
+      <c r="J7" s="98" t="n"/>
+      <c r="K7" s="98" t="n"/>
+      <c r="L7" s="98" t="n"/>
+      <c r="M7" s="99" t="n"/>
+      <c r="N7" s="97" t="n"/>
+      <c r="O7" s="98" t="n"/>
+      <c r="P7" s="98" t="n"/>
+      <c r="Q7" s="98" t="n"/>
+      <c r="R7" s="98" t="n"/>
+      <c r="S7" s="98" t="n"/>
+      <c r="T7" s="98" t="n"/>
+      <c r="U7" s="98" t="n"/>
+      <c r="V7" s="98" t="n"/>
+      <c r="W7" s="98" t="n"/>
+      <c r="X7" s="98" t="n"/>
+      <c r="Y7" s="99" t="n"/>
+      <c r="Z7" s="97" t="n"/>
+      <c r="AA7" s="98" t="n"/>
+      <c r="AB7" s="98" t="n"/>
+      <c r="AC7" s="98" t="n"/>
+      <c r="AD7" s="98" t="n"/>
+      <c r="AE7" s="98" t="n"/>
+      <c r="AF7" s="98" t="n"/>
+      <c r="AG7" s="98" t="n"/>
+      <c r="AH7" s="98" t="n"/>
+      <c r="AI7" s="98" t="n"/>
+      <c r="AJ7" s="98" t="n"/>
+      <c r="AK7" s="99" t="n"/>
+      <c r="AL7" s="97" t="n"/>
+      <c r="AM7" s="98" t="n"/>
+      <c r="AN7" s="98" t="n"/>
+      <c r="AO7" s="98" t="n"/>
+      <c r="AP7" s="98" t="n"/>
+      <c r="AQ7" s="98" t="n"/>
+      <c r="AR7" s="98" t="n"/>
+      <c r="AS7" s="98" t="n"/>
+      <c r="AT7" s="98" t="n"/>
+      <c r="AU7" s="98" t="n"/>
+      <c r="AV7" s="98" t="n"/>
+      <c r="AW7" s="99" t="n"/>
+      <c r="AX7" s="97" t="n"/>
+      <c r="AY7" s="98" t="n"/>
+      <c r="AZ7" s="98" t="n"/>
+      <c r="BA7" s="98" t="n"/>
+      <c r="BB7" s="98" t="n"/>
+      <c r="BC7" s="98" t="n"/>
+      <c r="BD7" s="98" t="n"/>
+      <c r="BE7" s="98" t="n"/>
+      <c r="BF7" s="98" t="n"/>
+      <c r="BG7" s="98" t="n"/>
+      <c r="BH7" s="98" t="n"/>
+      <c r="BI7" s="99" t="n"/>
+      <c r="BJ7" s="97" t="n"/>
+      <c r="BK7" s="98" t="n"/>
+      <c r="BL7" s="98" t="n"/>
+      <c r="BM7" s="98" t="n"/>
+      <c r="BN7" s="98" t="n"/>
+      <c r="BO7" s="98" t="n"/>
+      <c r="BP7" s="98" t="n"/>
+      <c r="BQ7" s="98" t="n"/>
+      <c r="BR7" s="98" t="n"/>
+      <c r="BS7" s="98" t="n"/>
+      <c r="BT7" s="98" t="n"/>
+      <c r="BU7" s="99" t="n"/>
+      <c r="BV7" s="82" t="n"/>
+      <c r="BW7" s="80" t="n"/>
+      <c r="BX7" s="80" t="n"/>
+      <c r="BY7" s="80" t="n"/>
+      <c r="BZ7" s="80" t="n"/>
+      <c r="CA7" s="80" t="n"/>
+      <c r="CB7" s="80" t="n"/>
+      <c r="CC7" s="80" t="n"/>
+      <c r="CD7" s="80" t="n"/>
+      <c r="CE7" s="80" t="n"/>
+      <c r="CF7" s="80" t="n"/>
+      <c r="CG7" s="81" t="n"/>
+      <c r="CH7" s="97" t="n"/>
+      <c r="CI7" s="98" t="n"/>
+      <c r="CJ7" s="98" t="n"/>
+      <c r="CK7" s="98" t="n"/>
+      <c r="CL7" s="98" t="n"/>
+      <c r="CM7" s="98" t="n"/>
+      <c r="CN7" s="98" t="n"/>
+      <c r="CO7" s="98" t="n"/>
+      <c r="CP7" s="98" t="n"/>
+      <c r="CQ7" s="98" t="n"/>
+      <c r="CR7" s="98" t="n"/>
+      <c r="CS7" s="99" t="n"/>
+      <c r="CT7" s="97" t="n"/>
+      <c r="CU7" s="98" t="n"/>
+      <c r="CV7" s="98" t="n"/>
+      <c r="CW7" s="98" t="n"/>
+      <c r="CX7" s="98" t="n"/>
+      <c r="CY7" s="98" t="n"/>
+      <c r="CZ7" s="98" t="n"/>
+      <c r="DA7" s="98" t="n"/>
+      <c r="DB7" s="98" t="n"/>
+      <c r="DC7" s="98" t="n"/>
+      <c r="DD7" s="98" t="n"/>
+      <c r="DE7" s="99" t="n"/>
+      <c r="DF7" s="97" t="n"/>
+      <c r="DG7" s="98" t="n"/>
+      <c r="DH7" s="98" t="n"/>
+      <c r="DI7" s="98" t="n"/>
+      <c r="DJ7" s="98" t="n"/>
+      <c r="DK7" s="98" t="n"/>
+      <c r="DL7" s="98" t="n"/>
+      <c r="DM7" s="98" t="n"/>
+      <c r="DN7" s="98" t="n"/>
+      <c r="DO7" s="98" t="n"/>
+      <c r="DP7" s="98" t="n"/>
+      <c r="DQ7" s="99" t="n"/>
+      <c r="DR7" s="97" t="n"/>
+      <c r="DS7" s="98" t="n"/>
+      <c r="DT7" s="98" t="n"/>
+      <c r="DU7" s="98" t="n"/>
+      <c r="DV7" s="98" t="n"/>
+      <c r="DW7" s="98" t="n"/>
+      <c r="DX7" s="98" t="n"/>
+      <c r="DY7" s="98" t="n"/>
+      <c r="DZ7" s="98" t="n"/>
+      <c r="EA7" s="98" t="n"/>
+      <c r="EB7" s="98" t="n"/>
+      <c r="EC7" s="99" t="n"/>
+      <c r="ED7" s="97" t="n"/>
+      <c r="EE7" s="98" t="n"/>
+      <c r="EF7" s="98" t="n"/>
+      <c r="EG7" s="98" t="n"/>
+      <c r="EH7" s="98" t="n"/>
+      <c r="EI7" s="98" t="n"/>
+      <c r="EJ7" s="98" t="n"/>
+      <c r="EK7" s="98" t="n"/>
+      <c r="EL7" s="98" t="n"/>
+      <c r="EM7" s="98" t="n"/>
+      <c r="EN7" s="98" t="n"/>
+      <c r="EO7" s="99" t="n"/>
+      <c r="EP7" s="97" t="n"/>
+      <c r="EQ7" s="98" t="n"/>
+      <c r="ER7" s="98" t="n"/>
+      <c r="ES7" s="98" t="n"/>
+      <c r="ET7" s="98" t="n"/>
+      <c r="EU7" s="98" t="n"/>
+      <c r="EV7" s="98" t="n"/>
+      <c r="EW7" s="98" t="n"/>
+      <c r="EX7" s="98" t="n"/>
+      <c r="EY7" s="98" t="n"/>
+      <c r="EZ7" s="98" t="n"/>
+      <c r="FA7" s="99" t="n"/>
+      <c r="FB7" s="97" t="n"/>
+      <c r="FC7" s="98" t="n"/>
+      <c r="FD7" s="98" t="n"/>
+      <c r="FE7" s="98" t="n"/>
+      <c r="FF7" s="98" t="n"/>
+      <c r="FG7" s="98" t="n"/>
+      <c r="FH7" s="98" t="n"/>
+      <c r="FI7" s="98" t="n"/>
+      <c r="FJ7" s="98" t="n"/>
+      <c r="FK7" s="98" t="n"/>
+      <c r="FL7" s="98" t="n"/>
+      <c r="FM7" s="99" t="n"/>
+      <c r="FN7" s="97" t="n"/>
+      <c r="FO7" s="98" t="n"/>
+      <c r="FP7" s="98" t="n"/>
+      <c r="FQ7" s="98" t="n"/>
+      <c r="FR7" s="98" t="n"/>
+      <c r="FS7" s="98" t="n"/>
+      <c r="FT7" s="98" t="n"/>
+      <c r="FU7" s="98" t="n"/>
+      <c r="FV7" s="98" t="n"/>
+      <c r="FW7" s="98" t="n"/>
+      <c r="FX7" s="98" t="n"/>
+      <c r="FY7" s="99" t="n"/>
+      <c r="FZ7" s="97" t="n"/>
+      <c r="GA7" s="98" t="n"/>
+      <c r="GB7" s="98" t="n"/>
+      <c r="GC7" s="98" t="n"/>
+      <c r="GD7" s="98" t="n"/>
+      <c r="GE7" s="98" t="n"/>
+      <c r="GF7" s="98" t="n"/>
+      <c r="GG7" s="98" t="n"/>
+      <c r="GH7" s="98" t="n"/>
+      <c r="GI7" s="98" t="n"/>
+      <c r="GJ7" s="98" t="n"/>
+      <c r="GK7" s="99" t="n"/>
+      <c r="GL7" s="100" t="n"/>
+      <c r="GM7" s="100" t="n"/>
+      <c r="GN7" s="100" t="n"/>
+      <c r="GO7" s="100" t="n"/>
+      <c r="GP7" s="100" t="n"/>
+      <c r="GQ7" s="100" t="n"/>
+      <c r="GR7" s="100" t="n"/>
+      <c r="GS7" s="100" t="n"/>
+      <c r="GT7" s="100" t="n"/>
+      <c r="GU7" s="100" t="n"/>
+      <c r="GV7" s="100" t="n"/>
+      <c r="GW7" s="100" t="n"/>
     </row>
     <row r="8" ht="50.25" customHeight="1" s="55">
       <c r="A8" s="7" t="inlineStr">
@@ -2539,203 +2609,210 @@
           <t>FRI</t>
         </is>
       </c>
-      <c r="B8" s="20" t="n"/>
-      <c r="C8" s="18" t="n"/>
-      <c r="D8" s="18" t="n"/>
-      <c r="E8" s="18" t="n"/>
-      <c r="F8" s="18" t="n"/>
-      <c r="G8" s="18" t="n"/>
-      <c r="H8" s="18" t="n"/>
-      <c r="I8" s="18" t="n"/>
-      <c r="J8" s="18" t="n"/>
-      <c r="K8" s="18" t="n"/>
-      <c r="L8" s="18" t="n"/>
-      <c r="M8" s="19" t="n"/>
-      <c r="N8" s="20" t="n"/>
-      <c r="O8" s="18" t="n"/>
-      <c r="P8" s="18" t="n"/>
-      <c r="Q8" s="18" t="n"/>
-      <c r="R8" s="18" t="n"/>
-      <c r="S8" s="18" t="n"/>
-      <c r="T8" s="18" t="n"/>
-      <c r="U8" s="18" t="n"/>
-      <c r="V8" s="18" t="n"/>
-      <c r="W8" s="18" t="n"/>
-      <c r="X8" s="18" t="n"/>
-      <c r="Y8" s="19" t="n"/>
-      <c r="Z8" s="20" t="n"/>
-      <c r="AA8" s="18" t="n"/>
-      <c r="AB8" s="18" t="n"/>
-      <c r="AC8" s="18" t="n"/>
-      <c r="AD8" s="18" t="n"/>
-      <c r="AE8" s="18" t="n"/>
-      <c r="AF8" s="18" t="n"/>
-      <c r="AG8" s="18" t="n"/>
-      <c r="AH8" s="18" t="n"/>
-      <c r="AI8" s="18" t="n"/>
-      <c r="AJ8" s="80" t="n"/>
-      <c r="AK8" s="81" t="n"/>
-      <c r="AL8" s="82" t="n"/>
-      <c r="AM8" s="80" t="n"/>
-      <c r="AN8" s="80" t="n"/>
-      <c r="AO8" s="80" t="n"/>
-      <c r="AP8" s="80" t="n"/>
-      <c r="AQ8" s="80" t="n"/>
-      <c r="AR8" s="80" t="n"/>
-      <c r="AS8" s="80" t="n"/>
-      <c r="AT8" s="18" t="n"/>
-      <c r="AU8" s="18" t="n"/>
-      <c r="AV8" s="18" t="n"/>
-      <c r="AW8" s="81" t="n"/>
-      <c r="AX8" s="82" t="n"/>
-      <c r="AY8" s="80" t="n"/>
-      <c r="AZ8" s="80" t="n"/>
-      <c r="BA8" s="80" t="n"/>
-      <c r="BB8" s="80" t="n"/>
-      <c r="BC8" s="80" t="n"/>
-      <c r="BD8" s="80" t="n"/>
-      <c r="BE8" s="80" t="n"/>
-      <c r="BF8" s="80" t="n"/>
-      <c r="BG8" s="18" t="n"/>
-      <c r="BH8" s="18" t="n"/>
-      <c r="BI8" s="19" t="n"/>
-      <c r="BJ8" s="82" t="n"/>
-      <c r="BK8" s="80" t="n"/>
-      <c r="BL8" s="80" t="n"/>
-      <c r="BM8" s="80" t="n"/>
-      <c r="BN8" s="80" t="n"/>
-      <c r="BO8" s="80" t="n"/>
-      <c r="BP8" s="80" t="n"/>
-      <c r="BQ8" s="80" t="n"/>
-      <c r="BR8" s="80" t="n"/>
-      <c r="BS8" s="80" t="n"/>
-      <c r="BT8" s="18" t="n"/>
-      <c r="BU8" s="19" t="n"/>
-      <c r="BV8" s="20" t="n"/>
-      <c r="BW8" s="18" t="n"/>
-      <c r="BX8" s="18" t="n"/>
-      <c r="BY8" s="18" t="n"/>
-      <c r="BZ8" s="18" t="n"/>
-      <c r="CA8" s="18" t="n"/>
-      <c r="CB8" s="18" t="n"/>
-      <c r="CC8" s="18" t="n"/>
-      <c r="CD8" s="18" t="n"/>
-      <c r="CE8" s="18" t="n"/>
-      <c r="CF8" s="18" t="n"/>
-      <c r="CG8" s="19" t="n"/>
-      <c r="CH8" s="20" t="n"/>
-      <c r="CI8" s="18" t="n"/>
-      <c r="CJ8" s="18" t="n"/>
-      <c r="CK8" s="18" t="n"/>
-      <c r="CL8" s="18" t="n"/>
-      <c r="CM8" s="18" t="n"/>
-      <c r="CN8" s="18" t="n"/>
-      <c r="CO8" s="18" t="n"/>
-      <c r="CP8" s="18" t="n"/>
-      <c r="CQ8" s="18" t="n"/>
-      <c r="CR8" s="18" t="n"/>
-      <c r="CS8" s="19" t="n"/>
-      <c r="CT8" s="20" t="n"/>
-      <c r="CU8" s="18" t="n"/>
-      <c r="CV8" s="18" t="n"/>
-      <c r="CW8" s="18" t="n"/>
-      <c r="CX8" s="18" t="n"/>
-      <c r="CY8" s="18" t="n"/>
-      <c r="CZ8" s="18" t="n"/>
-      <c r="DA8" s="18" t="n"/>
-      <c r="DB8" s="18" t="n"/>
-      <c r="DC8" s="18" t="n"/>
-      <c r="DD8" s="18" t="n"/>
-      <c r="DE8" s="19" t="n"/>
-      <c r="DF8" s="20" t="n"/>
-      <c r="DG8" s="18" t="n"/>
-      <c r="DH8" s="18" t="n"/>
-      <c r="DI8" s="18" t="n"/>
-      <c r="DJ8" s="80" t="n"/>
-      <c r="DK8" s="80" t="n"/>
-      <c r="DL8" s="80" t="n"/>
-      <c r="DM8" s="80" t="n"/>
-      <c r="DN8" s="80" t="n"/>
-      <c r="DO8" s="80" t="n"/>
-      <c r="DP8" s="80" t="n"/>
-      <c r="DQ8" s="81" t="n"/>
-      <c r="DR8" s="82" t="n"/>
-      <c r="DS8" s="80" t="n"/>
-      <c r="DT8" s="18" t="n"/>
-      <c r="DU8" s="18" t="n"/>
-      <c r="DV8" s="18" t="n"/>
-      <c r="DW8" s="18" t="n"/>
-      <c r="DX8" s="18" t="n"/>
-      <c r="DY8" s="18" t="n"/>
-      <c r="DZ8" s="18" t="n"/>
-      <c r="EA8" s="18" t="n"/>
-      <c r="EB8" s="18" t="n"/>
-      <c r="EC8" s="19" t="n"/>
-      <c r="ED8" s="20" t="n"/>
-      <c r="EE8" s="18" t="n"/>
-      <c r="EF8" s="18" t="n"/>
-      <c r="EG8" s="18" t="n"/>
-      <c r="EH8" s="18" t="n"/>
-      <c r="EI8" s="18" t="n"/>
-      <c r="EJ8" s="18" t="n"/>
-      <c r="EK8" s="18" t="n"/>
-      <c r="EL8" s="18" t="n"/>
-      <c r="EM8" s="18" t="n"/>
-      <c r="EN8" s="18" t="n"/>
-      <c r="EO8" s="19" t="n"/>
-      <c r="EP8" s="20" t="n"/>
-      <c r="EQ8" s="18" t="n"/>
-      <c r="ER8" s="18" t="n"/>
-      <c r="ES8" s="18" t="n"/>
-      <c r="ET8" s="18" t="n"/>
-      <c r="EU8" s="18" t="n"/>
-      <c r="EV8" s="18" t="n"/>
-      <c r="EW8" s="18" t="n"/>
-      <c r="EX8" s="18" t="n"/>
-      <c r="EY8" s="18" t="n"/>
-      <c r="EZ8" s="18" t="n"/>
-      <c r="FA8" s="19" t="n"/>
-      <c r="FB8" s="20" t="n"/>
-      <c r="FC8" s="18" t="n"/>
-      <c r="FD8" s="18" t="n"/>
-      <c r="FE8" s="18" t="n"/>
-      <c r="FF8" s="18" t="n"/>
-      <c r="FG8" s="18" t="n"/>
-      <c r="FH8" s="18" t="n"/>
-      <c r="FI8" s="18" t="n"/>
-      <c r="FJ8" s="18" t="n"/>
-      <c r="FK8" s="18" t="n"/>
-      <c r="FL8" s="18" t="n"/>
-      <c r="FM8" s="19" t="n"/>
-      <c r="FN8" s="20" t="n"/>
-      <c r="FO8" s="18" t="n"/>
-      <c r="FP8" s="18" t="n"/>
-      <c r="FQ8" s="18" t="n"/>
-      <c r="FR8" s="18" t="n"/>
-      <c r="FS8" s="18" t="n"/>
-      <c r="FT8" s="18" t="n"/>
-      <c r="FU8" s="18" t="n"/>
-      <c r="FV8" s="18" t="n"/>
-      <c r="FW8" s="18" t="n"/>
-      <c r="FX8" s="18" t="n"/>
-      <c r="FY8" s="19" t="n"/>
-      <c r="FZ8" s="20" t="n"/>
-      <c r="GA8" s="18" t="n"/>
-      <c r="GB8" s="18" t="n"/>
-      <c r="GC8" s="18" t="n"/>
-      <c r="GD8" s="18" t="n"/>
-      <c r="GE8" s="18" t="n"/>
-      <c r="GF8" s="18" t="n"/>
-      <c r="GG8" s="18" t="n"/>
-      <c r="GH8" s="18" t="n"/>
-      <c r="GI8" s="18" t="n"/>
-      <c r="GJ8" s="18" t="n"/>
-      <c r="GK8" s="19" t="n"/>
-      <c r="GL8" s="14" t="n"/>
-      <c r="GM8" s="14" t="n"/>
-      <c r="GN8" s="14" t="n"/>
-      <c r="GO8" s="14" t="n"/>
-      <c r="GP8" s="14" t="n"/>
+      <c r="B8" s="93" t="n"/>
+      <c r="C8" s="94" t="n"/>
+      <c r="D8" s="94" t="n"/>
+      <c r="E8" s="94" t="n"/>
+      <c r="F8" s="94" t="n"/>
+      <c r="G8" s="94" t="n"/>
+      <c r="H8" s="94" t="n"/>
+      <c r="I8" s="94" t="n"/>
+      <c r="J8" s="94" t="n"/>
+      <c r="K8" s="94" t="n"/>
+      <c r="L8" s="94" t="n"/>
+      <c r="M8" s="95" t="n"/>
+      <c r="N8" s="93" t="n"/>
+      <c r="O8" s="94" t="n"/>
+      <c r="P8" s="94" t="n"/>
+      <c r="Q8" s="94" t="n"/>
+      <c r="R8" s="94" t="n"/>
+      <c r="S8" s="94" t="n"/>
+      <c r="T8" s="94" t="n"/>
+      <c r="U8" s="94" t="n"/>
+      <c r="V8" s="94" t="n"/>
+      <c r="W8" s="94" t="n"/>
+      <c r="X8" s="94" t="n"/>
+      <c r="Y8" s="95" t="n"/>
+      <c r="Z8" s="93" t="n"/>
+      <c r="AA8" s="94" t="n"/>
+      <c r="AB8" s="94" t="n"/>
+      <c r="AC8" s="94" t="n"/>
+      <c r="AD8" s="94" t="n"/>
+      <c r="AE8" s="94" t="n"/>
+      <c r="AF8" s="94" t="n"/>
+      <c r="AG8" s="94" t="n"/>
+      <c r="AH8" s="94" t="n"/>
+      <c r="AI8" s="94" t="n"/>
+      <c r="AJ8" s="94" t="n"/>
+      <c r="AK8" s="95" t="n"/>
+      <c r="AL8" s="93" t="n"/>
+      <c r="AM8" s="94" t="n"/>
+      <c r="AN8" s="94" t="n"/>
+      <c r="AO8" s="94" t="n"/>
+      <c r="AP8" s="94" t="n"/>
+      <c r="AQ8" s="94" t="n"/>
+      <c r="AR8" s="94" t="n"/>
+      <c r="AS8" s="94" t="n"/>
+      <c r="AT8" s="94" t="n"/>
+      <c r="AU8" s="94" t="n"/>
+      <c r="AV8" s="94" t="n"/>
+      <c r="AW8" s="95" t="n"/>
+      <c r="AX8" s="93" t="n"/>
+      <c r="AY8" s="94" t="n"/>
+      <c r="AZ8" s="94" t="n"/>
+      <c r="BA8" s="94" t="n"/>
+      <c r="BB8" s="94" t="n"/>
+      <c r="BC8" s="94" t="n"/>
+      <c r="BD8" s="94" t="n"/>
+      <c r="BE8" s="94" t="n"/>
+      <c r="BF8" s="94" t="n"/>
+      <c r="BG8" s="94" t="n"/>
+      <c r="BH8" s="94" t="n"/>
+      <c r="BI8" s="95" t="n"/>
+      <c r="BJ8" s="93" t="n"/>
+      <c r="BK8" s="94" t="n"/>
+      <c r="BL8" s="94" t="n"/>
+      <c r="BM8" s="94" t="n"/>
+      <c r="BN8" s="94" t="n"/>
+      <c r="BO8" s="94" t="n"/>
+      <c r="BP8" s="94" t="n"/>
+      <c r="BQ8" s="94" t="n"/>
+      <c r="BR8" s="94" t="n"/>
+      <c r="BS8" s="94" t="n"/>
+      <c r="BT8" s="94" t="n"/>
+      <c r="BU8" s="95" t="n"/>
+      <c r="BV8" s="93" t="n"/>
+      <c r="BW8" s="94" t="n"/>
+      <c r="BX8" s="94" t="n"/>
+      <c r="BY8" s="94" t="n"/>
+      <c r="BZ8" s="94" t="n"/>
+      <c r="CA8" s="94" t="n"/>
+      <c r="CB8" s="94" t="n"/>
+      <c r="CC8" s="94" t="n"/>
+      <c r="CD8" s="94" t="n"/>
+      <c r="CE8" s="94" t="n"/>
+      <c r="CF8" s="94" t="n"/>
+      <c r="CG8" s="95" t="n"/>
+      <c r="CH8" s="93" t="n"/>
+      <c r="CI8" s="94" t="n"/>
+      <c r="CJ8" s="94" t="n"/>
+      <c r="CK8" s="94" t="n"/>
+      <c r="CL8" s="94" t="n"/>
+      <c r="CM8" s="94" t="n"/>
+      <c r="CN8" s="94" t="n"/>
+      <c r="CO8" s="94" t="n"/>
+      <c r="CP8" s="94" t="n"/>
+      <c r="CQ8" s="94" t="n"/>
+      <c r="CR8" s="94" t="n"/>
+      <c r="CS8" s="95" t="n"/>
+      <c r="CT8" s="93" t="n"/>
+      <c r="CU8" s="94" t="n"/>
+      <c r="CV8" s="94" t="n"/>
+      <c r="CW8" s="94" t="n"/>
+      <c r="CX8" s="94" t="n"/>
+      <c r="CY8" s="94" t="n"/>
+      <c r="CZ8" s="94" t="n"/>
+      <c r="DA8" s="94" t="n"/>
+      <c r="DB8" s="94" t="n"/>
+      <c r="DC8" s="94" t="n"/>
+      <c r="DD8" s="94" t="n"/>
+      <c r="DE8" s="95" t="n"/>
+      <c r="DF8" s="93" t="n"/>
+      <c r="DG8" s="94" t="n"/>
+      <c r="DH8" s="94" t="n"/>
+      <c r="DI8" s="94" t="n"/>
+      <c r="DJ8" s="94" t="n"/>
+      <c r="DK8" s="94" t="n"/>
+      <c r="DL8" s="94" t="n"/>
+      <c r="DM8" s="94" t="n"/>
+      <c r="DN8" s="94" t="n"/>
+      <c r="DO8" s="94" t="n"/>
+      <c r="DP8" s="94" t="n"/>
+      <c r="DQ8" s="95" t="n"/>
+      <c r="DR8" s="93" t="n"/>
+      <c r="DS8" s="94" t="n"/>
+      <c r="DT8" s="94" t="n"/>
+      <c r="DU8" s="94" t="n"/>
+      <c r="DV8" s="94" t="n"/>
+      <c r="DW8" s="94" t="n"/>
+      <c r="DX8" s="94" t="n"/>
+      <c r="DY8" s="94" t="n"/>
+      <c r="DZ8" s="94" t="n"/>
+      <c r="EA8" s="94" t="n"/>
+      <c r="EB8" s="94" t="n"/>
+      <c r="EC8" s="95" t="n"/>
+      <c r="ED8" s="93" t="n"/>
+      <c r="EE8" s="94" t="n"/>
+      <c r="EF8" s="94" t="n"/>
+      <c r="EG8" s="94" t="n"/>
+      <c r="EH8" s="94" t="n"/>
+      <c r="EI8" s="94" t="n"/>
+      <c r="EJ8" s="94" t="n"/>
+      <c r="EK8" s="94" t="n"/>
+      <c r="EL8" s="94" t="n"/>
+      <c r="EM8" s="94" t="n"/>
+      <c r="EN8" s="94" t="n"/>
+      <c r="EO8" s="95" t="n"/>
+      <c r="EP8" s="93" t="n"/>
+      <c r="EQ8" s="94" t="n"/>
+      <c r="ER8" s="94" t="n"/>
+      <c r="ES8" s="94" t="n"/>
+      <c r="ET8" s="94" t="n"/>
+      <c r="EU8" s="94" t="n"/>
+      <c r="EV8" s="94" t="n"/>
+      <c r="EW8" s="94" t="n"/>
+      <c r="EX8" s="94" t="n"/>
+      <c r="EY8" s="94" t="n"/>
+      <c r="EZ8" s="94" t="n"/>
+      <c r="FA8" s="95" t="n"/>
+      <c r="FB8" s="93" t="n"/>
+      <c r="FC8" s="94" t="n"/>
+      <c r="FD8" s="94" t="n"/>
+      <c r="FE8" s="94" t="n"/>
+      <c r="FF8" s="94" t="n"/>
+      <c r="FG8" s="94" t="n"/>
+      <c r="FH8" s="94" t="n"/>
+      <c r="FI8" s="94" t="n"/>
+      <c r="FJ8" s="94" t="n"/>
+      <c r="FK8" s="94" t="n"/>
+      <c r="FL8" s="94" t="n"/>
+      <c r="FM8" s="95" t="n"/>
+      <c r="FN8" s="93" t="n"/>
+      <c r="FO8" s="94" t="n"/>
+      <c r="FP8" s="94" t="n"/>
+      <c r="FQ8" s="94" t="n"/>
+      <c r="FR8" s="94" t="n"/>
+      <c r="FS8" s="94" t="n"/>
+      <c r="FT8" s="94" t="n"/>
+      <c r="FU8" s="94" t="n"/>
+      <c r="FV8" s="94" t="n"/>
+      <c r="FW8" s="94" t="n"/>
+      <c r="FX8" s="94" t="n"/>
+      <c r="FY8" s="95" t="n"/>
+      <c r="FZ8" s="93" t="n"/>
+      <c r="GA8" s="94" t="n"/>
+      <c r="GB8" s="94" t="n"/>
+      <c r="GC8" s="94" t="n"/>
+      <c r="GD8" s="94" t="n"/>
+      <c r="GE8" s="94" t="n"/>
+      <c r="GF8" s="94" t="n"/>
+      <c r="GG8" s="94" t="n"/>
+      <c r="GH8" s="94" t="n"/>
+      <c r="GI8" s="94" t="n"/>
+      <c r="GJ8" s="94" t="n"/>
+      <c r="GK8" s="95" t="n"/>
+      <c r="GL8" s="96" t="n"/>
+      <c r="GM8" s="96" t="n"/>
+      <c r="GN8" s="96" t="n"/>
+      <c r="GO8" s="96" t="n"/>
+      <c r="GP8" s="96" t="n"/>
+      <c r="GQ8" s="96" t="n"/>
+      <c r="GR8" s="96" t="n"/>
+      <c r="GS8" s="96" t="n"/>
+      <c r="GT8" s="96" t="n"/>
+      <c r="GU8" s="96" t="n"/>
+      <c r="GV8" s="96" t="n"/>
+      <c r="GW8" s="96" t="n"/>
     </row>
     <row r="9" ht="50.25" customFormat="1" customHeight="1" s="1">
       <c r="A9" s="24" t="inlineStr">
@@ -2743,203 +2820,210 @@
           <t>SAT</t>
         </is>
       </c>
-      <c r="B9" s="25" t="n"/>
-      <c r="C9" s="26" t="n"/>
-      <c r="D9" s="26" t="n"/>
-      <c r="E9" s="26" t="n"/>
-      <c r="F9" s="26" t="n"/>
-      <c r="G9" s="26" t="n"/>
-      <c r="H9" s="26" t="n"/>
-      <c r="I9" s="26" t="n"/>
-      <c r="J9" s="26" t="n"/>
-      <c r="K9" s="26" t="n"/>
-      <c r="L9" s="26" t="n"/>
-      <c r="M9" s="27" t="n"/>
-      <c r="N9" s="25" t="n"/>
-      <c r="O9" s="26" t="n"/>
-      <c r="P9" s="26" t="n"/>
-      <c r="Q9" s="26" t="n"/>
-      <c r="R9" s="26" t="n"/>
-      <c r="S9" s="26" t="n"/>
-      <c r="T9" s="26" t="n"/>
-      <c r="U9" s="26" t="n"/>
-      <c r="V9" s="26" t="n"/>
-      <c r="W9" s="26" t="n"/>
-      <c r="X9" s="26" t="n"/>
-      <c r="Y9" s="27" t="n"/>
-      <c r="Z9" s="25" t="n"/>
-      <c r="AA9" s="26" t="n"/>
-      <c r="AB9" s="26" t="n"/>
-      <c r="AC9" s="26" t="n"/>
-      <c r="AD9" s="26" t="n"/>
-      <c r="AE9" s="26" t="n"/>
-      <c r="AF9" s="26" t="n"/>
-      <c r="AG9" s="26" t="n"/>
-      <c r="AH9" s="26" t="n"/>
-      <c r="AI9" s="26" t="n"/>
-      <c r="AJ9" s="26" t="n"/>
-      <c r="AK9" s="27" t="n"/>
-      <c r="AL9" s="25" t="n"/>
-      <c r="AM9" s="26" t="n"/>
-      <c r="AN9" s="26" t="n"/>
-      <c r="AO9" s="26" t="n"/>
-      <c r="AP9" s="26" t="n"/>
-      <c r="AQ9" s="26" t="n"/>
-      <c r="AR9" s="26" t="n"/>
-      <c r="AS9" s="26" t="n"/>
-      <c r="AT9" s="26" t="n"/>
-      <c r="AU9" s="26" t="n"/>
-      <c r="AV9" s="26" t="n"/>
-      <c r="AW9" s="27" t="n"/>
-      <c r="AX9" s="25" t="n"/>
-      <c r="AY9" s="26" t="n"/>
-      <c r="AZ9" s="26" t="n"/>
-      <c r="BA9" s="26" t="n"/>
-      <c r="BB9" s="26" t="n"/>
-      <c r="BC9" s="26" t="n"/>
-      <c r="BD9" s="26" t="n"/>
-      <c r="BE9" s="26" t="n"/>
-      <c r="BF9" s="26" t="n"/>
-      <c r="BG9" s="26" t="n"/>
-      <c r="BH9" s="26" t="n"/>
-      <c r="BI9" s="27" t="n"/>
-      <c r="BJ9" s="25" t="n"/>
-      <c r="BK9" s="26" t="n"/>
-      <c r="BL9" s="26" t="n"/>
-      <c r="BM9" s="26" t="n"/>
-      <c r="BN9" s="26" t="n"/>
-      <c r="BO9" s="26" t="n"/>
-      <c r="BP9" s="26" t="n"/>
-      <c r="BQ9" s="26" t="n"/>
-      <c r="BR9" s="26" t="n"/>
-      <c r="BS9" s="26" t="n"/>
-      <c r="BT9" s="26" t="n"/>
-      <c r="BU9" s="27" t="n"/>
-      <c r="BV9" s="25" t="n"/>
-      <c r="BW9" s="26" t="n"/>
-      <c r="BX9" s="26" t="n"/>
-      <c r="BY9" s="26" t="n"/>
-      <c r="BZ9" s="26" t="n"/>
-      <c r="CA9" s="26" t="n"/>
-      <c r="CB9" s="26" t="n"/>
-      <c r="CC9" s="26" t="n"/>
-      <c r="CD9" s="26" t="n"/>
-      <c r="CE9" s="26" t="n"/>
-      <c r="CF9" s="26" t="n"/>
-      <c r="CG9" s="27" t="n"/>
-      <c r="CH9" s="25" t="n"/>
-      <c r="CI9" s="26" t="n"/>
-      <c r="CJ9" s="26" t="n"/>
-      <c r="CK9" s="26" t="n"/>
-      <c r="CL9" s="26" t="n"/>
-      <c r="CM9" s="26" t="n"/>
-      <c r="CN9" s="26" t="n"/>
-      <c r="CO9" s="26" t="n"/>
-      <c r="CP9" s="26" t="n"/>
-      <c r="CQ9" s="26" t="n"/>
-      <c r="CR9" s="26" t="n"/>
-      <c r="CS9" s="27" t="n"/>
-      <c r="CT9" s="25" t="n"/>
-      <c r="CU9" s="26" t="n"/>
-      <c r="CV9" s="26" t="n"/>
-      <c r="CW9" s="26" t="n"/>
-      <c r="CX9" s="26" t="n"/>
-      <c r="CY9" s="26" t="n"/>
-      <c r="CZ9" s="26" t="n"/>
-      <c r="DA9" s="26" t="n"/>
-      <c r="DB9" s="26" t="n"/>
-      <c r="DC9" s="26" t="n"/>
-      <c r="DD9" s="26" t="n"/>
-      <c r="DE9" s="27" t="n"/>
-      <c r="DF9" s="25" t="n"/>
-      <c r="DG9" s="26" t="n"/>
-      <c r="DH9" s="26" t="n"/>
-      <c r="DI9" s="26" t="n"/>
-      <c r="DJ9" s="26" t="n"/>
-      <c r="DK9" s="26" t="n"/>
-      <c r="DL9" s="26" t="n"/>
-      <c r="DM9" s="26" t="n"/>
-      <c r="DN9" s="26" t="n"/>
-      <c r="DO9" s="26" t="n"/>
-      <c r="DP9" s="26" t="n"/>
-      <c r="DQ9" s="27" t="n"/>
-      <c r="DR9" s="25" t="n"/>
-      <c r="DS9" s="26" t="n"/>
-      <c r="DT9" s="26" t="n"/>
-      <c r="DU9" s="26" t="n"/>
-      <c r="DV9" s="26" t="n"/>
-      <c r="DW9" s="26" t="n"/>
-      <c r="DX9" s="26" t="n"/>
-      <c r="DY9" s="26" t="n"/>
-      <c r="DZ9" s="26" t="n"/>
-      <c r="EA9" s="26" t="n"/>
-      <c r="EB9" s="26" t="n"/>
-      <c r="EC9" s="27" t="n"/>
-      <c r="ED9" s="25" t="n"/>
-      <c r="EE9" s="26" t="n"/>
-      <c r="EF9" s="26" t="n"/>
-      <c r="EG9" s="26" t="n"/>
-      <c r="EH9" s="26" t="n"/>
-      <c r="EI9" s="26" t="n"/>
-      <c r="EJ9" s="26" t="n"/>
-      <c r="EK9" s="26" t="n"/>
-      <c r="EL9" s="26" t="n"/>
-      <c r="EM9" s="26" t="n"/>
-      <c r="EN9" s="26" t="n"/>
-      <c r="EO9" s="27" t="n"/>
-      <c r="EP9" s="25" t="n"/>
-      <c r="EQ9" s="26" t="n"/>
-      <c r="ER9" s="26" t="n"/>
-      <c r="ES9" s="26" t="n"/>
-      <c r="ET9" s="26" t="n"/>
-      <c r="EU9" s="26" t="n"/>
-      <c r="EV9" s="26" t="n"/>
-      <c r="EW9" s="26" t="n"/>
-      <c r="EX9" s="26" t="n"/>
-      <c r="EY9" s="26" t="n"/>
-      <c r="EZ9" s="26" t="n"/>
-      <c r="FA9" s="27" t="n"/>
-      <c r="FB9" s="25" t="n"/>
-      <c r="FC9" s="26" t="n"/>
-      <c r="FD9" s="26" t="n"/>
-      <c r="FE9" s="26" t="n"/>
-      <c r="FF9" s="26" t="n"/>
-      <c r="FG9" s="26" t="n"/>
-      <c r="FH9" s="26" t="n"/>
-      <c r="FI9" s="26" t="n"/>
-      <c r="FJ9" s="26" t="n"/>
-      <c r="FK9" s="26" t="n"/>
-      <c r="FL9" s="26" t="n"/>
-      <c r="FM9" s="27" t="n"/>
-      <c r="FN9" s="25" t="n"/>
-      <c r="FO9" s="26" t="n"/>
-      <c r="FP9" s="26" t="n"/>
-      <c r="FQ9" s="26" t="n"/>
-      <c r="FR9" s="26" t="n"/>
-      <c r="FS9" s="26" t="n"/>
-      <c r="FT9" s="26" t="n"/>
-      <c r="FU9" s="26" t="n"/>
-      <c r="FV9" s="26" t="n"/>
-      <c r="FW9" s="26" t="n"/>
-      <c r="FX9" s="26" t="n"/>
-      <c r="FY9" s="27" t="n"/>
-      <c r="FZ9" s="25" t="n"/>
-      <c r="GA9" s="26" t="n"/>
-      <c r="GB9" s="26" t="n"/>
-      <c r="GC9" s="26" t="n"/>
-      <c r="GD9" s="26" t="n"/>
-      <c r="GE9" s="26" t="n"/>
-      <c r="GF9" s="26" t="n"/>
-      <c r="GG9" s="26" t="n"/>
-      <c r="GH9" s="26" t="n"/>
-      <c r="GI9" s="26" t="n"/>
-      <c r="GJ9" s="26" t="n"/>
-      <c r="GK9" s="27" t="n"/>
-      <c r="GL9" s="14" t="n"/>
-      <c r="GM9" s="14" t="n"/>
-      <c r="GN9" s="14" t="n"/>
-      <c r="GO9" s="14" t="n"/>
-      <c r="GP9" s="14" t="n"/>
+      <c r="B9" s="89" t="n"/>
+      <c r="C9" s="90" t="n"/>
+      <c r="D9" s="90" t="n"/>
+      <c r="E9" s="90" t="n"/>
+      <c r="F9" s="90" t="n"/>
+      <c r="G9" s="90" t="n"/>
+      <c r="H9" s="90" t="n"/>
+      <c r="I9" s="90" t="n"/>
+      <c r="J9" s="90" t="n"/>
+      <c r="K9" s="90" t="n"/>
+      <c r="L9" s="90" t="n"/>
+      <c r="M9" s="91" t="n"/>
+      <c r="N9" s="89" t="n"/>
+      <c r="O9" s="90" t="n"/>
+      <c r="P9" s="90" t="n"/>
+      <c r="Q9" s="90" t="n"/>
+      <c r="R9" s="90" t="n"/>
+      <c r="S9" s="90" t="n"/>
+      <c r="T9" s="90" t="n"/>
+      <c r="U9" s="90" t="n"/>
+      <c r="V9" s="90" t="n"/>
+      <c r="W9" s="90" t="n"/>
+      <c r="X9" s="90" t="n"/>
+      <c r="Y9" s="91" t="n"/>
+      <c r="Z9" s="89" t="n"/>
+      <c r="AA9" s="90" t="n"/>
+      <c r="AB9" s="90" t="n"/>
+      <c r="AC9" s="90" t="n"/>
+      <c r="AD9" s="90" t="n"/>
+      <c r="AE9" s="90" t="n"/>
+      <c r="AF9" s="90" t="n"/>
+      <c r="AG9" s="90" t="n"/>
+      <c r="AH9" s="90" t="n"/>
+      <c r="AI9" s="90" t="n"/>
+      <c r="AJ9" s="90" t="n"/>
+      <c r="AK9" s="91" t="n"/>
+      <c r="AL9" s="89" t="n"/>
+      <c r="AM9" s="90" t="n"/>
+      <c r="AN9" s="90" t="n"/>
+      <c r="AO9" s="90" t="n"/>
+      <c r="AP9" s="90" t="n"/>
+      <c r="AQ9" s="90" t="n"/>
+      <c r="AR9" s="90" t="n"/>
+      <c r="AS9" s="90" t="n"/>
+      <c r="AT9" s="90" t="n"/>
+      <c r="AU9" s="90" t="n"/>
+      <c r="AV9" s="90" t="n"/>
+      <c r="AW9" s="91" t="n"/>
+      <c r="AX9" s="89" t="n"/>
+      <c r="AY9" s="90" t="n"/>
+      <c r="AZ9" s="90" t="n"/>
+      <c r="BA9" s="90" t="n"/>
+      <c r="BB9" s="90" t="n"/>
+      <c r="BC9" s="90" t="n"/>
+      <c r="BD9" s="90" t="n"/>
+      <c r="BE9" s="90" t="n"/>
+      <c r="BF9" s="90" t="n"/>
+      <c r="BG9" s="90" t="n"/>
+      <c r="BH9" s="90" t="n"/>
+      <c r="BI9" s="91" t="n"/>
+      <c r="BJ9" s="89" t="n"/>
+      <c r="BK9" s="90" t="n"/>
+      <c r="BL9" s="90" t="n"/>
+      <c r="BM9" s="90" t="n"/>
+      <c r="BN9" s="90" t="n"/>
+      <c r="BO9" s="90" t="n"/>
+      <c r="BP9" s="90" t="n"/>
+      <c r="BQ9" s="90" t="n"/>
+      <c r="BR9" s="90" t="n"/>
+      <c r="BS9" s="90" t="n"/>
+      <c r="BT9" s="90" t="n"/>
+      <c r="BU9" s="91" t="n"/>
+      <c r="BV9" s="89" t="n"/>
+      <c r="BW9" s="90" t="n"/>
+      <c r="BX9" s="90" t="n"/>
+      <c r="BY9" s="90" t="n"/>
+      <c r="BZ9" s="90" t="n"/>
+      <c r="CA9" s="90" t="n"/>
+      <c r="CB9" s="90" t="n"/>
+      <c r="CC9" s="90" t="n"/>
+      <c r="CD9" s="90" t="n"/>
+      <c r="CE9" s="90" t="n"/>
+      <c r="CF9" s="90" t="n"/>
+      <c r="CG9" s="91" t="n"/>
+      <c r="CH9" s="89" t="n"/>
+      <c r="CI9" s="90" t="n"/>
+      <c r="CJ9" s="90" t="n"/>
+      <c r="CK9" s="90" t="n"/>
+      <c r="CL9" s="90" t="n"/>
+      <c r="CM9" s="90" t="n"/>
+      <c r="CN9" s="90" t="n"/>
+      <c r="CO9" s="90" t="n"/>
+      <c r="CP9" s="90" t="n"/>
+      <c r="CQ9" s="90" t="n"/>
+      <c r="CR9" s="90" t="n"/>
+      <c r="CS9" s="91" t="n"/>
+      <c r="CT9" s="89" t="n"/>
+      <c r="CU9" s="90" t="n"/>
+      <c r="CV9" s="90" t="n"/>
+      <c r="CW9" s="90" t="n"/>
+      <c r="CX9" s="90" t="n"/>
+      <c r="CY9" s="90" t="n"/>
+      <c r="CZ9" s="90" t="n"/>
+      <c r="DA9" s="90" t="n"/>
+      <c r="DB9" s="90" t="n"/>
+      <c r="DC9" s="90" t="n"/>
+      <c r="DD9" s="90" t="n"/>
+      <c r="DE9" s="91" t="n"/>
+      <c r="DF9" s="89" t="n"/>
+      <c r="DG9" s="90" t="n"/>
+      <c r="DH9" s="90" t="n"/>
+      <c r="DI9" s="90" t="n"/>
+      <c r="DJ9" s="90" t="n"/>
+      <c r="DK9" s="90" t="n"/>
+      <c r="DL9" s="90" t="n"/>
+      <c r="DM9" s="90" t="n"/>
+      <c r="DN9" s="90" t="n"/>
+      <c r="DO9" s="90" t="n"/>
+      <c r="DP9" s="90" t="n"/>
+      <c r="DQ9" s="91" t="n"/>
+      <c r="DR9" s="89" t="n"/>
+      <c r="DS9" s="90" t="n"/>
+      <c r="DT9" s="90" t="n"/>
+      <c r="DU9" s="90" t="n"/>
+      <c r="DV9" s="90" t="n"/>
+      <c r="DW9" s="90" t="n"/>
+      <c r="DX9" s="90" t="n"/>
+      <c r="DY9" s="90" t="n"/>
+      <c r="DZ9" s="90" t="n"/>
+      <c r="EA9" s="90" t="n"/>
+      <c r="EB9" s="90" t="n"/>
+      <c r="EC9" s="91" t="n"/>
+      <c r="ED9" s="89" t="n"/>
+      <c r="EE9" s="90" t="n"/>
+      <c r="EF9" s="90" t="n"/>
+      <c r="EG9" s="90" t="n"/>
+      <c r="EH9" s="90" t="n"/>
+      <c r="EI9" s="90" t="n"/>
+      <c r="EJ9" s="90" t="n"/>
+      <c r="EK9" s="90" t="n"/>
+      <c r="EL9" s="90" t="n"/>
+      <c r="EM9" s="90" t="n"/>
+      <c r="EN9" s="90" t="n"/>
+      <c r="EO9" s="91" t="n"/>
+      <c r="EP9" s="89" t="n"/>
+      <c r="EQ9" s="90" t="n"/>
+      <c r="ER9" s="90" t="n"/>
+      <c r="ES9" s="90" t="n"/>
+      <c r="ET9" s="90" t="n"/>
+      <c r="EU9" s="90" t="n"/>
+      <c r="EV9" s="90" t="n"/>
+      <c r="EW9" s="90" t="n"/>
+      <c r="EX9" s="90" t="n"/>
+      <c r="EY9" s="90" t="n"/>
+      <c r="EZ9" s="90" t="n"/>
+      <c r="FA9" s="91" t="n"/>
+      <c r="FB9" s="89" t="n"/>
+      <c r="FC9" s="90" t="n"/>
+      <c r="FD9" s="90" t="n"/>
+      <c r="FE9" s="90" t="n"/>
+      <c r="FF9" s="90" t="n"/>
+      <c r="FG9" s="90" t="n"/>
+      <c r="FH9" s="90" t="n"/>
+      <c r="FI9" s="90" t="n"/>
+      <c r="FJ9" s="90" t="n"/>
+      <c r="FK9" s="90" t="n"/>
+      <c r="FL9" s="90" t="n"/>
+      <c r="FM9" s="91" t="n"/>
+      <c r="FN9" s="89" t="n"/>
+      <c r="FO9" s="90" t="n"/>
+      <c r="FP9" s="90" t="n"/>
+      <c r="FQ9" s="90" t="n"/>
+      <c r="FR9" s="90" t="n"/>
+      <c r="FS9" s="90" t="n"/>
+      <c r="FT9" s="90" t="n"/>
+      <c r="FU9" s="90" t="n"/>
+      <c r="FV9" s="90" t="n"/>
+      <c r="FW9" s="90" t="n"/>
+      <c r="FX9" s="90" t="n"/>
+      <c r="FY9" s="91" t="n"/>
+      <c r="FZ9" s="89" t="n"/>
+      <c r="GA9" s="90" t="n"/>
+      <c r="GB9" s="90" t="n"/>
+      <c r="GC9" s="90" t="n"/>
+      <c r="GD9" s="90" t="n"/>
+      <c r="GE9" s="90" t="n"/>
+      <c r="GF9" s="90" t="n"/>
+      <c r="GG9" s="90" t="n"/>
+      <c r="GH9" s="90" t="n"/>
+      <c r="GI9" s="90" t="n"/>
+      <c r="GJ9" s="90" t="n"/>
+      <c r="GK9" s="91" t="n"/>
+      <c r="GL9" s="92" t="n"/>
+      <c r="GM9" s="92" t="n"/>
+      <c r="GN9" s="92" t="n"/>
+      <c r="GO9" s="92" t="n"/>
+      <c r="GP9" s="92" t="n"/>
+      <c r="GQ9" s="92" t="n"/>
+      <c r="GR9" s="92" t="n"/>
+      <c r="GS9" s="92" t="n"/>
+      <c r="GT9" s="92" t="n"/>
+      <c r="GU9" s="92" t="n"/>
+      <c r="GV9" s="92" t="n"/>
+      <c r="GW9" s="92" t="n"/>
     </row>
     <row r="10" ht="50.25" customHeight="1" s="55" thickBot="1">
       <c r="A10" s="12" t="n"/>
